--- a/CODE/Anomaly_detect/dataset/class1/50/Simulink_Data2.xlsx
+++ b/CODE/Anomaly_detect/dataset/class1/50/Simulink_Data2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PS!\CO2_Anomaly_detection\CODE\Anomaly_detect\dataset\class1\50\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PS!\dg models\Data_generation\Model3\CX_2102\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -391,18 +391,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F221" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K241"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -493,22 +490,22 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="B3">
-        <v>442.28747245128557</v>
+        <v>587.58504964533461</v>
       </c>
       <c r="C3">
-        <v>442.59927156218055</v>
+        <v>589.10318317062035</v>
       </c>
       <c r="D3">
-        <v>443.47075364764083</v>
+        <v>589.15324802761131</v>
       </c>
       <c r="E3">
-        <v>443.57137510176102</v>
+        <v>590.41992568033004</v>
       </c>
       <c r="F3">
-        <v>442.99885994639516</v>
+        <v>591.26179479047607</v>
       </c>
       <c r="G3">
-        <v>443.76092667064779</v>
+        <v>591.42018877732721</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -520,7 +517,7 @@
         <v>80</v>
       </c>
       <c r="K3">
-        <v>7.7504000000000003E-2</v>
+        <v>7.6694999999999999E-2</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
@@ -534,22 +531,22 @@
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="B4">
-        <v>537.24280517587988</v>
+        <v>807.61532998719861</v>
       </c>
       <c r="C4">
-        <v>537.44854967158983</v>
+        <v>808.96331525413689</v>
       </c>
       <c r="D4">
-        <v>538.21410494824454</v>
+        <v>808.8373894280428</v>
       </c>
       <c r="E4">
-        <v>538.20890499007533</v>
+        <v>809.92136573490848</v>
       </c>
       <c r="F4">
-        <v>537.53067542469421</v>
+        <v>810.57263071559441</v>
       </c>
       <c r="G4">
-        <v>538.18716812570085</v>
+        <v>810.53119807573705</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -561,7 +558,7 @@
         <v>80</v>
       </c>
       <c r="K4">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
@@ -575,22 +572,22 @@
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="B5">
-        <v>599.90028960230654</v>
+        <v>965.45060934641378</v>
       </c>
       <c r="C5">
-        <v>600.03605278289979</v>
+        <v>966.65762534188832</v>
       </c>
       <c r="D5">
-        <v>600.73171108337579</v>
+        <v>966.39081511358984</v>
       </c>
       <c r="E5">
-        <v>600.65668368767911</v>
+        <v>967.33406656136174</v>
       </c>
       <c r="F5">
-        <v>599.90869728416874</v>
+        <v>967.84472032358508</v>
       </c>
       <c r="G5">
-        <v>600.49552579467047</v>
+        <v>967.6627828706105</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -602,7 +599,7 @@
         <v>80</v>
       </c>
       <c r="K5">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
@@ -616,22 +613,22 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="B6">
-        <v>641.24564750453476</v>
+        <v>1078.6435956766998</v>
       </c>
       <c r="C6">
-        <v>641.33523261840094</v>
+        <v>1079.7495148175519</v>
       </c>
       <c r="D6">
-        <v>641.98476850445752</v>
+        <v>1079.3816685843622</v>
       </c>
       <c r="E6">
-        <v>641.86366457979409</v>
+        <v>1080.2239984516455</v>
       </c>
       <c r="F6">
-        <v>641.06964823278122</v>
+        <v>1080.6338121252031</v>
       </c>
       <c r="G6">
-        <v>641.61050793508082</v>
+        <v>1080.3511108846001</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
@@ -643,7 +640,7 @@
         <v>80</v>
       </c>
       <c r="K6">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L6" t="s">
         <v>13</v>
@@ -657,22 +654,22 @@
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="B7">
-        <v>668.5279225163971</v>
+        <v>1159.8210287972161</v>
       </c>
       <c r="C7">
-        <v>668.5870364302765</v>
+        <v>1160.8544454301896</v>
       </c>
       <c r="D7">
-        <v>669.20613783925535</v>
+        <v>1160.4141403264875</v>
       </c>
       <c r="E7">
-        <v>669.05462971559871</v>
+        <v>1161.184093384313</v>
       </c>
       <c r="F7">
-        <v>668.23023990959246</v>
+        <v>1161.521588690274</v>
       </c>
       <c r="G7">
-        <v>668.74076649385393</v>
+        <v>1161.1666238011271</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
@@ -684,7 +681,7 @@
         <v>80</v>
       </c>
       <c r="K7">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
@@ -698,22 +695,22 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="B8">
-        <v>686.53048851256767</v>
+        <v>1218.0382100478041</v>
       </c>
       <c r="C8">
-        <v>686.56949560666806</v>
+        <v>1219.0196308139646</v>
       </c>
       <c r="D8">
-        <v>687.16851442795917</v>
+        <v>1218.5273611382447</v>
       </c>
       <c r="E8">
-        <v>686.99694369600343</v>
+        <v>1219.2454084749686</v>
       </c>
       <c r="F8">
-        <v>686.15251156588749</v>
+        <v>1219.5310399718896</v>
       </c>
       <c r="G8">
-        <v>686.64302244554756</v>
+        <v>1219.1242505158971</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
@@ -725,7 +722,7 @@
         <v>80</v>
       </c>
       <c r="K8">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L8" t="s">
         <v>13</v>
@@ -739,22 +736,22 @@
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="B9">
-        <v>698.40971715033083</v>
+        <v>1259.7892255611989</v>
       </c>
       <c r="C9">
-        <v>698.4354564964159</v>
+        <v>1260.7333569886168</v>
       </c>
       <c r="D9">
-        <v>699.02122355955476</v>
+        <v>1260.2038204175028</v>
       </c>
       <c r="E9">
-        <v>698.83641425310748</v>
+        <v>1260.8846430643412</v>
       </c>
       <c r="F9">
-        <v>697.9787569332874</v>
+        <v>1261.1330799290072</v>
       </c>
       <c r="G9">
-        <v>698.45606018847445</v>
+        <v>1260.6891239836693</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
@@ -766,7 +763,7 @@
         <v>80</v>
       </c>
       <c r="K9">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L9" t="s">
         <v>13</v>
@@ -780,22 +777,22 @@
         <v>6.2499999999999995E-3</v>
       </c>
       <c r="B10">
-        <v>706.24838154212136</v>
+        <v>1289.7313709006969</v>
       </c>
       <c r="C10">
-        <v>706.2653659911424</v>
+        <v>1290.6487599175946</v>
       </c>
       <c r="D10">
-        <v>706.84238870833735</v>
+        <v>1290.0924970314222</v>
       </c>
       <c r="E10">
-        <v>706.64884375535723</v>
+        <v>1290.746623631291</v>
       </c>
       <c r="F10">
-        <v>705.78245962113124</v>
+        <v>1290.9683860051098</v>
       </c>
       <c r="G10">
-        <v>706.25104765255958</v>
+        <v>1290.4977757518834</v>
       </c>
       <c r="H10" t="s">
         <v>8</v>
@@ -807,7 +804,7 @@
         <v>80</v>
       </c>
       <c r="K10">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L10" t="s">
         <v>13</v>
@@ -821,22 +818,22 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="B11">
-        <v>711.42082676739938</v>
+        <v>1311.2046705783393</v>
       </c>
       <c r="C11">
-        <v>711.43203418308269</v>
+        <v>1312.1028810163991</v>
       </c>
       <c r="D11">
-        <v>712.0032868292343</v>
+        <v>1311.5274510944064</v>
       </c>
       <c r="E11">
-        <v>711.80397754563091</v>
+        <v>1312.1624323655096</v>
       </c>
       <c r="F11">
-        <v>710.93183490877641</v>
+        <v>1312.3650648697421</v>
       </c>
       <c r="G11">
-        <v>711.3946720858163</v>
+        <v>1311.8753392213343</v>
       </c>
       <c r="H11" t="s">
         <v>8</v>
@@ -848,7 +845,7 @@
         <v>80</v>
       </c>
       <c r="K11">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
@@ -862,22 +859,22 @@
         <v>7.6388888888888886E-3</v>
       </c>
       <c r="B12">
-        <v>758.05190133030305</v>
+        <v>1326.6044555252452</v>
       </c>
       <c r="C12">
-        <v>721.78389042827973</v>
+        <v>1327.4889118596454</v>
       </c>
       <c r="D12">
-        <v>723.46658215806451</v>
+        <v>1326.8997361121806</v>
       </c>
       <c r="E12">
-        <v>724.557866520223</v>
+        <v>1327.5209871252348</v>
       </c>
       <c r="F12">
-        <v>725.18425042481397</v>
+        <v>1327.7099004581205</v>
       </c>
       <c r="G12">
-        <v>727.3869542581308</v>
+        <v>1327.206466018825</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
@@ -889,7 +886,7 @@
         <v>80</v>
       </c>
       <c r="K12">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
@@ -903,22 +900,22 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="B13">
-        <v>1347.2072576439227</v>
+        <v>1337.6485605288269</v>
       </c>
       <c r="C13">
-        <v>1305.2837629488081</v>
+        <v>1338.5231529745074</v>
       </c>
       <c r="D13">
-        <v>1307.111625332572</v>
+        <v>1337.924119275104</v>
       </c>
       <c r="E13">
-        <v>1308.1674353128385</v>
+        <v>1338.5355235005484</v>
       </c>
       <c r="F13">
-        <v>1308.548933774231</v>
+        <v>1338.7145979967593</v>
       </c>
       <c r="G13">
-        <v>1310.2641609763175</v>
+        <v>1338.2013321652357</v>
       </c>
       <c r="H13" t="s">
         <v>8</v>
@@ -930,7 +927,7 @@
         <v>80</v>
       </c>
       <c r="K13">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
@@ -944,22 +941,22 @@
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="B14">
-        <v>1733.6555747615241</v>
+        <v>1345.568947453115</v>
       </c>
       <c r="C14">
-        <v>1691.316900750827</v>
+        <v>1346.4364659154151</v>
       </c>
       <c r="D14">
-        <v>1692.7133197171713</v>
+        <v>1345.8303624902519</v>
       </c>
       <c r="E14">
-        <v>1693.3381154777094</v>
+        <v>1346.4347049965431</v>
       </c>
       <c r="F14">
-        <v>1693.289035503009</v>
+        <v>1346.6067234756908</v>
       </c>
       <c r="G14">
-        <v>1694.5742567582486</v>
+        <v>1346.0864069659626</v>
       </c>
       <c r="H14" t="s">
         <v>8</v>
@@ -971,7 +968,7 @@
         <v>80</v>
       </c>
       <c r="K14">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L14" t="s">
         <v>13</v>
@@ -985,22 +982,22 @@
         <v>9.7222222222222224E-3</v>
       </c>
       <c r="B15">
-        <v>1988.5748609700127</v>
+        <v>1351.2491296869898</v>
       </c>
       <c r="C15">
-        <v>1945.9622964403875</v>
+        <v>1352.1115749735595</v>
       </c>
       <c r="D15">
-        <v>1947.0740868975809</v>
+        <v>1351.5004014260596</v>
       </c>
       <c r="E15">
-        <v>1947.4145376487368</v>
+        <v>1352.0996795520298</v>
       </c>
       <c r="F15">
-        <v>1947.0814004814968</v>
+        <v>1352.2666377401658</v>
       </c>
       <c r="G15">
-        <v>1948.0829421109065</v>
+        <v>1351.7412647682395</v>
       </c>
       <c r="H15" t="s">
         <v>8</v>
@@ -1012,7 +1009,7 @@
         <v>80</v>
       </c>
       <c r="K15">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L15" t="s">
         <v>13</v>
@@ -1026,22 +1023,22 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="B16">
-        <v>2156.7285432478538</v>
+        <v>1355.322727418825</v>
       </c>
       <c r="C16">
-        <v>2113.9353092792112</v>
+        <v>1356.1815344282586</v>
       </c>
       <c r="D16">
-        <v>2114.8593466396533</v>
+        <v>1355.5667247933939</v>
       </c>
       <c r="E16">
-        <v>2115.0122313274255</v>
+        <v>1356.1623709499413</v>
       </c>
       <c r="F16">
-        <v>2114.4917179763306</v>
+        <v>1356.325700101343</v>
       </c>
       <c r="G16">
-        <v>2115.3061324803843</v>
+        <v>1355.7967008385522</v>
       </c>
       <c r="H16" t="s">
         <v>8</v>
@@ -1053,7 +1050,7 @@
         <v>80</v>
       </c>
       <c r="K16">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L16" t="s">
         <v>13</v>
@@ -1067,22 +1064,22 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="B17">
-        <v>2267.6483863561189</v>
+        <v>1358.2441475066996</v>
       </c>
       <c r="C17">
-        <v>2224.7359766157047</v>
+        <v>1359.1003452904292</v>
       </c>
       <c r="D17">
-        <v>2225.5361655576944</v>
+        <v>1358.4829280002759</v>
       </c>
       <c r="E17">
-        <v>2225.5653252022239</v>
+        <v>1359.0759694547573</v>
       </c>
       <c r="F17">
-        <v>2224.9212120604325</v>
+        <v>1359.2366960072977</v>
       </c>
       <c r="G17">
-        <v>2225.6121910615284</v>
+        <v>1358.7050961148732</v>
       </c>
       <c r="H17" t="s">
         <v>8</v>
@@ -1094,7 +1091,7 @@
         <v>80</v>
       </c>
       <c r="K17">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L17" t="s">
         <v>13</v>
@@ -1108,22 +1105,22 @@
         <v>1.1805555555555555E-2</v>
       </c>
       <c r="B18">
-        <v>2340.8148445969236</v>
+        <v>1360.3392722322264</v>
       </c>
       <c r="C18">
-        <v>2297.8238225031723</v>
+        <v>1361.1935987844583</v>
       </c>
       <c r="D18">
-        <v>2298.5423168555017</v>
+        <v>1360.574311389046</v>
       </c>
       <c r="E18">
-        <v>2298.4898632929057</v>
+        <v>1361.1654848562</v>
       </c>
       <c r="F18">
-        <v>2297.7642195648777</v>
+        <v>1361.324344929747</v>
       </c>
       <c r="G18">
-        <v>2298.3737763494778</v>
+        <v>1360.7908799705804</v>
       </c>
       <c r="H18" t="s">
         <v>8</v>
@@ -1135,7 +1132,7 @@
         <v>80</v>
       </c>
       <c r="K18">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L18" t="s">
         <v>13</v>
@@ -1149,22 +1146,22 @@
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="B19">
-        <v>2371.3029682300007</v>
+        <v>1313.1177771574851</v>
       </c>
       <c r="C19">
-        <v>2328.2207080218614</v>
+        <v>1313.8588252362445</v>
       </c>
       <c r="D19">
-        <v>2329.1738511379449</v>
+        <v>1312.908340688638</v>
       </c>
       <c r="E19">
-        <v>2328.5928900861709</v>
+        <v>1313.3864402377142</v>
       </c>
       <c r="F19">
-        <v>2328.1020941097981</v>
+        <v>1313.5413471553863</v>
       </c>
       <c r="G19">
-        <v>2328.6376720085727</v>
+        <v>1312.8041729130334</v>
       </c>
       <c r="H19" t="s">
         <v>8</v>
@@ -1176,7 +1173,7 @@
         <v>80</v>
       </c>
       <c r="K19">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L19" t="s">
         <v>13</v>
@@ -1190,22 +1187,22 @@
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="B20">
-        <v>2391.3819409682728</v>
+        <v>1278.7556972289235</v>
       </c>
       <c r="C20">
-        <v>2348.2781076475721</v>
+        <v>1279.5274370480429</v>
       </c>
       <c r="D20">
-        <v>2349.2088330385391</v>
+        <v>1278.6076270637925</v>
       </c>
       <c r="E20">
-        <v>2348.6054738846169</v>
+        <v>1279.1163651169763</v>
       </c>
       <c r="F20">
-        <v>2348.0923051779955</v>
+        <v>1279.3018851294119</v>
       </c>
       <c r="G20">
-        <v>2348.6055389869939</v>
+        <v>1278.5953020122142</v>
       </c>
       <c r="H20" t="s">
         <v>8</v>
@@ -1217,7 +1214,7 @@
         <v>80</v>
       </c>
       <c r="K20">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L20" t="s">
         <v>13</v>
@@ -1231,22 +1228,22 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="B21">
-        <v>2404.6267320015081</v>
+        <v>1254.1128671895617</v>
       </c>
       <c r="C21">
-        <v>2361.5086680190107</v>
+        <v>1254.906616868557</v>
       </c>
       <c r="D21">
-        <v>2362.4246055606959</v>
+        <v>1254.0088044406962</v>
       </c>
       <c r="E21">
-        <v>2361.8064715063251</v>
+        <v>1254.5395141879756</v>
       </c>
       <c r="F21">
-        <v>2361.2785446382659</v>
+        <v>1254.7469876795142</v>
       </c>
       <c r="G21">
-        <v>2361.7770391797862</v>
+        <v>1254.0623422962317</v>
       </c>
       <c r="H21" t="s">
         <v>8</v>
@@ -1258,7 +1255,7 @@
         <v>80</v>
       </c>
       <c r="K21">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L21" t="s">
         <v>13</v>
@@ -1272,22 +1269,22 @@
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="B22">
-        <v>2413.3634276873713</v>
+        <v>1236.4401269278708</v>
       </c>
       <c r="C22">
-        <v>2370.2359766811642</v>
+        <v>1237.2496610253688</v>
       </c>
       <c r="D22">
-        <v>2371.1421596573327</v>
+        <v>1236.3676241939315</v>
       </c>
       <c r="E22">
-        <v>2370.5142795791794</v>
+        <v>1236.9140909901009</v>
       </c>
       <c r="F22">
-        <v>2369.9766177290935</v>
+        <v>1237.1373084682398</v>
       </c>
       <c r="G22">
-        <v>2370.4653897517474</v>
+        <v>1236.4683957807949</v>
       </c>
       <c r="H22" t="s">
         <v>8</v>
@@ -1299,7 +1296,7 @@
         <v>80</v>
       </c>
       <c r="K22">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L22" t="s">
         <v>13</v>
@@ -1313,22 +1310,22 @@
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="B23">
-        <v>2419.1264351348809</v>
+        <v>1223.7660163527914</v>
       </c>
       <c r="C23">
-        <v>2375.9927921429512</v>
+        <v>1224.5868703328365</v>
       </c>
       <c r="D23">
-        <v>2376.8925406907647</v>
+        <v>1223.7161470572787</v>
       </c>
       <c r="E23">
-        <v>2376.2582318186769</v>
+        <v>1224.2739141078291</v>
       </c>
       <c r="F23">
-        <v>2375.7141484581625</v>
+        <v>1224.5084224727159</v>
       </c>
       <c r="G23">
-        <v>2376.1965071914997</v>
+        <v>1223.8507925748734</v>
       </c>
       <c r="H23" t="s">
         <v>8</v>
@@ -1340,7 +1337,7 @@
         <v>80</v>
       </c>
       <c r="K23">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L23" t="s">
         <v>13</v>
@@ -1354,22 +1351,22 @@
         <v>1.5972222222222224E-2</v>
       </c>
       <c r="B24">
-        <v>2422.9279014145304</v>
+        <v>1214.6767019422844</v>
       </c>
       <c r="C24">
-        <v>2379.7901739883159</v>
+        <v>1215.5056740433361</v>
       </c>
       <c r="D24">
-        <v>2380.6856781788292</v>
+        <v>1214.6430643515896</v>
       </c>
       <c r="E24">
-        <v>2380.0471286660882</v>
+        <v>1215.2089354466991</v>
       </c>
       <c r="F24">
-        <v>2379.4988094693563</v>
+        <v>1215.4515411380978</v>
       </c>
       <c r="G24">
-        <v>2379.9769377893886</v>
+        <v>1214.8020027598604</v>
       </c>
       <c r="H24" t="s">
         <v>8</v>
@@ -1381,7 +1378,7 @@
         <v>80</v>
       </c>
       <c r="K24">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L24" t="s">
         <v>13</v>
@@ -1395,22 +1392,22 @@
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="B25">
-        <v>2425.4354716334574</v>
+        <v>1208.1582455259534</v>
       </c>
       <c r="C25">
-        <v>2382.2950499821659</v>
+        <v>1208.9930395861768</v>
       </c>
       <c r="D25">
-        <v>2383.187754457203</v>
+        <v>1208.1362485997267</v>
       </c>
       <c r="E25">
-        <v>2382.5464076806056</v>
+        <v>1208.7079315590006</v>
       </c>
       <c r="F25">
-        <v>2381.9952943891808</v>
+        <v>1208.9563442966753</v>
       </c>
       <c r="G25">
-        <v>2382.4706321916474</v>
+        <v>1208.3126088002573</v>
       </c>
       <c r="H25" t="s">
         <v>8</v>
@@ -1422,7 +1419,7 @@
         <v>80</v>
       </c>
       <c r="K25">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L25" t="s">
         <v>13</v>
@@ -1436,22 +1433,22 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="B26">
-        <v>2427.0895461245291</v>
+        <v>1203.4834953525631</v>
       </c>
       <c r="C26">
-        <v>2383.9473472751592</v>
+        <v>1204.3224646657709</v>
       </c>
       <c r="D26">
-        <v>2384.8382049672355</v>
+        <v>1203.4698465987699</v>
       </c>
       <c r="E26">
-        <v>2384.1950130248465</v>
+        <v>1204.045697571333</v>
       </c>
       <c r="F26">
-        <v>2383.642056658111</v>
+        <v>1204.29827486712</v>
       </c>
       <c r="G26">
-        <v>2384.1155537448567</v>
+        <v>1203.6587009422487</v>
       </c>
       <c r="H26" t="s">
         <v>8</v>
@@ -1463,7 +1460,7 @@
         <v>80</v>
       </c>
       <c r="K26">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L26" t="s">
         <v>13</v>
@@ -1477,22 +1474,22 @@
         <v>1.8055555555555557E-2</v>
       </c>
       <c r="B27">
-        <v>2429.4889490867822</v>
+        <v>1202.7656165404674</v>
       </c>
       <c r="C27">
-        <v>2386.3485227936721</v>
+        <v>1203.636163158242</v>
       </c>
       <c r="D27">
-        <v>2387.2636068670604</v>
+        <v>1202.7624870935003</v>
       </c>
       <c r="E27">
-        <v>2386.6145594289546</v>
+        <v>1203.3398264689613</v>
       </c>
       <c r="F27">
-        <v>2386.040706105141</v>
+        <v>1203.6314751986956</v>
       </c>
       <c r="G27">
-        <v>2386.5409304254167</v>
+        <v>1202.9745782160046</v>
       </c>
       <c r="H27" t="s">
         <v>8</v>
@@ -1504,7 +1501,7 @@
         <v>80</v>
       </c>
       <c r="K27">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L27" t="s">
         <v>13</v>
@@ -1518,22 +1515,22 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="B28">
-        <v>2431.0880187585935</v>
+        <v>1202.2699483011806</v>
       </c>
       <c r="C28">
-        <v>2387.9458743320829</v>
+        <v>1203.1409375619585</v>
       </c>
       <c r="D28">
-        <v>2388.8591730013677</v>
+        <v>1202.2677038986858</v>
       </c>
       <c r="E28">
-        <v>2388.2083417146382</v>
+        <v>1202.8454851531483</v>
       </c>
       <c r="F28">
-        <v>2387.6327065593068</v>
+        <v>1203.1375753928166</v>
       </c>
       <c r="G28">
-        <v>2388.1311513428018</v>
+        <v>1202.4811196091937</v>
       </c>
       <c r="H28" t="s">
         <v>8</v>
@@ -1545,7 +1542,7 @@
         <v>80</v>
       </c>
       <c r="K28">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L28" t="s">
         <v>13</v>
@@ -1559,22 +1556,22 @@
         <v>1.9444444444444445E-2</v>
       </c>
       <c r="B29">
-        <v>2432.1428132749397</v>
+        <v>1201.9144697670006</v>
       </c>
       <c r="C29">
-        <v>2388.9995355371748</v>
+        <v>1202.7857765158656</v>
       </c>
       <c r="D29">
-        <v>2389.9116565251479</v>
+        <v>1201.9128601666607</v>
       </c>
       <c r="E29">
-        <v>2389.2596485827899</v>
+        <v>1202.4909583606668</v>
       </c>
       <c r="F29">
-        <v>2388.6828381021633</v>
+        <v>1202.7833652748427</v>
       </c>
       <c r="G29">
-        <v>2389.1801090739123</v>
+        <v>1202.1272259422392</v>
       </c>
       <c r="H29" t="s">
         <v>8</v>
@@ -1586,7 +1583,7 @@
         <v>80</v>
       </c>
       <c r="K29">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L29" t="s">
         <v>13</v>
@@ -1600,22 +1597,22 @@
         <v>2.013888888888889E-2</v>
       </c>
       <c r="B30">
-        <v>2432.8385897818562</v>
+        <v>1201.6595354552601</v>
       </c>
       <c r="C30">
-        <v>2389.6945644765624</v>
+        <v>1202.5310698969288</v>
       </c>
       <c r="D30">
-        <v>2390.6059086292871</v>
+        <v>1201.6583811156506</v>
       </c>
       <c r="E30">
-        <v>2389.9531245282337</v>
+        <v>1202.2367066090076</v>
       </c>
       <c r="F30">
-        <v>2389.3755387664296</v>
+        <v>1202.5293406324283</v>
       </c>
       <c r="G30">
-        <v>2389.872035455383</v>
+        <v>1201.8734282487394</v>
       </c>
       <c r="H30" t="s">
         <v>8</v>
@@ -1627,7 +1624,7 @@
         <v>80</v>
       </c>
       <c r="K30">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L30" t="s">
         <v>13</v>
@@ -1641,22 +1638,22 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="B31">
-        <v>2433.2975465454729</v>
+        <v>1201.4767076669864</v>
       </c>
       <c r="C31">
-        <v>2390.1530281204386</v>
+        <v>1202.3484054003729</v>
       </c>
       <c r="D31">
-        <v>2391.0638598474966</v>
+        <v>1201.4758798212492</v>
       </c>
       <c r="E31">
-        <v>2390.4105637670523</v>
+        <v>1202.0543683241517</v>
       </c>
       <c r="F31">
-        <v>2389.8324666046947</v>
+        <v>1202.3471652207775</v>
       </c>
       <c r="G31">
-        <v>2390.3284525516601</v>
+        <v>1201.6914155953089</v>
       </c>
       <c r="H31" t="s">
         <v>8</v>
@@ -1668,7 +1665,7 @@
         <v>80</v>
       </c>
       <c r="K31">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L31" t="s">
         <v>13</v>
@@ -1682,22 +1679,22 @@
         <v>2.1527777777777781E-2</v>
       </c>
       <c r="B32">
-        <v>2433.6002893276818</v>
+        <v>1201.3455915783823</v>
       </c>
       <c r="C32">
-        <v>2390.4554456248593</v>
+        <v>1202.2174064174774</v>
       </c>
       <c r="D32">
-        <v>2391.365939339315</v>
+        <v>1201.3449978798303</v>
       </c>
       <c r="E32">
-        <v>2390.712305540645</v>
+        <v>1201.9236032860781</v>
       </c>
       <c r="F32">
-        <v>2390.1338710418831</v>
+        <v>1202.2165169882724</v>
       </c>
       <c r="G32">
-        <v>2390.6295200868535</v>
+        <v>1201.5608840859088</v>
       </c>
       <c r="H32" t="s">
         <v>8</v>
@@ -1709,7 +1706,7 @@
         <v>80</v>
       </c>
       <c r="K32">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L32" t="s">
         <v>13</v>
@@ -1723,22 +1720,22 @@
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="B33">
-        <v>2433.7999882963313</v>
+        <v>1201.2515608616468</v>
       </c>
       <c r="C33">
-        <v>2390.6549300297197</v>
+        <v>1202.1234596838301</v>
       </c>
       <c r="D33">
-        <v>2391.5652007800877</v>
+        <v>1201.2511350832078</v>
       </c>
       <c r="E33">
-        <v>2390.9113442115113</v>
+        <v>1201.8298243274189</v>
       </c>
       <c r="F33">
-        <v>2390.3326871947056</v>
+        <v>1202.1228217974551</v>
       </c>
       <c r="G33">
-        <v>2390.8281140081826</v>
+        <v>1201.4672726037934</v>
       </c>
       <c r="H33" t="s">
         <v>8</v>
@@ -1750,7 +1747,7 @@
         <v>80</v>
       </c>
       <c r="K33">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L33" t="s">
         <v>13</v>
@@ -1764,22 +1761,22 @@
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="B34">
-        <v>2433.9317162199322</v>
+        <v>1201.1841261499005</v>
       </c>
       <c r="C34">
-        <v>2390.786516420078</v>
+        <v>1202.0560852010776</v>
       </c>
       <c r="D34">
-        <v>2391.6966400960946</v>
+        <v>1201.1838207964133</v>
       </c>
       <c r="E34">
-        <v>2391.042636581255</v>
+        <v>1201.76257016554</v>
       </c>
       <c r="F34">
-        <v>2390.4638327843222</v>
+        <v>1202.0556277102039</v>
       </c>
       <c r="G34">
-        <v>2390.9591130066897</v>
+        <v>1201.4001385487579</v>
       </c>
       <c r="H34" t="s">
         <v>8</v>
@@ -1791,7 +1788,7 @@
         <v>80</v>
       </c>
       <c r="K34">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L34" t="s">
         <v>13</v>
@@ -1805,22 +1802,22 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="B35">
-        <v>2434.0186082353157</v>
+        <v>1201.1357649281408</v>
       </c>
       <c r="C35">
-        <v>2390.8733150755393</v>
+        <v>1202.0077671729141</v>
       </c>
       <c r="D35">
-        <v>2391.7833417365396</v>
+        <v>1201.1355459381546</v>
       </c>
       <c r="E35">
-        <v>2391.1292412911735</v>
+        <v>1201.7143384262374</v>
       </c>
       <c r="F35">
-        <v>2390.5503406733028</v>
+        <v>1202.007439053793</v>
       </c>
       <c r="G35">
-        <v>2391.0455241994159</v>
+        <v>1201.351992944823</v>
       </c>
       <c r="H35" t="s">
         <v>8</v>
@@ -1832,7 +1829,7 @@
         <v>80</v>
       </c>
       <c r="K35">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L35" t="s">
         <v>13</v>
@@ -1846,22 +1843,22 @@
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="B36">
-        <v>2434.0759250298947</v>
+        <v>1201.1010823780218</v>
       </c>
       <c r="C36">
-        <v>2390.9305702868824</v>
+        <v>1201.9731155993506</v>
       </c>
       <c r="D36">
-        <v>2391.8405329536263</v>
+        <v>1201.1009253241562</v>
       </c>
       <c r="E36">
-        <v>2391.1863685697385</v>
+        <v>1201.6797487352655</v>
       </c>
       <c r="F36">
-        <v>2390.6074040856342</v>
+        <v>1201.9728802599841</v>
       </c>
       <c r="G36">
-        <v>2391.102523827758</v>
+        <v>1201.3174650263638</v>
       </c>
       <c r="H36" t="s">
         <v>8</v>
@@ -1873,7 +1870,7 @@
         <v>80</v>
       </c>
       <c r="K36">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L36" t="s">
         <v>13</v>
@@ -1887,22 +1884,22 @@
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="B37">
-        <v>2434.1137330485717</v>
+        <v>1201.0762095721018</v>
       </c>
       <c r="C37">
-        <v>2390.9683376832581</v>
+        <v>1201.9482650084594</v>
       </c>
       <c r="D37">
-        <v>2391.8782581373139</v>
+        <v>1201.0760969361088</v>
       </c>
       <c r="E37">
-        <v>2391.2240515775006</v>
+        <v>1201.6549425238591</v>
       </c>
       <c r="F37">
-        <v>2390.6450449651543</v>
+        <v>1201.9480962066696</v>
       </c>
       <c r="G37">
-        <v>2391.1401226332878</v>
+        <v>1201.2927031154982</v>
       </c>
       <c r="H37" t="s">
         <v>8</v>
@@ -1914,7 +1911,7 @@
         <v>80</v>
       </c>
       <c r="K37">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L37" t="s">
         <v>13</v>
@@ -1928,22 +1925,22 @@
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="B38">
-        <v>2434.138672445255</v>
+        <v>1201.0583718850742</v>
       </c>
       <c r="C38">
-        <v>2390.9932502841521</v>
+        <v>1201.9304432530771</v>
       </c>
       <c r="D38">
-        <v>2391.9031428933476</v>
+        <v>1201.058291103634</v>
       </c>
       <c r="E38">
-        <v>2391.248908512925</v>
+        <v>1201.6371525954994</v>
       </c>
       <c r="F38">
-        <v>2390.6698741114233</v>
+        <v>1201.9303221691234</v>
       </c>
       <c r="G38">
-        <v>2391.1649240261868</v>
+        <v>1201.2749449575463</v>
       </c>
       <c r="H38" t="s">
         <v>8</v>
@@ -1955,7 +1952,7 @@
         <v>80</v>
       </c>
       <c r="K38">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L38" t="s">
         <v>13</v>
@@ -1969,22 +1966,22 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="B39">
-        <v>2434.1551232810466</v>
+        <v>1201.0455794771951</v>
       </c>
       <c r="C39">
-        <v>2391.0096834445717</v>
+        <v>1201.9176622706766</v>
       </c>
       <c r="D39">
-        <v>2391.9195576863935</v>
+        <v>1201.0455215404452</v>
       </c>
       <c r="E39">
-        <v>2391.2653049545934</v>
+        <v>1201.6243944380456</v>
       </c>
       <c r="F39">
-        <v>2390.686252222461</v>
+        <v>1201.9175754078644</v>
       </c>
       <c r="G39">
-        <v>2391.1812838302012</v>
+        <v>1201.2622095844372</v>
       </c>
       <c r="H39" t="s">
         <v>8</v>
@@ -1996,7 +1993,7 @@
         <v>80</v>
       </c>
       <c r="K39">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L39" t="s">
         <v>13</v>
@@ -2010,22 +2007,22 @@
         <v>2.7083333333333334E-2</v>
       </c>
       <c r="B40">
-        <v>2434.165974786466</v>
+        <v>1201.0364053225462</v>
       </c>
       <c r="C40">
-        <v>2391.0205232907397</v>
+        <v>1201.9084963098805</v>
       </c>
       <c r="D40">
-        <v>2391.9303854168461</v>
+        <v>1201.0363637690077</v>
       </c>
       <c r="E40">
-        <v>2391.2761205798815</v>
+        <v>1201.615244846301</v>
       </c>
       <c r="F40">
-        <v>2390.6970557562713</v>
+        <v>1201.9084339889725</v>
       </c>
       <c r="G40">
-        <v>2391.1920752881028</v>
+        <v>1201.253076332627</v>
       </c>
       <c r="H40" t="s">
         <v>8</v>
@@ -2037,7 +2034,7 @@
         <v>80</v>
       </c>
       <c r="K40">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L40" t="s">
         <v>13</v>
@@ -2051,22 +2048,22 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="B41">
-        <v>2434.1731327917682</v>
+        <v>1201.0298260206423</v>
       </c>
       <c r="C41">
-        <v>2391.0276736052233</v>
+        <v>1201.9019228842492</v>
       </c>
       <c r="D41">
-        <v>2391.9375277394101</v>
+        <v>1201.0297962164254</v>
       </c>
       <c r="E41">
-        <v>2391.2832549174855</v>
+        <v>1201.608683159837</v>
       </c>
       <c r="F41">
-        <v>2390.7041821179441</v>
+        <v>1201.9018781637196</v>
       </c>
       <c r="G41">
-        <v>2391.1991936841155</v>
+        <v>1201.2465263644478</v>
       </c>
       <c r="H41" t="s">
         <v>8</v>
@@ -2078,7 +2075,7 @@
         <v>80</v>
       </c>
       <c r="K41">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L41" t="s">
         <v>13</v>
@@ -2092,22 +2089,22 @@
         <v>2.8472222222222222E-2</v>
       </c>
       <c r="B42">
-        <v>2434.1778544444728</v>
+        <v>1201.0251076334775</v>
       </c>
       <c r="C42">
-        <v>2391.0323901848133</v>
+        <v>1201.8972087112897</v>
       </c>
       <c r="D42">
-        <v>2391.94223904727</v>
+        <v>1201.0250862553596</v>
       </c>
       <c r="E42">
-        <v>2391.2879609582073</v>
+        <v>1201.6039774056937</v>
       </c>
       <c r="F42">
-        <v>2390.708882897482</v>
+        <v>1201.897176612981</v>
       </c>
       <c r="G42">
-        <v>2391.2038892092446</v>
+        <v>1201.2418290141459</v>
       </c>
       <c r="H42" t="s">
         <v>8</v>
@@ -2119,7 +2116,7 @@
         <v>80</v>
       </c>
       <c r="K42">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L42" t="s">
         <v>13</v>
@@ -2133,22 +2130,22 @@
         <v>2.9166666666666664E-2</v>
       </c>
       <c r="B43">
-        <v>2434.1809689998991</v>
+        <v>1201.0217238128575</v>
       </c>
       <c r="C43">
-        <v>2391.0355013938488</v>
+        <v>1201.8938279129127</v>
       </c>
       <c r="D43">
-        <v>2391.9453467789017</v>
+        <v>1201.0217084775679</v>
       </c>
       <c r="E43">
-        <v>2391.2910652154637</v>
+        <v>1201.6006026449238</v>
       </c>
       <c r="F43">
-        <v>2390.7119836842908</v>
+        <v>1201.8938048667076</v>
       </c>
       <c r="G43">
-        <v>2391.2069865300755</v>
+        <v>1201.238460280242</v>
       </c>
       <c r="H43" t="s">
         <v>8</v>
@@ -2160,7 +2157,7 @@
         <v>80</v>
       </c>
       <c r="K43">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L43" t="s">
         <v>13</v>
@@ -2174,22 +2171,22 @@
         <v>2.9861111111111113E-2</v>
       </c>
       <c r="B44">
-        <v>2434.1830234617851</v>
+        <v>1201.0192970849132</v>
       </c>
       <c r="C44">
-        <v>2391.0375536483466</v>
+        <v>1201.8914033523888</v>
       </c>
       <c r="D44">
-        <v>2391.9473967395907</v>
+        <v>1201.0192860832763</v>
       </c>
       <c r="E44">
-        <v>2391.2931128843416</v>
+        <v>1201.5981824143066</v>
       </c>
       <c r="F44">
-        <v>2390.7140290639495</v>
+        <v>1201.8913867979568</v>
       </c>
       <c r="G44">
-        <v>2391.2090296234624</v>
+        <v>1201.2360443718301</v>
       </c>
       <c r="H44" t="s">
         <v>8</v>
@@ -2201,7 +2198,7 @@
         <v>80</v>
       </c>
       <c r="K44">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L44" t="s">
         <v>13</v>
@@ -2215,22 +2212,22 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="B45">
-        <v>2434.1843786515519</v>
+        <v>1201.0175567419187</v>
       </c>
       <c r="C45">
-        <v>2391.0389073820488</v>
+        <v>1201.8896645637735</v>
       </c>
       <c r="D45">
-        <v>2391.948748960222</v>
+        <v>1201.0175488481875</v>
       </c>
       <c r="E45">
-        <v>2391.2944635932204</v>
+        <v>1201.5964467309111</v>
       </c>
       <c r="F45">
-        <v>2390.7153782627838</v>
+        <v>1201.8896526649562</v>
       </c>
       <c r="G45">
-        <v>2391.2103773141971</v>
+        <v>1201.2343117881303</v>
       </c>
       <c r="H45" t="s">
         <v>8</v>
@@ -2242,7 +2239,7 @@
         <v>80</v>
       </c>
       <c r="K45">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L45" t="s">
         <v>13</v>
@@ -2256,22 +2253,22 @@
         <v>3.125E-2</v>
       </c>
       <c r="B46">
-        <v>2434.1852725787194</v>
+        <v>1201.0163086441473</v>
       </c>
       <c r="C46">
-        <v>2391.0398003487489</v>
+        <v>1201.8884175807348</v>
       </c>
       <c r="D46">
-        <v>2391.9496409288513</v>
+        <v>1201.01630297927</v>
       </c>
       <c r="E46">
-        <v>2391.2953545646483</v>
+        <v>1201.5952019747999</v>
       </c>
       <c r="F46">
-        <v>2390.7162682381377</v>
+        <v>1201.8884090207209</v>
       </c>
       <c r="G46">
-        <v>2391.2112662947602</v>
+        <v>1201.2330692549851</v>
       </c>
       <c r="H46" t="s">
         <v>8</v>
@@ -2283,7 +2280,7 @@
         <v>80</v>
       </c>
       <c r="K46">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L46" t="s">
         <v>13</v>
@@ -2297,22 +2294,22 @@
         <v>3.1944444444444449E-2</v>
       </c>
       <c r="B47">
-        <v>2434.1858622421032</v>
+        <v>1201.0154135630892</v>
       </c>
       <c r="C47">
-        <v>2391.0403893785769</v>
+        <v>1201.887523299114</v>
       </c>
       <c r="D47">
-        <v>2391.9502293003197</v>
+        <v>1201.0154094966481</v>
       </c>
       <c r="E47">
-        <v>2391.2959422783297</v>
+        <v>1201.5943092902339</v>
       </c>
       <c r="F47">
-        <v>2390.7168552947774</v>
+        <v>1201.887517133543</v>
       </c>
       <c r="G47">
-        <v>2391.2118526952031</v>
+        <v>1201.2321781646333</v>
       </c>
       <c r="H47" t="s">
         <v>8</v>
@@ -2324,7 +2321,7 @@
         <v>80</v>
       </c>
       <c r="K47">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L47" t="s">
         <v>13</v>
@@ -2338,22 +2335,22 @@
         <v>3.2638888888888891E-2</v>
       </c>
       <c r="B48">
-        <v>2434.1862512032189</v>
+        <v>1201.0147716501565</v>
       </c>
       <c r="C48">
-        <v>2391.0407779217785</v>
+        <v>1201.8868819595027</v>
       </c>
       <c r="D48">
-        <v>2391.9506174092462</v>
+        <v>1201.0147687300441</v>
       </c>
       <c r="E48">
-        <v>2391.296329953359</v>
+        <v>1201.5936690959604</v>
       </c>
       <c r="F48">
-        <v>2390.7172425363997</v>
+        <v>1201.8868775111218</v>
       </c>
       <c r="G48">
-        <v>2391.2122395039764</v>
+        <v>1201.2315391136606</v>
       </c>
       <c r="H48" t="s">
         <v>8</v>
@@ -2365,7 +2362,7 @@
         <v>80</v>
       </c>
       <c r="K48">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L48" t="s">
         <v>13</v>
@@ -2379,22 +2376,22 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="B49">
-        <v>2434.1865077745997</v>
+        <v>1201.0143112983171</v>
       </c>
       <c r="C49">
-        <v>2391.0410342174891</v>
+        <v>1201.8864220188248</v>
       </c>
       <c r="D49">
-        <v>2391.9508734184951</v>
+        <v>1201.0143092003011</v>
       </c>
       <c r="E49">
-        <v>2391.2965856763958</v>
+        <v>1201.5932099766683</v>
       </c>
       <c r="F49">
-        <v>2390.7174979735464</v>
+        <v>1201.8864188019365</v>
       </c>
       <c r="G49">
-        <v>2391.2124946556028</v>
+        <v>1201.2310808142931</v>
       </c>
       <c r="H49" t="s">
         <v>8</v>
@@ -2406,7 +2403,7 @@
         <v>80</v>
       </c>
       <c r="K49">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L49" t="s">
         <v>13</v>
@@ -2420,22 +2417,22 @@
         <v>3.4027777777777775E-2</v>
       </c>
       <c r="B50">
-        <v>2434.1866770174147</v>
+        <v>1201.0139811541392</v>
       </c>
       <c r="C50">
-        <v>2391.0412032784639</v>
+        <v>1201.8860921695134</v>
       </c>
       <c r="D50">
-        <v>2391.95104229051</v>
+        <v>1201.0139796456947</v>
       </c>
       <c r="E50">
-        <v>2391.2967543596151</v>
+        <v>1201.5928807164196</v>
       </c>
       <c r="F50">
-        <v>2390.7176664681851</v>
+        <v>1201.8860898357987</v>
       </c>
       <c r="G50">
-        <v>2391.212662961902</v>
+        <v>1201.2307521420587</v>
       </c>
       <c r="H50" t="s">
         <v>8</v>
@@ -2447,7 +2444,7 @@
         <v>80</v>
       </c>
       <c r="K50">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L50" t="s">
         <v>13</v>
@@ -2461,22 +2458,22 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="B51">
-        <v>2434.1867886554687</v>
+        <v>1201.013744389194</v>
       </c>
       <c r="C51">
-        <v>2391.0413147965705</v>
+        <v>1201.885855616034</v>
       </c>
       <c r="D51">
-        <v>2391.9511536839723</v>
+        <v>1201.013743303565</v>
       </c>
       <c r="E51">
-        <v>2391.296865628542</v>
+        <v>1201.5926445853895</v>
       </c>
       <c r="F51">
-        <v>2390.7177776127169</v>
+        <v>1201.8858539156925</v>
       </c>
       <c r="G51">
-        <v>2391.2127739821999</v>
+        <v>1201.230516432727</v>
       </c>
       <c r="H51" t="s">
         <v>8</v>
@@ -2488,7 +2485,7 @@
         <v>80</v>
       </c>
       <c r="K51">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L51" t="s">
         <v>13</v>
@@ -2502,22 +2499,22 @@
         <v>3.5416666666666666E-2</v>
       </c>
       <c r="B52">
-        <v>2434.1868622955544</v>
+        <v>1201.0135745917464</v>
       </c>
       <c r="C52">
-        <v>2391.0413883575343</v>
+        <v>1201.8856859702398</v>
       </c>
       <c r="D52">
-        <v>2391.9512271627177</v>
+        <v>1201.0135738093413</v>
       </c>
       <c r="E52">
-        <v>2391.2969390251392</v>
+        <v>1201.5924752425576</v>
       </c>
       <c r="F52">
-        <v>2390.717850927259</v>
+        <v>1201.8856847241254</v>
       </c>
       <c r="G52">
-        <v>2391.2128472147933</v>
+        <v>1201.2303473923182</v>
       </c>
       <c r="H52" t="s">
         <v>8</v>
@@ -2529,7 +2526,7 @@
         <v>80</v>
       </c>
       <c r="K52">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L52" t="s">
         <v>13</v>
@@ -2543,22 +2540,22 @@
         <v>3.6111111111111115E-2</v>
       </c>
       <c r="B53">
-        <v>1812.4730549558635</v>
+        <v>1201.0134528204517</v>
       </c>
       <c r="C53">
-        <v>1811.2004638186145</v>
+        <v>1201.8855643077047</v>
       </c>
       <c r="D53">
-        <v>1810.8390940204556</v>
+        <v>1201.0134522555056</v>
       </c>
       <c r="E53">
-        <v>1808.9151870954483</v>
+        <v>1201.5923537972933</v>
       </c>
       <c r="F53">
-        <v>1807.0678890454512</v>
+        <v>1201.8855633873425</v>
       </c>
       <c r="G53">
-        <v>1806.2959728287449</v>
+        <v>1201.2302261639388</v>
       </c>
       <c r="H53" t="s">
         <v>8</v>
@@ -2570,7 +2567,7 @@
         <v>80</v>
       </c>
       <c r="K53">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L53" t="s">
         <v>13</v>
@@ -2584,22 +2581,22 @@
         <v>3.6805555555555557E-2</v>
       </c>
       <c r="B54">
-        <v>1424.8999458615438</v>
+        <v>1201.0133654914134</v>
       </c>
       <c r="C54">
-        <v>1424.0601534948212</v>
+        <v>1201.8854770566641</v>
       </c>
       <c r="D54">
-        <v>1424.1310373468068</v>
+        <v>1201.0133650824203</v>
       </c>
       <c r="E54">
-        <v>1422.6390095098866</v>
+        <v>1201.5922667020704</v>
       </c>
       <c r="F54">
-        <v>1421.2231034169472</v>
+        <v>1201.8854763699171</v>
       </c>
       <c r="G54">
-        <v>1420.8820243330001</v>
+        <v>1201.2301392242566</v>
       </c>
       <c r="H54" t="s">
         <v>8</v>
@@ -2611,7 +2608,7 @@
         <v>80</v>
       </c>
       <c r="K54">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L54" t="s">
         <v>13</v>
@@ -2625,22 +2622,22 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="B55">
-        <v>1169.1487536863533</v>
+        <v>1201.0133028628536</v>
       </c>
       <c r="C55">
-        <v>1168.5946043623342</v>
+        <v>1201.8854144840407</v>
       </c>
       <c r="D55">
-        <v>1168.9507712767838</v>
+        <v>1201.0133025657026</v>
       </c>
       <c r="E55">
-        <v>1167.7437785132963</v>
+        <v>1201.5922042411926</v>
       </c>
       <c r="F55">
-        <v>1166.6125856025369</v>
+        <v>1201.8854139648322</v>
       </c>
       <c r="G55">
-        <v>1166.5558533638273</v>
+        <v>1201.2300768749253</v>
       </c>
       <c r="H55" t="s">
         <v>8</v>
@@ -2652,7 +2649,7 @@
         <v>80</v>
       </c>
       <c r="K55">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L55" t="s">
         <v>13</v>
@@ -2666,22 +2663,22 @@
         <v>3.8194444444444441E-2</v>
       </c>
       <c r="B56">
-        <v>1000.3880161149859</v>
+        <v>1201.0132579483923</v>
       </c>
       <c r="C56">
-        <v>1000.0223539888484</v>
+        <v>1201.885369609694</v>
       </c>
       <c r="D56">
-        <v>1000.5667705559254</v>
+        <v>1201.0132577314491</v>
       </c>
       <c r="E56">
-        <v>999.54786376857544</v>
+        <v>1201.5921594469851</v>
       </c>
       <c r="F56">
-        <v>998.60454441254512</v>
+        <v>1201.8853692106368</v>
       </c>
       <c r="G56">
-        <v>998.73544399109539</v>
+        <v>1201.2300321607142</v>
       </c>
       <c r="H56" t="s">
         <v>8</v>
@@ -2693,7 +2690,7 @@
         <v>80</v>
       </c>
       <c r="K56">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L56" t="s">
         <v>13</v>
@@ -2707,22 +2704,22 @@
         <v>3.888888888888889E-2</v>
       </c>
       <c r="B57">
-        <v>889.02921847747587</v>
+        <v>1201.0132257377074</v>
       </c>
       <c r="C57">
-        <v>888.78793197085952</v>
+        <v>1201.8853374277785</v>
       </c>
       <c r="D57">
-        <v>889.45656741020093</v>
+        <v>1201.0132255782864</v>
       </c>
       <c r="E57">
-        <v>888.56177148942447</v>
+        <v>1201.5921273225417</v>
       </c>
       <c r="F57">
-        <v>887.74242283045555</v>
+        <v>1201.8853371148884</v>
       </c>
       <c r="G57">
-        <v>887.99713359264729</v>
+        <v>1201.2300000936405</v>
       </c>
       <c r="H57" t="s">
         <v>8</v>
@@ -2734,7 +2731,7 @@
         <v>80</v>
       </c>
       <c r="K57">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L57" t="s">
         <v>13</v>
@@ -2748,22 +2745,22 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="B58">
-        <v>815.54778645204226</v>
+        <v>1201.0132026376154</v>
       </c>
       <c r="C58">
-        <v>815.38857068624418</v>
+        <v>1201.8853143483177</v>
       </c>
       <c r="D58">
-        <v>816.13917343485537</v>
+        <v>1201.0132025194464</v>
       </c>
       <c r="E58">
-        <v>815.32627355441525</v>
+        <v>1201.5921042842976</v>
       </c>
       <c r="F58">
-        <v>814.58872844322821</v>
+        <v>1201.8853140972233</v>
       </c>
       <c r="G58">
-        <v>814.9251374963726</v>
+        <v>1201.2299770965396</v>
       </c>
       <c r="H58" t="s">
         <v>8</v>
@@ -2775,7 +2772,7 @@
         <v>80</v>
       </c>
       <c r="K58">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L58" t="s">
         <v>13</v>
@@ -2789,22 +2786,22 @@
         <v>4.027777777777778E-2</v>
       </c>
       <c r="B59">
-        <v>767.06018660416942</v>
+        <v>1201.0131860712399</v>
       </c>
       <c r="C59">
-        <v>766.95512619628789</v>
+        <v>1201.8852977967388</v>
       </c>
       <c r="D59">
-        <v>767.75981605227446</v>
+        <v>1201.0131859826554</v>
       </c>
       <c r="E59">
-        <v>767.00095625154881</v>
+        <v>1201.5920877622766</v>
       </c>
       <c r="F59">
-        <v>766.31739018775909</v>
+        <v>1201.8852975899611</v>
       </c>
       <c r="G59">
-        <v>766.70770883332659</v>
+        <v>1201.2299606040251</v>
       </c>
       <c r="H59" t="s">
         <v>8</v>
@@ -2816,7 +2813,7 @@
         <v>80</v>
       </c>
       <c r="K59">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L59" t="s">
         <v>13</v>
@@ -2830,22 +2827,22 @@
         <v>4.0972222222222222E-2</v>
       </c>
       <c r="B60">
-        <v>735.06506520814014</v>
+        <v>1201.0131741905632</v>
       </c>
       <c r="C60">
-        <v>734.99573985946154</v>
+        <v>1201.8852859266729</v>
       </c>
       <c r="D60">
-        <v>735.83611973871575</v>
+        <v>1201.0131741231946</v>
       </c>
       <c r="E60">
-        <v>735.11291892949521</v>
+        <v>1201.5920759134094</v>
       </c>
       <c r="F60">
-        <v>734.46497158430748</v>
+        <v>1201.8852857516774</v>
       </c>
       <c r="G60">
-        <v>734.8908631177834</v>
+        <v>1201.2299487763178</v>
       </c>
       <c r="H60" t="s">
         <v>8</v>
@@ -2857,7 +2854,7 @@
         <v>80</v>
       </c>
       <c r="K60">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L60" t="s">
         <v>13</v>
@@ -2871,22 +2868,22 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="B61">
-        <v>713.95270253547585</v>
+        <v>1201.0131656702608</v>
       </c>
       <c r="C61">
-        <v>713.90695739206308</v>
+        <v>1201.8852774139807</v>
       </c>
       <c r="D61">
-        <v>714.77088775908442</v>
+        <v>1201.0131656181081</v>
       </c>
       <c r="E61">
-        <v>714.07121696095169</v>
+        <v>1201.5920674159195</v>
       </c>
       <c r="F61">
-        <v>713.44677305229618</v>
+        <v>1201.8852772617779</v>
       </c>
       <c r="G61">
-        <v>713.89613778037415</v>
+        <v>1201.2299402940032</v>
       </c>
       <c r="H61" t="s">
         <v>8</v>
@@ -2898,7 +2895,7 @@
         <v>80</v>
       </c>
       <c r="K61">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L61" t="s">
         <v>13</v>
@@ -2912,22 +2909,22 @@
         <v>4.2361111111111106E-2</v>
       </c>
       <c r="B62">
-        <v>700.02145807780244</v>
+        <v>1202.1054211592657</v>
       </c>
       <c r="C62">
-        <v>795.45613464311464</v>
+        <v>1203.1533483633355</v>
       </c>
       <c r="D62">
-        <v>716.20628057983697</v>
+        <v>1202.4853515478787</v>
       </c>
       <c r="E62">
-        <v>717.98561829596997</v>
+        <v>1203.3012241062413</v>
       </c>
       <c r="F62">
-        <v>720.23589639110969</v>
+        <v>1203.8695486455943</v>
       </c>
       <c r="G62">
-        <v>724.01926898637396</v>
+        <v>1203.5336096446988</v>
       </c>
       <c r="H62" t="s">
         <v>8</v>
@@ -2939,7 +2936,7 @@
         <v>80</v>
       </c>
       <c r="K62">
-        <v>7.7504000000000003E-2</v>
+        <v>9.5754000000000006E-2</v>
       </c>
       <c r="L62" t="s">
         <v>13</v>
@@ -2953,34 +2950,34 @@
         <v>4.3055555555555562E-2</v>
       </c>
       <c r="B63">
-        <v>1984.2190855438555</v>
+        <v>1303.1368019233298</v>
       </c>
       <c r="C63">
-        <v>2082.3371076518902</v>
+        <v>1304.2538421609001</v>
       </c>
       <c r="D63">
-        <v>1990.6756155086657</v>
+        <v>1303.6264907378752</v>
       </c>
       <c r="E63">
-        <v>1992.7899268326987</v>
+        <v>1304.4500424180173</v>
       </c>
       <c r="F63">
-        <v>1994.9763355582568</v>
+        <v>1304.9877605405338</v>
       </c>
       <c r="G63">
-        <v>1998.233668321298</v>
+        <v>1304.5767781095669</v>
       </c>
       <c r="H63" t="s">
         <v>8</v>
       </c>
       <c r="I63">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J63">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K63">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L63" t="s">
         <v>13</v>
@@ -2994,34 +2991,34 @@
         <v>4.3750000000000004E-2</v>
       </c>
       <c r="B64">
-        <v>2828.9849613517908</v>
+        <v>1385.4288178035595</v>
       </c>
       <c r="C64">
-        <v>2926.0773074573235</v>
+        <v>1386.4999368764591</v>
       </c>
       <c r="D64">
-        <v>2833.552818573221</v>
+        <v>1385.8266646595052</v>
       </c>
       <c r="E64">
-        <v>2834.7240015125808</v>
+        <v>1386.6043422139321</v>
       </c>
       <c r="F64">
-        <v>2835.9683484854945</v>
+        <v>1387.0962076757944</v>
       </c>
       <c r="G64">
-        <v>2838.2848336366974</v>
+        <v>1386.639384477643</v>
       </c>
       <c r="H64" t="s">
         <v>8</v>
       </c>
       <c r="I64">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J64">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K64">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L64" t="s">
         <v>13</v>
@@ -3035,34 +3032,34 @@
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="B65">
-        <v>3386.0051918317613</v>
+        <v>1452.2873681840206</v>
       </c>
       <c r="C65">
-        <v>3482.4210783898702</v>
+        <v>1453.3211809828285</v>
       </c>
       <c r="D65">
-        <v>3389.3274900490178</v>
+        <v>1452.610602747407</v>
       </c>
       <c r="E65">
-        <v>3389.8766914488733</v>
+        <v>1453.3510122173252</v>
       </c>
       <c r="F65">
-        <v>3390.4997608924605</v>
+        <v>1453.805627017618</v>
       </c>
       <c r="G65">
-        <v>3392.1957693180807</v>
+        <v>1453.3115627914856</v>
       </c>
       <c r="H65" t="s">
         <v>8</v>
       </c>
       <c r="I65">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J65">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K65">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L65" t="s">
         <v>13</v>
@@ -3076,34 +3073,34 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="B66">
-        <v>3753.2809009766816</v>
+        <v>1506.6073893493119</v>
       </c>
       <c r="C66">
-        <v>3849.250747219663</v>
+        <v>1507.6108928889082</v>
       </c>
       <c r="D66">
-        <v>3755.7819123606978</v>
+        <v>1506.8700055910408</v>
       </c>
       <c r="E66">
-        <v>3755.9209966114349</v>
+        <v>1507.5801368223395</v>
       </c>
       <c r="F66">
-        <v>3756.1344131693381</v>
+        <v>1508.0044875353567</v>
       </c>
       <c r="G66">
-        <v>3757.4212967685057</v>
+        <v>1507.4801670417476</v>
       </c>
       <c r="H66" t="s">
         <v>8</v>
       </c>
       <c r="I66">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J66">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K66">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L66" t="s">
         <v>13</v>
@@ -3117,34 +3114,34 @@
         <v>4.5833333333333337E-2</v>
       </c>
       <c r="B67">
-        <v>3995.4461886567897</v>
+        <v>1550.740451774187</v>
       </c>
       <c r="C67">
-        <v>4091.1219350016363</v>
+        <v>1551.7193302975193</v>
       </c>
       <c r="D67">
-        <v>3997.4056788055741</v>
+        <v>1550.9538181406542</v>
       </c>
       <c r="E67">
-        <v>3997.2743494445203</v>
+        <v>1551.639349557064</v>
       </c>
       <c r="F67">
-        <v>3997.2176585101579</v>
+        <v>1552.0391119516325</v>
       </c>
       <c r="G67">
-        <v>3998.2347827992853</v>
+        <v>1551.4902094911656</v>
       </c>
       <c r="H67" t="s">
         <v>8</v>
       </c>
       <c r="I67">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J67">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K67">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L67" t="s">
         <v>13</v>
@@ -3158,34 +3155,34 @@
         <v>4.6527777777777779E-2</v>
       </c>
       <c r="B68">
-        <v>4155.1191660213308</v>
+        <v>1586.5970060502816</v>
       </c>
       <c r="C68">
-        <v>4250.6009959821649</v>
+        <v>1587.5558776585654</v>
       </c>
       <c r="D68">
-        <v>4156.7216011759301</v>
+        <v>1586.7703587138112</v>
       </c>
       <c r="E68">
-        <v>4156.4119731184446</v>
+        <v>1587.4359036899739</v>
       </c>
       <c r="F68">
-        <v>4156.1771853295004</v>
+        <v>1587.8156889845</v>
       </c>
       <c r="G68">
-        <v>4157.0164423400829</v>
+        <v>1587.2468145840228</v>
       </c>
       <c r="H68" t="s">
         <v>8</v>
       </c>
       <c r="I68">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J68">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K68">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L68" t="s">
         <v>13</v>
@@ -3199,34 +3196,34 @@
         <v>4.7222222222222221E-2</v>
       </c>
       <c r="B69">
-        <v>4260.4003941064884</v>
+        <v>1615.7291969617411</v>
       </c>
       <c r="C69">
-        <v>4355.7543642641667</v>
+        <v>1616.6718136641873</v>
       </c>
       <c r="D69">
-        <v>4261.767403144705</v>
+        <v>1615.8700399167612</v>
       </c>
       <c r="E69">
-        <v>4261.3402128899952</v>
+        <v>1616.5193466220401</v>
       </c>
       <c r="F69">
-        <v>4260.9879959893406</v>
+        <v>1616.8829012342107</v>
       </c>
       <c r="G69">
-        <v>4261.7099752604099</v>
+        <v>1616.2978003436265</v>
       </c>
       <c r="H69" t="s">
         <v>8</v>
       </c>
       <c r="I69">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J69">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K69">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L69" t="s">
         <v>13</v>
@@ -3240,34 +3237,34 @@
         <v>4.7916666666666663E-2</v>
       </c>
       <c r="B70">
-        <v>4329.8181324057659</v>
+        <v>1639.3980805576155</v>
       </c>
       <c r="C70">
-        <v>4425.087797521317</v>
+        <v>1640.3274907214327</v>
       </c>
       <c r="D70">
-        <v>4331.0299119804031</v>
+        <v>1639.512510519161</v>
       </c>
       <c r="E70">
-        <v>4330.5252064648867</v>
+        <v>1640.1486242011001</v>
       </c>
       <c r="F70">
-        <v>4330.0955620540662</v>
+        <v>1640.4989919553309</v>
       </c>
       <c r="G70">
-        <v>4330.7402136230376</v>
+        <v>1639.900707612838</v>
       </c>
       <c r="H70" t="s">
         <v>8</v>
       </c>
       <c r="I70">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J70">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K70">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L70" t="s">
         <v>13</v>
@@ -3281,34 +3278,34 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="B71">
-        <v>4375.5890877515567</v>
+        <v>1658.6282189452902</v>
       </c>
       <c r="C71">
-        <v>4470.8031658887085</v>
+        <v>1659.5468992598949</v>
       </c>
       <c r="D71">
-        <v>4376.6985159528858</v>
+        <v>1658.7211892764751</v>
       </c>
       <c r="E71">
-        <v>4376.1427003374365</v>
+        <v>1659.3465840898969</v>
       </c>
       <c r="F71">
-        <v>4375.6620036855393</v>
+        <v>1659.6862379847773</v>
       </c>
       <c r="G71">
-        <v>4376.255668822414</v>
+        <v>1659.0772425502096</v>
       </c>
       <c r="H71" t="s">
         <v>8</v>
       </c>
       <c r="I71">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J71">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K71">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L71" t="s">
         <v>13</v>
@@ -3322,34 +3319,34 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="B72">
-        <v>4405.7684108547101</v>
+        <v>1674.2520325169392</v>
       </c>
       <c r="C72">
-        <v>4500.9458374216965</v>
+        <v>1675.1619952051933</v>
       </c>
       <c r="D72">
-        <v>4406.8103531331053</v>
+        <v>1674.3275676507203</v>
       </c>
       <c r="E72">
-        <v>4406.2208378011419</v>
+        <v>1674.9442537592197</v>
       </c>
       <c r="F72">
-        <v>4405.7064795822753</v>
+        <v>1675.2752030189492</v>
       </c>
       <c r="G72">
-        <v>4406.2665265436799</v>
+        <v>1674.6575051975451</v>
       </c>
       <c r="H72" t="s">
         <v>8</v>
       </c>
       <c r="I72">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J72">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K72">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L72" t="s">
         <v>13</v>
@@ -3363,34 +3360,34 @@
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="B73">
-        <v>4425.6673082249299</v>
+        <v>1686.9458335729826</v>
       </c>
       <c r="C73">
-        <v>4520.820568383986</v>
+        <v>1687.8487134953307</v>
       </c>
       <c r="D73">
-        <v>4426.6647533007254</v>
+        <v>1687.0072032198796</v>
       </c>
       <c r="E73">
-        <v>4426.053017881256</v>
+        <v>1687.6168138108212</v>
       </c>
       <c r="F73">
-        <v>4425.5164647289848</v>
+        <v>1687.9406908595399</v>
       </c>
       <c r="G73">
-        <v>4426.0543453674027</v>
+        <v>1687.3159226538</v>
       </c>
       <c r="H73" t="s">
         <v>8</v>
       </c>
       <c r="I73">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J73">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K73">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L73" t="s">
         <v>13</v>
@@ -3404,34 +3401,34 @@
         <v>5.0694444444444452E-2</v>
       </c>
       <c r="B74">
-        <v>4438.7877521526225</v>
+        <v>1697.2591021356234</v>
       </c>
       <c r="C74">
-        <v>4533.9250780619404</v>
+        <v>1698.1562275588647</v>
       </c>
       <c r="D74">
-        <v>4439.7558577609698</v>
+        <v>1697.3089628208065</v>
       </c>
       <c r="E74">
-        <v>4439.1294714084961</v>
+        <v>1697.9128248016693</v>
       </c>
       <c r="F74">
-        <v>4438.5782839087133</v>
+        <v>1698.2309559267615</v>
       </c>
       <c r="G74">
-        <v>4439.1015490640511</v>
+        <v>1697.6004432815055</v>
       </c>
       <c r="H74" t="s">
         <v>8</v>
       </c>
       <c r="I74">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J74">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K74">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L74" t="s">
         <v>13</v>
@@ -3445,34 +3442,34 @@
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="B75">
-        <v>4447.4387867128225</v>
+        <v>1705.6382714634065</v>
       </c>
       <c r="C75">
-        <v>4542.5656062897369</v>
+        <v>1706.5307215577632</v>
       </c>
       <c r="D75">
-        <v>4448.3875471870961</v>
+        <v>1705.6787815204777</v>
       </c>
       <c r="E75">
-        <v>4447.7515006639405</v>
+        <v>1706.2779729570846</v>
       </c>
       <c r="F75">
-        <v>4447.190663929211</v>
+        <v>1706.5914357205713</v>
       </c>
       <c r="G75">
-        <v>4447.7042922879627</v>
+        <v>1705.9562559194967</v>
       </c>
       <c r="H75" t="s">
         <v>8</v>
       </c>
       <c r="I75">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J75">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K75">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L75" t="s">
         <v>13</v>
@@ -3486,34 +3483,34 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="B76">
-        <v>4453.1428924103275</v>
+        <v>1712.446052934469</v>
       </c>
       <c r="C76">
-        <v>4548.2627845810357</v>
+        <v>1713.3347044879324</v>
       </c>
       <c r="D76">
-        <v>4454.0788975674532</v>
+        <v>1712.4789659338478</v>
       </c>
       <c r="E76">
-        <v>4453.4364815593253</v>
+        <v>1713.0743627169038</v>
       </c>
       <c r="F76">
-        <v>4452.8692825501585</v>
+        <v>1713.3840326001668</v>
       </c>
       <c r="G76">
-        <v>4453.3765568357712</v>
+        <v>1712.7450608985278</v>
       </c>
       <c r="H76" t="s">
         <v>8</v>
       </c>
       <c r="I76">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J76">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K76">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L76" t="s">
         <v>13</v>
@@ -3527,34 +3524,34 @@
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="B77">
-        <v>4456.9039248720455</v>
+        <v>1717.977136833762</v>
       </c>
       <c r="C77">
-        <v>4552.0192494205867</v>
+        <v>1718.8627022058506</v>
       </c>
       <c r="D77">
-        <v>4457.8315197428965</v>
+        <v>1718.0038774899672</v>
       </c>
       <c r="E77">
-        <v>4457.1849039809404</v>
+        <v>1718.5961912499795</v>
       </c>
       <c r="F77">
-        <v>4456.6135099722478</v>
+        <v>1718.9027795509637</v>
       </c>
       <c r="G77">
-        <v>4457.1165946659085</v>
+        <v>1718.2607270629853</v>
       </c>
       <c r="H77" t="s">
         <v>8</v>
       </c>
       <c r="I77">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J77">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K77">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L77" t="s">
         <v>13</v>
@@ -3568,34 +3565,34 @@
         <v>5.347222222222222E-2</v>
       </c>
       <c r="B78">
-        <v>4459.3837816503437</v>
+        <v>1722.4709486917316</v>
       </c>
       <c r="C78">
-        <v>4554.4960945128896</v>
+        <v>1723.3540066495939</v>
       </c>
       <c r="D78">
-        <v>4460.3058311541608</v>
+        <v>1722.4926745353891</v>
       </c>
       <c r="E78">
-        <v>4459.6564462621564</v>
+        <v>1723.0824834472085</v>
       </c>
       <c r="F78">
-        <v>4459.0822862581908</v>
+        <v>1723.3865680705701</v>
       </c>
       <c r="G78">
-        <v>4459.5826085220906</v>
+        <v>1722.7420125516421</v>
       </c>
       <c r="H78" t="s">
         <v>8</v>
       </c>
       <c r="I78">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J78">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K78">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L78" t="s">
         <v>13</v>
@@ -3609,34 +3606,34 @@
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="B79">
-        <v>4461.0188884204845</v>
+        <v>1726.1220133623369</v>
       </c>
       <c r="C79">
-        <v>4556.1292155118344</v>
+        <v>1727.0030341340009</v>
       </c>
       <c r="D79">
-        <v>4461.9372815570223</v>
+        <v>1726.1396648465197</v>
       </c>
       <c r="E79">
-        <v>4461.2860708243788</v>
+        <v>1726.7274386569518</v>
       </c>
       <c r="F79">
-        <v>4460.7100870467038</v>
+        <v>1727.0294891299748</v>
       </c>
       <c r="G79">
-        <v>4461.2085878878324</v>
+        <v>1726.3828999861068</v>
       </c>
       <c r="H79" t="s">
         <v>8</v>
       </c>
       <c r="I79">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J79">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K79">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L79" t="s">
         <v>13</v>
@@ -3650,34 +3647,34 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="B80">
-        <v>4462.0970047750898</v>
+        <v>1729.0883754732274</v>
       </c>
       <c r="C80">
-        <v>4557.2060225376299</v>
+        <v>1729.9677411024886</v>
       </c>
       <c r="D80">
-        <v>4463.0129870663959</v>
+        <v>1729.1027166831027</v>
       </c>
       <c r="E80">
-        <v>4462.3605724560057</v>
+        <v>1729.6888370449685</v>
       </c>
       <c r="F80">
-        <v>4461.7833861634244</v>
+        <v>1729.9892348421185</v>
       </c>
       <c r="G80">
-        <v>4462.2806860397523</v>
+        <v>1729.3409934492461</v>
       </c>
       <c r="H80" t="s">
         <v>8</v>
       </c>
       <c r="I80">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J80">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K80">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L80" t="s">
         <v>13</v>
@@ -3691,34 +3688,34 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="B81">
-        <v>4462.8078665336607</v>
+        <v>1731.4984407464481</v>
       </c>
       <c r="C81">
-        <v>4557.9160209832799</v>
+        <v>1732.3764616305034</v>
       </c>
       <c r="D81">
-        <v>4463.7222592213275</v>
+        <v>1731.510092474442</v>
       </c>
       <c r="E81">
-        <v>4463.0690508277339</v>
+        <v>1732.0948694672841</v>
       </c>
       <c r="F81">
-        <v>4462.4910716505474</v>
+        <v>1732.3939245231968</v>
       </c>
       <c r="G81">
-        <v>4462.9875796643382</v>
+        <v>1731.7443407359028</v>
       </c>
       <c r="H81" t="s">
         <v>8</v>
       </c>
       <c r="I81">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J81">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K81">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L81" t="s">
         <v>13</v>
@@ -3732,34 +3729,34 @@
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="B82">
-        <v>4463.2765770189681</v>
+        <v>1733.4565343318127</v>
       </c>
       <c r="C82">
-        <v>4558.3841622386144</v>
+        <v>1734.3334626575081</v>
       </c>
       <c r="D82">
-        <v>4464.1899215930107</v>
+        <v>1733.4660009500169</v>
       </c>
       <c r="E82">
-        <v>4463.5361898142355</v>
+        <v>1734.0496865025998</v>
       </c>
       <c r="F82">
-        <v>4462.957687844364</v>
+        <v>1734.3476506283077</v>
       </c>
       <c r="G82">
-        <v>4463.4536737393755</v>
+        <v>1733.6969761925839</v>
       </c>
       <c r="H82" t="s">
         <v>8</v>
       </c>
       <c r="I82">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J82">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K82">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L82" t="s">
         <v>13</v>
@@ -3773,34 +3770,34 @@
         <v>5.6944444444444443E-2</v>
       </c>
       <c r="B83">
-        <v>4473.169409009929</v>
+        <v>1744.4759518714211</v>
       </c>
       <c r="C83">
-        <v>4568.2967945935397</v>
+        <v>1745.4467629331493</v>
       </c>
       <c r="D83">
-        <v>4474.2671606735103</v>
+        <v>1744.6017382078273</v>
       </c>
       <c r="E83">
-        <v>4473.4911983085576</v>
+        <v>1745.3507106313491</v>
       </c>
       <c r="F83">
-        <v>4473.0763043988572</v>
+        <v>1745.5996591316939</v>
       </c>
       <c r="G83">
-        <v>4473.438104627272</v>
+        <v>1744.947574558978</v>
       </c>
       <c r="H83" t="s">
         <v>8</v>
       </c>
       <c r="I83">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J83">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K83">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L83" t="s">
         <v>13</v>
@@ -3814,34 +3811,34 @@
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="B84">
-        <v>4479.7947439899326</v>
+        <v>1753.6105151978641</v>
       </c>
       <c r="C84">
-        <v>4574.9140826545345</v>
+        <v>1754.5762289200918</v>
       </c>
       <c r="D84">
-        <v>4480.8776792645604</v>
+        <v>1753.7261067811512</v>
       </c>
       <c r="E84">
-        <v>4480.0943179572314</v>
+        <v>1754.4699872021163</v>
       </c>
       <c r="F84">
-        <v>4479.6720338189834</v>
+        <v>1754.7138457384722</v>
       </c>
       <c r="G84">
-        <v>4480.0264530021259</v>
+        <v>1754.0566725990343</v>
       </c>
       <c r="H84" t="s">
         <v>8</v>
       </c>
       <c r="I84">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J84">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K84">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L84" t="s">
         <v>13</v>
@@ -3855,34 +3852,34 @@
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="B85">
-        <v>4484.1631412168063</v>
+        <v>1761.0319205587386</v>
       </c>
       <c r="C85">
-        <v>4579.2771746115432</v>
+        <v>1761.9934933135892</v>
       </c>
       <c r="D85">
-        <v>4485.2363081039193</v>
+        <v>1761.139230141853</v>
       </c>
       <c r="E85">
-        <v>4484.448068697573</v>
+        <v>1761.8789739276433</v>
       </c>
       <c r="F85">
-        <v>4484.0209122026545</v>
+        <v>1762.1186974824172</v>
       </c>
       <c r="G85">
-        <v>4484.3704650812861</v>
+        <v>1761.4573904932249</v>
       </c>
       <c r="H85" t="s">
         <v>8</v>
       </c>
       <c r="I85">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J85">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K85">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L85" t="s">
         <v>13</v>
@@ -3896,34 +3893,34 @@
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="B86">
-        <v>4487.0434670493523</v>
+        <v>1767.0615312885345</v>
       </c>
       <c r="C86">
-        <v>4582.1540024105097</v>
+        <v>1768.0197397539844</v>
       </c>
       <c r="D86">
-        <v>4488.1101931397443</v>
+        <v>1767.1621122384822</v>
       </c>
       <c r="E86">
-        <v>4487.3187373533328</v>
+        <v>1767.8984952537253</v>
       </c>
       <c r="F86">
-        <v>4486.8883682644246</v>
+        <v>1768.1348593808148</v>
       </c>
       <c r="G86">
-        <v>4487.234712539439</v>
+        <v>1767.4701938827136</v>
       </c>
       <c r="H86" t="s">
         <v>8</v>
       </c>
       <c r="I86">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J86">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K86">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L86" t="s">
         <v>13</v>
@@ -3937,34 +3934,34 @@
         <v>5.9722222222222225E-2</v>
       </c>
       <c r="B87">
-        <v>4488.9426270115209</v>
+        <v>1771.9603770932465</v>
       </c>
       <c r="C87">
-        <v>4584.050855924751</v>
+        <v>1772.915852213376</v>
       </c>
       <c r="D87">
-        <v>4490.0051063265428</v>
+        <v>1772.0554913080996</v>
       </c>
       <c r="E87">
-        <v>4489.2115298019162</v>
+        <v>1772.7891438367585</v>
       </c>
       <c r="F87">
-        <v>4488.7790424711566</v>
+        <v>1773.0227785681464</v>
       </c>
       <c r="G87">
-        <v>4489.1232711353878</v>
+        <v>1772.3553844206308</v>
       </c>
       <c r="H87" t="s">
         <v>8</v>
       </c>
       <c r="I87">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J87">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K87">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L87" t="s">
         <v>13</v>
@@ -3978,34 +3975,34 @@
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="B88">
-        <v>4490.1948495257784</v>
+        <v>1775.9405199525017</v>
       </c>
       <c r="C88">
-        <v>4585.301557668804</v>
+        <v>1776.8937743289719</v>
       </c>
       <c r="D88">
-        <v>4491.2545287041066</v>
+        <v>1776.0311926438528</v>
       </c>
       <c r="E88">
-        <v>4490.4595538580752</v>
+        <v>1776.7626267514274</v>
       </c>
       <c r="F88">
-        <v>4490.0256698519033</v>
+        <v>1776.9940439479997</v>
       </c>
       <c r="G88">
-        <v>4490.3685035755307</v>
+        <v>1776.3244328719597</v>
       </c>
       <c r="H88" t="s">
         <v>8</v>
       </c>
       <c r="I88">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J88">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K88">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L88" t="s">
         <v>13</v>
@@ -4019,34 +4016,34 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="B89">
-        <v>4491.0205099582699</v>
+        <v>1779.1742492774231</v>
       </c>
       <c r="C89">
-        <v>4586.1262153723355</v>
+        <v>1780.1256993771185</v>
       </c>
       <c r="D89">
-        <v>4492.0783428496643</v>
+        <v>1779.2613133858126</v>
       </c>
       <c r="E89">
-        <v>4491.2824460120246</v>
+        <v>1779.9909451036135</v>
       </c>
       <c r="F89">
-        <v>4490.8476410995363</v>
+        <v>1780.2205606304697</v>
       </c>
       <c r="G89">
-        <v>4491.1895550607069</v>
+        <v>1779.5491483772926</v>
       </c>
       <c r="H89" t="s">
         <v>8</v>
       </c>
       <c r="I89">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J89">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K89">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L89" t="s">
         <v>13</v>
@@ -4060,34 +4057,34 @@
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="B90">
-        <v>4491.5649141216009</v>
+        <v>1781.8015434490217</v>
       </c>
       <c r="C90">
-        <v>4586.6699583803074</v>
+        <v>1782.7515276359873</v>
       </c>
       <c r="D90">
-        <v>4492.6215296526207</v>
+        <v>1781.8856757080503</v>
       </c>
       <c r="E90">
-        <v>4491.8250248942777</v>
+        <v>1782.6138430462413</v>
       </c>
       <c r="F90">
-        <v>4491.389612776682</v>
+        <v>1782.8419947785076</v>
       </c>
       <c r="G90">
-        <v>4491.7309202869537</v>
+        <v>1782.1691191309419</v>
       </c>
       <c r="H90" t="s">
         <v>8</v>
       </c>
       <c r="I90">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J90">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K90">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L90" t="s">
         <v>13</v>
@@ -4101,34 +4098,34 @@
         <v>6.25E-2</v>
       </c>
       <c r="B91">
-        <v>4491.9238702752418</v>
+        <v>1783.9361299033474</v>
       </c>
       <c r="C91">
-        <v>4587.0284785971899</v>
+        <v>1784.8849230865317</v>
       </c>
       <c r="D91">
-        <v>4492.9796831323902</v>
+        <v>1784.017880135395</v>
       </c>
       <c r="E91">
-        <v>4492.1827775378815</v>
+        <v>1784.7448577154125</v>
       </c>
       <c r="F91">
-        <v>4491.7469650559524</v>
+        <v>1784.9718201648127</v>
       </c>
       <c r="G91">
-        <v>4492.0878726991814</v>
+        <v>1784.2977555595305</v>
       </c>
       <c r="H91" t="s">
         <v>8</v>
       </c>
       <c r="I91">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J91">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K91">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L91" t="s">
         <v>13</v>
@@ -4142,34 +4139,34 @@
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="B92">
-        <v>4492.1605501702752</v>
+        <v>1785.670408237555</v>
       </c>
       <c r="C92">
-        <v>4587.2648710547055</v>
+        <v>1786.6182337710022</v>
       </c>
       <c r="D92">
-        <v>4493.2158337795863</v>
+        <v>1785.7502231543497</v>
       </c>
       <c r="E92">
-        <v>4492.4186638913452</v>
+        <v>1786.4762340966433</v>
       </c>
       <c r="F92">
-        <v>4491.9825874267899</v>
+        <v>1786.7022302944906</v>
       </c>
       <c r="G92">
-        <v>4492.3232314152847</v>
+        <v>1786.0271997018281</v>
       </c>
       <c r="H92" t="s">
         <v>8</v>
       </c>
       <c r="I92">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J92">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K92">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L92" t="s">
         <v>13</v>
@@ -4183,34 +4180,34 @@
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="B93">
-        <v>3218.786286883118</v>
+        <v>1787.0794499466867</v>
       </c>
       <c r="C93">
-        <v>3215.9750789461</v>
+        <v>1788.0264892978894</v>
       </c>
       <c r="D93">
-        <v>3214.2199308280615</v>
+        <v>1787.1576924861731</v>
       </c>
       <c r="E93">
-        <v>3210.6177768359207</v>
+        <v>1787.8829180684477</v>
       </c>
       <c r="F93">
-        <v>3207.3797574516552</v>
+        <v>1788.1081292200274</v>
       </c>
       <c r="G93">
-        <v>3204.9213954115316</v>
+        <v>1787.4323137957279</v>
       </c>
       <c r="H93" t="s">
         <v>8</v>
       </c>
       <c r="I93">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J93">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K93">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L93" t="s">
         <v>13</v>
@@ -4224,34 +4221,34 @@
         <v>6.458333333333334E-2</v>
       </c>
       <c r="B94">
-        <v>2362.5822535835805</v>
+        <v>1788.224248045088</v>
       </c>
       <c r="C94">
-        <v>2360.7269933135731</v>
+        <v>1789.1706486501603</v>
       </c>
       <c r="D94">
-        <v>2359.9265686020217</v>
+        <v>1788.3012130819006</v>
       </c>
       <c r="E94">
-        <v>2357.2783556069699</v>
+        <v>1789.0258005860758</v>
       </c>
       <c r="F94">
-        <v>2354.9931593313854</v>
+        <v>1789.2503739144681</v>
       </c>
       <c r="G94">
-        <v>2353.4864414139524</v>
+        <v>1788.573920841362</v>
       </c>
       <c r="H94" t="s">
         <v>8</v>
       </c>
       <c r="I94">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J94">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K94">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L94" t="s">
         <v>13</v>
@@ -4265,34 +4262,34 @@
         <v>6.5277777777777782E-2</v>
       </c>
       <c r="B95">
-        <v>1797.5778167532965</v>
+        <v>1789.1543572659843</v>
       </c>
       <c r="C95">
-        <v>1796.353590380138</v>
+        <v>1790.1002389117184</v>
       </c>
       <c r="D95">
-        <v>1796.1833901466289</v>
+        <v>1789.2302843756577</v>
       </c>
       <c r="E95">
-        <v>1794.1648823376458</v>
+        <v>1789.9543534632462</v>
       </c>
       <c r="F95">
-        <v>1792.5086517185559</v>
+        <v>1790.1784085821582</v>
       </c>
       <c r="G95">
-        <v>1791.6301198265317</v>
+        <v>1789.5014374412497</v>
       </c>
       <c r="H95" t="s">
         <v>8</v>
       </c>
       <c r="I95">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J95">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K95">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L95" t="s">
         <v>13</v>
@@ -4306,34 +4303,34 @@
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="B96">
-        <v>1424.7514605021436</v>
+        <v>1789.9100391316751</v>
       </c>
       <c r="C96">
-        <v>1423.9436389362791</v>
+        <v>1790.8554991407314</v>
       </c>
       <c r="D96">
-        <v>1424.189309353839</v>
+        <v>1789.985122961119</v>
       </c>
       <c r="E96">
-        <v>1422.5863294056689</v>
+        <v>1790.7087708529966</v>
       </c>
       <c r="F96">
-        <v>1421.3451385915325</v>
+        <v>1790.932404944466</v>
       </c>
       <c r="G96">
-        <v>1420.8811319984206</v>
+        <v>1790.2550128912237</v>
       </c>
       <c r="H96" t="s">
         <v>8</v>
       </c>
       <c r="I96">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J96">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K96">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L96" t="s">
         <v>13</v>
@@ -4347,34 +4344,34 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="B97">
-        <v>1178.7372450144881</v>
+        <v>1790.5240047491648</v>
       </c>
       <c r="C97">
-        <v>1178.2041937702802</v>
+        <v>1791.4691221928715</v>
       </c>
       <c r="D97">
-        <v>1178.7242820382305</v>
+        <v>1790.598403442322</v>
       </c>
       <c r="E97">
-        <v>1177.3954937402136</v>
+        <v>1791.3217091271213</v>
       </c>
       <c r="F97">
-        <v>1176.4281725239362</v>
+        <v>1791.5450011482224</v>
       </c>
       <c r="G97">
-        <v>1176.2376960235049</v>
+        <v>1790.8672671181344</v>
       </c>
       <c r="H97" t="s">
         <v>8</v>
       </c>
       <c r="I97">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J97">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K97">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L97" t="s">
         <v>13</v>
@@ -4388,34 +4385,34 @@
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="B98">
-        <v>1016.4016600418047</v>
+        <v>1791.0228307718251</v>
       </c>
       <c r="C98">
-        <v>1016.0499194746901</v>
+        <v>1791.9676698929245</v>
       </c>
       <c r="D98">
-        <v>1016.7510858370846</v>
+        <v>1791.0966728152312</v>
       </c>
       <c r="E98">
-        <v>1015.6032263721627</v>
+        <v>1791.8197004685055</v>
       </c>
       <c r="F98">
-        <v>1014.8166214786207</v>
+        <v>1792.0427145691563</v>
       </c>
       <c r="G98">
-        <v>1014.8066372740906</v>
+        <v>1791.3647026946003</v>
       </c>
       <c r="H98" t="s">
         <v>8</v>
       </c>
       <c r="I98">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J98">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K98">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L98" t="s">
         <v>13</v>
@@ -4429,34 +4426,34 @@
         <v>6.805555555555555E-2</v>
       </c>
       <c r="B99">
-        <v>894.65557958152124</v>
+        <v>1777.0370945081588</v>
       </c>
       <c r="C99">
-        <v>894.39126852312495</v>
+        <v>1777.8370569917117</v>
       </c>
       <c r="D99">
-        <v>894.961728051916</v>
+        <v>1776.9302328736101</v>
       </c>
       <c r="E99">
-        <v>894.11913634135317</v>
+        <v>1777.3993994585578</v>
       </c>
       <c r="F99">
-        <v>893.20166169269442</v>
+        <v>1777.6956489110712</v>
       </c>
       <c r="G99">
-        <v>893.51489388562504</v>
+        <v>1777.0182112541063</v>
       </c>
       <c r="H99" t="s">
         <v>8</v>
       </c>
       <c r="I99">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J99">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K99">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L99" t="s">
         <v>13</v>
@@ -4470,34 +4467,34 @@
         <v>6.8749999999999992E-2</v>
       </c>
       <c r="B100">
-        <v>814.16230365970023</v>
+        <v>1765.3969280957906</v>
       </c>
       <c r="C100">
-        <v>813.98789506238631</v>
+        <v>1766.2033865774649</v>
       </c>
       <c r="D100">
-        <v>814.64814481608607</v>
+        <v>1765.3030583255502</v>
       </c>
       <c r="E100">
-        <v>813.89526312073349</v>
+        <v>1765.7787143276773</v>
       </c>
       <c r="F100">
-        <v>813.06739930093806</v>
+        <v>1766.0814499281137</v>
       </c>
       <c r="G100">
-        <v>813.47012480260958</v>
+        <v>1765.4104967861451</v>
       </c>
       <c r="H100" t="s">
         <v>8</v>
       </c>
       <c r="I100">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J100">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K100">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L100" t="s">
         <v>13</v>
@@ -4511,34 +4508,34 @@
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="B101">
-        <v>761.04789556225637</v>
+        <v>1755.9398834307065</v>
       </c>
       <c r="C101">
-        <v>760.93281004767539</v>
+        <v>1756.7516189787893</v>
       </c>
       <c r="D101">
-        <v>761.65230882373044</v>
+        <v>1755.8565676938219</v>
       </c>
       <c r="E101">
-        <v>760.95862322565779</v>
+        <v>1756.337495422038</v>
       </c>
       <c r="F101">
-        <v>760.18989005473009</v>
+        <v>1756.6455000956516</v>
       </c>
       <c r="G101">
-        <v>760.65166865781191</v>
+        <v>1755.9798147056847</v>
       </c>
       <c r="H101" t="s">
         <v>8</v>
       </c>
       <c r="I101">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J101">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K101">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L101" t="s">
         <v>13</v>
@@ -4552,34 +4549,34 @@
         <v>7.013888888888889E-2</v>
       </c>
       <c r="B102">
-        <v>725.99973909819289</v>
+        <v>1748.2564109765146</v>
       </c>
       <c r="C102">
-        <v>725.9237986019491</v>
+        <v>1749.0724337919603</v>
       </c>
       <c r="D102">
-        <v>726.68239352673436</v>
+        <v>1748.1816696953392</v>
       </c>
       <c r="E102">
-        <v>726.02776915428262</v>
+        <v>1748.6668803535892</v>
       </c>
       <c r="F102">
-        <v>751.95996811698842</v>
+        <v>1748.9791658025899</v>
       </c>
       <c r="G102">
-        <v>730.08178756280302</v>
+        <v>1748.3177601158811</v>
       </c>
       <c r="H102" t="s">
         <v>8</v>
       </c>
       <c r="I102">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J102">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K102">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L102" t="s">
         <v>13</v>
@@ -4593,34 +4590,34 @@
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="B103">
-        <v>1061.8594985187815</v>
+        <v>1742.0138714669774</v>
       </c>
       <c r="C103">
-        <v>1062.5929612243931</v>
+        <v>1742.8333774977159</v>
       </c>
       <c r="D103">
-        <v>1064.1601083247235</v>
+        <v>1741.9460965526084</v>
       </c>
       <c r="E103">
-        <v>1064.3130427937372</v>
+        <v>1742.4347869025728</v>
       </c>
       <c r="F103">
-        <v>1091.0429559835707</v>
+        <v>1742.7505502928855</v>
       </c>
       <c r="G103">
-        <v>1065.696617088156</v>
+        <v>1742.0926216767191</v>
       </c>
       <c r="H103" t="s">
         <v>8</v>
       </c>
       <c r="I103">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J103">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K103">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L103" t="s">
         <v>13</v>
@@ -4634,34 +4631,34 @@
         <v>7.1527777777777787E-2</v>
       </c>
       <c r="B104">
-        <v>1285.2144269419714</v>
+        <v>1736.942031586867</v>
       </c>
       <c r="C104">
-        <v>1285.6983161489895</v>
+        <v>1737.7643675978916</v>
       </c>
       <c r="D104">
-        <v>1287.0162015242236</v>
+        <v>1736.8799165813477</v>
       </c>
       <c r="E104">
-        <v>1286.9200966528556</v>
+        <v>1737.3714340488946</v>
       </c>
       <c r="F104">
-        <v>1313.3953189655324</v>
+        <v>1737.6900231346897</v>
       </c>
       <c r="G104">
-        <v>1287.8064999090047</v>
+        <v>1737.034919506606</v>
       </c>
       <c r="H104" t="s">
         <v>8</v>
       </c>
       <c r="I104">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J104">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K104">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L104" t="s">
         <v>13</v>
@@ -4675,34 +4672,34 @@
         <v>7.2222222222222229E-2</v>
       </c>
       <c r="B105">
-        <v>1432.5685265983584</v>
+        <v>1732.8213419660156</v>
       </c>
       <c r="C105">
-        <v>1432.8877506132246</v>
+        <v>1733.6459772337014</v>
       </c>
       <c r="D105">
-        <v>1434.0411764781913</v>
+        <v>1732.7638254318213</v>
       </c>
       <c r="E105">
-        <v>1433.7807591144331</v>
+        <v>1733.2576398302035</v>
       </c>
       <c r="F105">
-        <v>1460.0879369666554</v>
+        <v>1733.5785246914384</v>
       </c>
       <c r="G105">
-        <v>1434.3391363895844</v>
+        <v>1732.9257162640731</v>
       </c>
       <c r="H105" t="s">
         <v>8</v>
       </c>
       <c r="I105">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J105">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K105">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L105" t="s">
         <v>13</v>
@@ -4716,34 +4713,34 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="B106">
-        <v>1529.7811542896573</v>
+        <v>1729.473427824594</v>
       </c>
       <c r="C106">
-        <v>1529.991744193936</v>
+        <v>1730.2999311563563</v>
       </c>
       <c r="D106">
-        <v>1531.0366716431411</v>
+        <v>1729.4196473844318</v>
       </c>
       <c r="E106">
-        <v>1530.6678528732052</v>
+        <v>1729.915327957242</v>
       </c>
       <c r="F106">
-        <v>1556.8641670752886</v>
+        <v>1730.2380780541887</v>
       </c>
       <c r="G106">
-        <v>1531.009822529544</v>
+        <v>1729.5871343955976</v>
       </c>
       <c r="H106" t="s">
         <v>8</v>
       </c>
       <c r="I106">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J106">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K106">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L106" t="s">
         <v>13</v>
@@ -4757,34 +4754,34 @@
         <v>7.3611111111111113E-2</v>
       </c>
       <c r="B107">
-        <v>1606.3434502247585</v>
+        <v>1753.2964301653087</v>
       </c>
       <c r="C107">
-        <v>1606.5098107928259</v>
+        <v>1754.4035382747188</v>
       </c>
       <c r="D107">
-        <v>1607.7248547068803</v>
+        <v>1753.3038056477956</v>
       </c>
       <c r="E107">
-        <v>1607.2404689611681</v>
+        <v>1753.7942960191522</v>
       </c>
       <c r="F107">
-        <v>1633.1763711426026</v>
+        <v>1754.468967739441</v>
       </c>
       <c r="G107">
-        <v>1607.5181432474617</v>
+        <v>1753.6341802305799</v>
       </c>
       <c r="H107" t="s">
         <v>8</v>
       </c>
       <c r="I107">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J107">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K107">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L107" t="s">
         <v>13</v>
@@ -4798,34 +4795,34 @@
         <v>7.4305555555555555E-2</v>
       </c>
       <c r="B108">
-        <v>1657.0087610055398</v>
+        <v>1772.8572922428991</v>
       </c>
       <c r="C108">
-        <v>1657.1185035031056</v>
+        <v>1773.9534848162511</v>
       </c>
       <c r="D108">
-        <v>1658.2770019796706</v>
+        <v>1772.8428351551393</v>
       </c>
       <c r="E108">
-        <v>1657.7361188015896</v>
+        <v>1773.3224200686329</v>
       </c>
       <c r="F108">
-        <v>1683.6142389686506</v>
+        <v>1773.9861930526718</v>
       </c>
       <c r="G108">
-        <v>1657.9010056971933</v>
+        <v>1773.1405077105153</v>
       </c>
       <c r="H108" t="s">
         <v>8</v>
       </c>
       <c r="I108">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J108">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K108">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L108" t="s">
         <v>13</v>
@@ -4839,34 +4836,34 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="B109">
-        <v>1690.4337118171518</v>
+        <v>1788.7495163386488</v>
       </c>
       <c r="C109">
-        <v>1690.5061023540818</v>
+        <v>1789.8368416622261</v>
       </c>
       <c r="D109">
-        <v>1691.6272967870723</v>
+        <v>1788.7173235174371</v>
       </c>
       <c r="E109">
-        <v>1691.0491412326721</v>
+        <v>1789.1880493563624</v>
       </c>
       <c r="F109">
-        <v>1716.8891415784317</v>
+        <v>1789.8429687230666</v>
       </c>
       <c r="G109">
-        <v>1691.1396202475592</v>
+        <v>1788.9884304843908</v>
       </c>
       <c r="H109" t="s">
         <v>8</v>
       </c>
       <c r="I109">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J109">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K109">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L109" t="s">
         <v>13</v>
@@ -4880,34 +4877,34 @@
         <v>7.5694444444444439E-2</v>
       </c>
       <c r="B110">
-        <v>1712.4848551037219</v>
+        <v>1801.6613419998059</v>
       </c>
       <c r="C110">
-        <v>1712.5326037747163</v>
+        <v>1802.7414632763384</v>
       </c>
       <c r="D110">
-        <v>1713.6291879536382</v>
+        <v>1801.6147400780853</v>
       </c>
       <c r="E110">
-        <v>1713.0264430365742</v>
+        <v>1802.0782685089846</v>
       </c>
       <c r="F110">
-        <v>1738.8412949434769</v>
+        <v>1802.7259949005654</v>
       </c>
       <c r="G110">
-        <v>1713.0678336232468</v>
+        <v>1801.8642642694026</v>
       </c>
       <c r="H110" t="s">
         <v>8</v>
       </c>
       <c r="I110">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J110">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K110">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L110" t="s">
         <v>13</v>
@@ -4921,34 +4918,34 @@
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="B111">
-        <v>1727.0324590324442</v>
+        <v>1812.1517517857949</v>
       </c>
       <c r="C111">
-        <v>1727.0639509456446</v>
+        <v>1813.2260200845064</v>
       </c>
       <c r="D111">
-        <v>1728.1442992217865</v>
+        <v>1812.0934430898365</v>
       </c>
       <c r="E111">
-        <v>1727.5253321844323</v>
+        <v>1812.5511239361754</v>
       </c>
       <c r="F111">
-        <v>1753.3235931367592</v>
+        <v>1813.1930063445657</v>
       </c>
       <c r="G111">
-        <v>1727.5343381014277</v>
+        <v>1812.3254322028811</v>
       </c>
       <c r="H111" t="s">
         <v>8</v>
       </c>
       <c r="I111">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J111">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K111">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L111" t="s">
         <v>13</v>
@@ -4962,34 +4959,34 @@
         <v>7.7083333333333337E-2</v>
       </c>
       <c r="B112">
-        <v>1736.6298199604532</v>
+        <v>1820.6748556885748</v>
       </c>
       <c r="C112">
-        <v>1736.650586947922</v>
+        <v>1821.7443686544877</v>
       </c>
       <c r="D112">
-        <v>1737.7202240568249</v>
+        <v>1820.6070356617222</v>
       </c>
       <c r="E112">
-        <v>1737.090554944831</v>
+        <v>1821.0599655569351</v>
       </c>
       <c r="F112">
-        <v>1762.8778704947692</v>
+        <v>1821.6970999401422</v>
       </c>
       <c r="G112">
-        <v>1737.0781960127256</v>
+        <v>1820.824778157137</v>
       </c>
       <c r="H112" t="s">
         <v>8</v>
       </c>
       <c r="I112">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J112">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K112">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L112" t="s">
         <v>13</v>
@@ -5003,34 +5000,34 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="B113">
-        <v>1742.9614012481566</v>
+        <v>1827.5995924002143</v>
       </c>
       <c r="C113">
-        <v>1742.9750927760736</v>
+        <v>1828.6652418206759</v>
       </c>
       <c r="D113">
-        <v>1744.037663502191</v>
+        <v>1827.5240447418787</v>
       </c>
       <c r="E113">
-        <v>1743.4009340059915</v>
+        <v>1827.9731146515649</v>
       </c>
       <c r="F113">
-        <v>1769.1810286432783</v>
+        <v>1828.6063914264632</v>
       </c>
       <c r="G113">
-        <v>1743.3744802326296</v>
+        <v>1827.7302123469881</v>
       </c>
       <c r="H113" t="s">
         <v>8</v>
       </c>
       <c r="I113">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J113">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K113">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L113" t="s">
         <v>13</v>
@@ -5044,34 +5041,34 @@
         <v>7.8472222222222221E-2</v>
       </c>
       <c r="B114">
-        <v>1747.1384788744701</v>
+        <v>1833.225709828519</v>
       </c>
       <c r="C114">
-        <v>1747.1475025725911</v>
+        <v>1834.2882202480453</v>
       </c>
       <c r="D114">
-        <v>1748.2054114570465</v>
+        <v>1833.1438837290987</v>
       </c>
       <c r="E114">
-        <v>1747.5640240765747</v>
+        <v>1833.5898175301606</v>
       </c>
       <c r="F114">
-        <v>1773.3393549255907</v>
+        <v>1834.2199601278433</v>
       </c>
       <c r="G114">
-        <v>1747.5282716393597</v>
+        <v>1833.3406471245</v>
       </c>
       <c r="H114" t="s">
         <v>8</v>
       </c>
       <c r="I114">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J114">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K114">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L114" t="s">
         <v>13</v>
@@ -5085,34 +5082,34 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="B115">
-        <v>1749.8941850248693</v>
+        <v>1837.7967425717252</v>
       </c>
       <c r="C115">
-        <v>1749.9001292572898</v>
+        <v>1838.856702657881</v>
       </c>
       <c r="D115">
-        <v>1750.9549626265432</v>
+        <v>1837.7098154487121</v>
       </c>
       <c r="E115">
-        <v>1750.3105023416426</v>
+        <v>1838.1532012663074</v>
       </c>
       <c r="F115">
-        <v>1776.0826904191299</v>
+        <v>1838.7807974497257</v>
       </c>
       <c r="G115">
-        <v>1750.2686153798952</v>
+        <v>1837.898938237955</v>
       </c>
       <c r="H115" t="s">
         <v>8</v>
       </c>
       <c r="I115">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J115">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K115">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L115" t="s">
         <v>13</v>
@@ -5126,34 +5123,34 @@
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="B116">
-        <v>1751.7121824543431</v>
+        <v>1841.5105542335943</v>
       </c>
       <c r="C116">
-        <v>1751.716095098335</v>
+        <v>1842.5684422589807</v>
       </c>
       <c r="D116">
-        <v>1752.768899485387</v>
+        <v>1841.4194826991136</v>
       </c>
       <c r="E116">
-        <v>1752.1224119406677</v>
+        <v>1841.8607983651584</v>
       </c>
       <c r="F116">
-        <v>1777.8925266655365</v>
+        <v>1842.4863256719507</v>
       </c>
       <c r="G116">
-        <v>1752.0764779037886</v>
+        <v>1841.6023977507878</v>
       </c>
       <c r="H116" t="s">
         <v>8</v>
       </c>
       <c r="I116">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J116">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K116">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L116" t="s">
         <v>13</v>
@@ -5167,34 +5164,34 @@
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="B117">
-        <v>1752.911553676525</v>
+        <v>1844.5279023621783</v>
       </c>
       <c r="C117">
-        <v>1752.9141260388103</v>
+        <v>1845.5841069072994</v>
       </c>
       <c r="D117">
-        <v>1753.9655918635392</v>
+        <v>1844.4334636316071</v>
       </c>
       <c r="E117">
-        <v>1753.3177668927888</v>
+        <v>1844.8730973685604</v>
       </c>
       <c r="F117">
-        <v>1779.0865137832354</v>
+        <v>1845.4969437820969</v>
       </c>
       <c r="G117">
-        <v>1753.269162915145</v>
+        <v>1844.6113351035501</v>
       </c>
       <c r="H117" t="s">
         <v>8</v>
       </c>
       <c r="I117">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J117">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K117">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L117" t="s">
         <v>13</v>
@@ -5208,34 +5205,34 @@
         <v>8.1250000000000003E-2</v>
       </c>
       <c r="B118">
-        <v>1753.7028041509634</v>
+        <v>1846.9793970970686</v>
       </c>
       <c r="C118">
-        <v>1753.704492301159</v>
+        <v>1848.0342338706139</v>
       </c>
       <c r="D118">
-        <v>1754.7550750481103</v>
+        <v>1846.8822226319628</v>
       </c>
       <c r="E118">
-        <v>1754.1063677492173</v>
+        <v>1847.3204898576205</v>
       </c>
       <c r="F118">
-        <v>1779.8742122504668</v>
+        <v>1847.9429706014405</v>
       </c>
       <c r="G118">
-        <v>1754.0560023553771</v>
+        <v>1847.055996363569</v>
       </c>
       <c r="H118" t="s">
         <v>8</v>
       </c>
       <c r="I118">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J118">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K118">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L118" t="s">
         <v>13</v>
@@ -5249,34 +5246,34 @@
         <v>8.1944444444444445E-2</v>
       </c>
       <c r="B119">
-        <v>1754.2248087661471</v>
+        <v>1848.9711548195128</v>
       </c>
       <c r="C119">
-        <v>1754.2259135829897</v>
+        <v>1850.0248803242655</v>
       </c>
       <c r="D119">
-        <v>1755.2759137449189</v>
+        <v>1848.8717576613278</v>
       </c>
       <c r="E119">
-        <v>1754.626624355554</v>
+        <v>1849.3089146421264</v>
       </c>
       <c r="F119">
-        <v>1780.3938735316297</v>
+        <v>1849.9302858248441</v>
       </c>
       <c r="G119">
-        <v>1754.5750969183232</v>
+        <v>1849.0422021155593</v>
       </c>
       <c r="H119" t="s">
         <v>8</v>
       </c>
       <c r="I119">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J119">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K119">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L119" t="s">
         <v>13</v>
@@ -5290,34 +5287,34 @@
         <v>8.2638888888888887E-2</v>
       </c>
       <c r="B120">
-        <v>1754.569186213082</v>
+        <v>1850.5893915502231</v>
       </c>
       <c r="C120">
-        <v>1754.5699061926166</v>
+        <v>1851.6422141861387</v>
       </c>
       <c r="D120">
-        <v>1755.6195220109269</v>
+        <v>1850.4881885280313</v>
       </c>
       <c r="E120">
-        <v>1754.9698486042089</v>
+        <v>1850.9244434719049</v>
       </c>
       <c r="F120">
-        <v>1780.7367050317196</v>
+        <v>1851.5449131732269</v>
       </c>
       <c r="G120">
-        <v>1754.9175545424614</v>
+        <v>1850.6559280554163</v>
       </c>
       <c r="H120" t="s">
         <v>8</v>
       </c>
       <c r="I120">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J120">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K120">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L120" t="s">
         <v>13</v>
@@ -5331,34 +5328,34 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="B121">
-        <v>1754.7963792732724</v>
+        <v>1851.9041549309111</v>
       </c>
       <c r="C121">
-        <v>1754.7968453675244</v>
+        <v>1852.9562440160041</v>
       </c>
       <c r="D121">
-        <v>1755.8462076262488</v>
+        <v>1851.8014847044331</v>
       </c>
       <c r="E121">
-        <v>1755.1962808751889</v>
+        <v>1852.2370067733852</v>
       </c>
       <c r="F121">
-        <v>1780.9628781981939</v>
+        <v>1852.8567440511351</v>
       </c>
       <c r="G121">
-        <v>1755.1434810550895</v>
+        <v>1851.9670265689563</v>
       </c>
       <c r="H121" t="s">
         <v>8</v>
       </c>
       <c r="I121">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J121">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K121">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L121" t="s">
         <v>13</v>
@@ -5372,34 +5369,34 @@
         <v>8.4027777777777771E-2</v>
       </c>
       <c r="B122">
-        <v>1754.9462633236319</v>
+        <v>1850.462658200079</v>
       </c>
       <c r="C122">
-        <v>1754.9465619244108</v>
+        <v>1851.110830101469</v>
       </c>
       <c r="D122">
-        <v>1755.995756904533</v>
+        <v>1849.4873398067455</v>
       </c>
       <c r="E122">
-        <v>1755.345663016871</v>
+        <v>1849.3788992433147</v>
       </c>
       <c r="F122">
-        <v>1781.1120894031715</v>
+        <v>1849.3673524103194</v>
       </c>
       <c r="G122">
-        <v>1755.2925295373268</v>
+        <v>1847.7449981814223</v>
       </c>
       <c r="H122" t="s">
         <v>8</v>
       </c>
       <c r="I122">
-        <v>22</v>
+        <v>22.0001</v>
       </c>
       <c r="J122">
-        <v>80</v>
+        <v>79.999899999999997</v>
       </c>
       <c r="K122">
-        <v>7.7504000000000003E-2</v>
+        <v>0.15348000000000001</v>
       </c>
       <c r="L122" t="s">
         <v>13</v>
@@ -5413,22 +5410,22 @@
         <v>8.4722222222222213E-2</v>
       </c>
       <c r="B123">
-        <v>1740.9426905516118</v>
+        <v>1610.6896360323854</v>
       </c>
       <c r="C123">
-        <v>1740.9116562277256</v>
+        <v>1610.8782898361787</v>
       </c>
       <c r="D123">
-        <v>1741.6626278476053</v>
+        <v>1609.5637298113179</v>
       </c>
       <c r="E123">
-        <v>1740.9699945539896</v>
+        <v>1609.6331548673786</v>
       </c>
       <c r="F123">
-        <v>1767.062721331753</v>
+        <v>1609.2519895133983</v>
       </c>
       <c r="G123">
-        <v>1740.8932875163691</v>
+        <v>1608.2147214013598</v>
       </c>
       <c r="H123" t="s">
         <v>8</v>
@@ -5440,7 +5437,7 @@
         <v>80</v>
       </c>
       <c r="K123">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L123" t="s">
         <v>13</v>
@@ -5454,22 +5451,22 @@
         <v>8.5416666666666655E-2</v>
       </c>
       <c r="B124">
-        <v>1731.5004644840685</v>
+        <v>1445.1465748610078</v>
       </c>
       <c r="C124">
-        <v>1731.4799820749954</v>
+        <v>1445.5015958362389</v>
       </c>
       <c r="D124">
-        <v>1732.2414925155856</v>
+        <v>1444.3532796248394</v>
       </c>
       <c r="E124">
-        <v>1731.5593886642719</v>
+        <v>1444.5887409987236</v>
       </c>
       <c r="F124">
-        <v>1757.6628837059711</v>
+        <v>1444.3734582464824</v>
       </c>
       <c r="G124">
-        <v>1731.5037017406798</v>
+        <v>1443.5019250528239</v>
       </c>
       <c r="H124" t="s">
         <v>8</v>
@@ -5481,7 +5478,7 @@
         <v>80</v>
       </c>
       <c r="K124">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L124" t="s">
         <v>13</v>
@@ -5495,22 +5492,22 @@
         <v>8.6111111111111124E-2</v>
       </c>
       <c r="B125">
-        <v>1725.2712667264659</v>
+        <v>1331.266585547357</v>
       </c>
       <c r="C125">
-        <v>1725.2577454084587</v>
+        <v>1331.7360496458066</v>
       </c>
       <c r="D125">
-        <v>1726.0262083026494</v>
+        <v>1330.702091760468</v>
       </c>
       <c r="E125">
-        <v>1725.3510507208684</v>
+        <v>1331.0517687236329</v>
       </c>
       <c r="F125">
-        <v>1751.4616495636164</v>
+        <v>1330.950595857405</v>
       </c>
       <c r="G125">
-        <v>1725.3092307626353</v>
+        <v>1330.193071000127</v>
       </c>
       <c r="H125" t="s">
         <v>8</v>
@@ -5522,7 +5519,7 @@
         <v>80</v>
       </c>
       <c r="K125">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L125" t="s">
         <v>13</v>
@@ -5536,22 +5533,22 @@
         <v>8.6805555555555566E-2</v>
       </c>
       <c r="B126">
-        <v>1721.1617416869726</v>
+        <v>1252.9261663415666</v>
       </c>
       <c r="C126">
-        <v>1721.1528127284528</v>
+        <v>1253.4743580125444</v>
       </c>
       <c r="D126">
-        <v>1721.9258622838736</v>
+        <v>1252.5190693702343</v>
       </c>
       <c r="E126">
-        <v>1721.2552872837348</v>
+        <v>1252.9473173847271</v>
       </c>
       <c r="F126">
-        <v>1747.3705726335295</v>
+        <v>1252.9246428569766</v>
       </c>
       <c r="G126">
-        <v>1721.2226156175136</v>
+        <v>1252.2455464829582</v>
       </c>
       <c r="H126" t="s">
         <v>8</v>
@@ -5563,7 +5560,7 @@
         <v>80</v>
       </c>
       <c r="K126">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L126" t="s">
         <v>13</v>
@@ -5577,22 +5574,22 @@
         <v>8.7500000000000008E-2</v>
       </c>
       <c r="B127">
-        <v>1718.450605780266</v>
+        <v>1199.0341351160782</v>
       </c>
       <c r="C127">
-        <v>1718.444706492659</v>
+        <v>1199.6364851337812</v>
       </c>
       <c r="D127">
-        <v>1719.2207819597422</v>
+        <v>1198.7353147123899</v>
       </c>
       <c r="E127">
-        <v>1718.5532301798889</v>
+        <v>1199.217613399632</v>
       </c>
       <c r="F127">
-        <v>1744.6716073115688</v>
+        <v>1199.2489395240964</v>
       </c>
       <c r="G127">
-        <v>1718.5265938239318</v>
+        <v>1198.6237957476064</v>
       </c>
       <c r="H127" t="s">
         <v>8</v>
@@ -5604,7 +5601,7 @@
         <v>80</v>
       </c>
       <c r="K127">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L127" t="s">
         <v>13</v>
@@ -5618,22 +5615,22 @@
         <v>8.819444444444445E-2</v>
       </c>
       <c r="B128">
-        <v>1716.6620151195568</v>
+        <v>1161.9606655237519</v>
       </c>
       <c r="C128">
-        <v>1716.6581145665066</v>
+        <v>1162.600272214089</v>
       </c>
       <c r="D128">
-        <v>1717.4361862880912</v>
+        <v>1161.7363308619601</v>
       </c>
       <c r="E128">
-        <v>1716.7706289871855</v>
+        <v>1162.2558121506465</v>
       </c>
       <c r="F128">
-        <v>1742.8910458292705</v>
+        <v>1162.3242864663823</v>
       </c>
       <c r="G128">
-        <v>1716.7479742462385</v>
+        <v>1161.7362578233392</v>
       </c>
       <c r="H128" t="s">
         <v>8</v>
@@ -5645,7 +5642,7 @@
         <v>80</v>
       </c>
       <c r="K128">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L128" t="s">
         <v>13</v>
@@ -5659,22 +5656,22 @@
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="B129">
-        <v>1715.4820460332376</v>
+        <v>1136.4570405558147</v>
       </c>
       <c r="C129">
-        <v>1715.4794640854091</v>
+        <v>1137.1222769003027</v>
       </c>
       <c r="D129">
-        <v>1716.2588527760749</v>
+        <v>1136.2839462133823</v>
       </c>
       <c r="E129">
-        <v>1715.5946112728807</v>
+        <v>1136.8290062010797</v>
       </c>
       <c r="F129">
-        <v>1741.7163737527762</v>
+        <v>1136.9230355443408</v>
       </c>
       <c r="G129">
-        <v>1715.5745832831099</v>
+        <v>1136.3605391876476</v>
       </c>
       <c r="H129" t="s">
         <v>8</v>
@@ -5686,7 +5683,7 @@
         <v>80</v>
       </c>
       <c r="K129">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L129" t="s">
         <v>13</v>
@@ -5700,22 +5697,22 @@
         <v>8.9583333333333334E-2</v>
       </c>
       <c r="B130">
-        <v>1714.7035967907627</v>
+        <v>1118.9125567533131</v>
       </c>
       <c r="C130">
-        <v>1714.7018847532124</v>
+        <v>1119.5954242797432</v>
       </c>
       <c r="D130">
-        <v>1715.4821422747614</v>
+        <v>1118.7747117118686</v>
       </c>
       <c r="E130">
-        <v>1714.8187688296741</v>
+        <v>1119.3373678283881</v>
       </c>
       <c r="F130">
-        <v>1740.941419053788</v>
+        <v>1119.4489770163555</v>
       </c>
       <c r="G130">
-        <v>1714.8004737602705</v>
+        <v>1118.9040448602311</v>
       </c>
       <c r="H130" t="s">
         <v>8</v>
@@ -5727,7 +5724,7 @@
         <v>80</v>
       </c>
       <c r="K130">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L130" t="s">
         <v>13</v>
@@ -5741,22 +5738,22 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="B131">
-        <v>1714.1900382322026</v>
+        <v>1106.8433347389685</v>
       </c>
       <c r="C131">
-        <v>1714.1889000918879</v>
+        <v>1107.5383311288997</v>
       </c>
       <c r="D131">
-        <v>1714.9697307985741</v>
+        <v>1106.7297384382828</v>
       </c>
       <c r="E131">
-        <v>1714.3069300288089</v>
+        <v>1107.3044993045194</v>
       </c>
       <c r="F131">
-        <v>1740.4301659155656</v>
+        <v>1107.4282020400153</v>
       </c>
       <c r="G131">
-        <v>1714.2897782016839</v>
+        <v>1106.8953526694866</v>
       </c>
       <c r="H131" t="s">
         <v>8</v>
@@ -5768,7 +5765,7 @@
         <v>80</v>
       </c>
       <c r="K131">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L131" t="s">
         <v>13</v>
@@ -5782,22 +5779,22 @@
         <v>9.0972222222222218E-2</v>
       </c>
       <c r="B132">
-        <v>1713.8512333639028</v>
+        <v>1098.5406612792119</v>
       </c>
       <c r="C132">
-        <v>1713.8504738350898</v>
+        <v>1099.2440013712444</v>
       </c>
       <c r="D132">
-        <v>1714.6316826834934</v>
+        <v>1098.4437462009023</v>
       </c>
       <c r="E132">
-        <v>1713.9692597191092</v>
+        <v>1099.0268341808576</v>
       </c>
       <c r="F132">
-        <v>1740.092881979243</v>
+        <v>1099.1588563238497</v>
       </c>
       <c r="G132">
-        <v>1713.9528621118159</v>
+        <v>1098.6343189574552</v>
       </c>
       <c r="H132" t="s">
         <v>8</v>
@@ -5809,7 +5806,7 @@
         <v>80</v>
       </c>
       <c r="K132">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L132" t="s">
         <v>13</v>
@@ -5823,22 +5820,22 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="B133">
-        <v>1713.6277170056046</v>
+        <v>1092.8290763487632</v>
       </c>
       <c r="C133">
-        <v>1713.6272072543841</v>
+        <v>1093.5381562501975</v>
       </c>
       <c r="D133">
-        <v>1714.4086655704523</v>
+        <v>1092.743636636648</v>
       </c>
       <c r="E133">
-        <v>1713.7464918518456</v>
+        <v>1093.3324530145057</v>
       </c>
       <c r="F133">
-        <v>1739.8703690102366</v>
+        <v>1093.470198254126</v>
       </c>
       <c r="G133">
-        <v>1713.7305918184836</v>
+        <v>1092.9513788914307</v>
       </c>
       <c r="H133" t="s">
         <v>8</v>
@@ -5850,7 +5847,7 @@
         <v>80</v>
       </c>
       <c r="K133">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L133" t="s">
         <v>13</v>
@@ -5864,22 +5861,22 @@
         <v>9.2361111111111116E-2</v>
       </c>
       <c r="B134">
-        <v>1713.4802587867255</v>
+        <v>1088.8999560990192</v>
       </c>
       <c r="C134">
-        <v>1713.4799138187855</v>
+        <v>1089.6129845369146</v>
       </c>
       <c r="D134">
-        <v>1714.26153671367</v>
+        <v>1088.8224105343668</v>
       </c>
       <c r="E134">
-        <v>1713.5995274274956</v>
+        <v>1089.4151675984735</v>
       </c>
       <c r="F134">
-        <v>1739.7235727473721</v>
+        <v>1089.5568498774846</v>
       </c>
       <c r="G134">
-        <v>1713.5839556536232</v>
+        <v>1089.0419640506464</v>
       </c>
       <c r="H134" t="s">
         <v>8</v>
@@ -5891,7 +5888,7 @@
         <v>80</v>
       </c>
       <c r="K134">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L134" t="s">
         <v>13</v>
@@ -5905,22 +5902,22 @@
         <v>9.3055555555555558E-2</v>
       </c>
       <c r="B135">
-        <v>1713.38297764596</v>
+        <v>1086.1970310572078</v>
       </c>
       <c r="C135">
-        <v>1713.3827413888516</v>
+        <v>1086.9127757769688</v>
       </c>
       <c r="D135">
-        <v>1714.1644728596771</v>
+        <v>1086.1249160438001</v>
       </c>
       <c r="E135">
-        <v>1713.502572052872</v>
+        <v>1086.7203839894446</v>
       </c>
       <c r="F135">
-        <v>1739.6267283122495</v>
+        <v>1086.8647746412421</v>
       </c>
       <c r="G135">
-        <v>1713.4872168383606</v>
+        <v>1086.3525947770352</v>
       </c>
       <c r="H135" t="s">
         <v>8</v>
@@ -5932,7 +5929,7 @@
         <v>80</v>
       </c>
       <c r="K135">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L135" t="s">
         <v>13</v>
@@ -5946,22 +5943,22 @@
         <v>9.375E-2</v>
       </c>
       <c r="B136">
-        <v>1713.3187993287397</v>
+        <v>1084.3376316707604</v>
       </c>
       <c r="C136">
-        <v>1713.3186347903443</v>
+        <v>1085.0552449783493</v>
       </c>
       <c r="D136">
-        <v>1714.1004378908935</v>
+        <v>1084.2692524485765</v>
       </c>
       <c r="E136">
-        <v>1713.4386086501013</v>
+        <v>1084.8665852670499</v>
       </c>
       <c r="F136">
-        <v>1739.5628380984897</v>
+        <v>1085.0128390658529</v>
       </c>
       <c r="G136">
-        <v>1713.4233963041372</v>
+        <v>1084.5025206906544</v>
       </c>
       <c r="H136" t="s">
         <v>8</v>
@@ -5973,7 +5970,7 @@
         <v>80</v>
       </c>
       <c r="K136">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L136" t="s">
         <v>13</v>
@@ -5987,22 +5984,22 @@
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="B137">
-        <v>1713.2764596072968</v>
+        <v>1083.0585114492073</v>
       </c>
       <c r="C137">
-        <v>1713.2763423831736</v>
+        <v>1083.7774101979414</v>
       </c>
       <c r="D137">
-        <v>1714.0581927392859</v>
+        <v>1082.9927021569345</v>
       </c>
       <c r="E137">
-        <v>1713.3964107120264</v>
+        <v>1083.591317860926</v>
       </c>
       <c r="F137">
-        <v>1739.5206884446714</v>
+        <v>1083.7388533580172</v>
       </c>
       <c r="G137">
-        <v>1713.3812926193054</v>
+        <v>1083.2298155405358</v>
       </c>
       <c r="H137" t="s">
         <v>8</v>
@@ -6014,7 +6011,7 @@
         <v>80</v>
       </c>
       <c r="K137">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L137" t="s">
         <v>13</v>
@@ -6028,22 +6025,22 @@
         <v>9.5138888888888884E-2</v>
       </c>
       <c r="B138">
-        <v>1713.2485272449417</v>
+        <v>1082.1785775559772</v>
       </c>
       <c r="C138">
-        <v>1713.2484412349911</v>
+        <v>1082.8983605869018</v>
       </c>
       <c r="D138">
-        <v>1714.0303227665454</v>
+        <v>1082.114536172923</v>
       </c>
       <c r="E138">
-        <v>1713.3685718869988</v>
+        <v>1082.7140344010352</v>
       </c>
       <c r="F138">
-        <v>1739.4928814737345</v>
+        <v>1082.8624516055258</v>
       </c>
       <c r="G138">
-        <v>1713.3535159750302</v>
+        <v>1082.354294710821</v>
       </c>
       <c r="H138" t="s">
         <v>8</v>
@@ -6055,7 +6052,7 @@
         <v>80</v>
       </c>
       <c r="K138">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L138" t="s">
         <v>13</v>
@@ -6069,22 +6066,22 @@
         <v>9.5833333333333326E-2</v>
       </c>
       <c r="B139">
-        <v>1718.1337084065058</v>
+        <v>1094.7569415908035</v>
       </c>
       <c r="C139">
-        <v>1718.1442958850878</v>
+        <v>1095.5069671179992</v>
       </c>
       <c r="D139">
-        <v>1718.8466125766531</v>
+        <v>1094.8134959507211</v>
       </c>
       <c r="E139">
-        <v>1718.3158136247403</v>
+        <v>1095.4431756360805</v>
       </c>
       <c r="F139">
-        <v>1744.3604034326518</v>
+        <v>1095.5916706973182</v>
       </c>
       <c r="G139">
-        <v>1718.2267819044198</v>
+        <v>1095.1386923490991</v>
       </c>
       <c r="H139" t="s">
         <v>8</v>
@@ -6096,7 +6093,7 @@
         <v>80</v>
       </c>
       <c r="K139">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L139" t="s">
         <v>13</v>
@@ -6110,22 +6107,22 @@
         <v>9.6527777777777768E-2</v>
       </c>
       <c r="B140">
-        <v>1721.365460739476</v>
+        <v>1103.5415140224557</v>
       </c>
       <c r="C140">
-        <v>1721.3724366598078</v>
+        <v>1104.2827113936467</v>
       </c>
       <c r="D140">
-        <v>1722.0711462234997</v>
+        <v>1103.5804187083529</v>
       </c>
       <c r="E140">
-        <v>1721.5367434735422</v>
+        <v>1104.2012877917659</v>
       </c>
       <c r="F140">
-        <v>1747.5776476225603</v>
+        <v>1104.340980360613</v>
       </c>
       <c r="G140">
-        <v>1721.4405172358408</v>
+        <v>1103.8792074410571</v>
       </c>
       <c r="H140" t="s">
         <v>8</v>
@@ -6137,7 +6134,7 @@
         <v>80</v>
       </c>
       <c r="K140">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L140" t="s">
         <v>13</v>
@@ -6151,22 +6148,22 @@
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="B141">
-        <v>1723.4975038603277</v>
+        <v>1109.5845949084735</v>
       </c>
       <c r="C141">
-        <v>1723.5020972380535</v>
+        <v>1110.3197193441974</v>
       </c>
       <c r="D141">
-        <v>1724.1984271815863</v>
+        <v>1109.6113582871344</v>
       </c>
       <c r="E141">
-        <v>1723.6616470072267</v>
+        <v>1110.2261665086965</v>
       </c>
       <c r="F141">
-        <v>1749.7001197349591</v>
+        <v>1110.3598037928546</v>
       </c>
       <c r="G141">
-        <v>1723.5606745475188</v>
+        <v>1109.8919810359819</v>
       </c>
       <c r="H141" t="s">
         <v>8</v>
@@ -6178,7 +6175,7 @@
         <v>80</v>
       </c>
       <c r="K141">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L141" t="s">
         <v>13</v>
@@ -6192,22 +6189,22 @@
         <v>9.7916666666666666E-2</v>
       </c>
       <c r="B142">
-        <v>1724.9040556179796</v>
+        <v>1113.7417625970879</v>
       </c>
       <c r="C142">
-        <v>1724.9070771879196</v>
+        <v>1114.4727093368242</v>
       </c>
       <c r="D142">
-        <v>1725.6018372516462</v>
+        <v>1113.7601737230432</v>
       </c>
       <c r="E142">
-        <v>1725.0634886460111</v>
+        <v>1114.3708125541641</v>
       </c>
       <c r="F142">
-        <v>1751.1003573200762</v>
+        <v>1114.5002842844174</v>
       </c>
       <c r="G142">
-        <v>1724.9593850149442</v>
+        <v>1114.0282997208856</v>
       </c>
       <c r="H142" t="s">
         <v>8</v>
@@ -6219,7 +6216,7 @@
         <v>80</v>
       </c>
       <c r="K142">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L142" t="s">
         <v>13</v>
@@ -6233,22 +6230,22 @@
         <v>9.8611111111111108E-2</v>
       </c>
       <c r="B143">
-        <v>1725.831986440905</v>
+        <v>1116.6015702432849</v>
       </c>
       <c r="C143">
-        <v>1725.8339710574483</v>
+        <v>1117.3296430541823</v>
       </c>
       <c r="D143">
-        <v>1726.5276954397027</v>
+        <v>1116.6142356711227</v>
       </c>
       <c r="E143">
-        <v>1725.9883121082194</v>
+        <v>1117.2220062869626</v>
       </c>
       <c r="F143">
-        <v>1752.0241225556426</v>
+        <v>1117.3486124411659</v>
       </c>
       <c r="G143">
-        <v>1725.8821427800453</v>
+        <v>1116.8737648793881</v>
       </c>
       <c r="H143" t="s">
         <v>8</v>
@@ -6260,7 +6257,7 @@
         <v>80</v>
       </c>
       <c r="K143">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L143" t="s">
         <v>13</v>
@@ -6274,22 +6271,22 @@
         <v>9.930555555555555E-2</v>
       </c>
       <c r="B144">
-        <v>1726.4441613088009</v>
+        <v>1118.5688952763442</v>
       </c>
       <c r="C144">
-        <v>1726.4454618260725</v>
+        <v>1119.2949910479763</v>
       </c>
       <c r="D144">
-        <v>1727.1385029481721</v>
+        <v>1118.5776081112606</v>
       </c>
       <c r="E144">
-        <v>1726.598436986977</v>
+        <v>1119.1834056183179</v>
       </c>
       <c r="F144">
-        <v>1752.6335493007371</v>
+        <v>1119.3080404793229</v>
       </c>
       <c r="G144">
-        <v>1726.4909048763589</v>
+        <v>1118.8312233976746</v>
       </c>
       <c r="H144" t="s">
         <v>8</v>
@@ -6301,7 +6298,7 @@
         <v>80</v>
       </c>
       <c r="K144">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L144" t="s">
         <v>13</v>
@@ -6315,22 +6312,22 @@
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="B145">
-        <v>1726.8480255414574</v>
+        <v>1119.9222617537025</v>
       </c>
       <c r="C145">
-        <v>1726.8488747445035</v>
+        <v>1120.6469974762254</v>
       </c>
       <c r="D145">
-        <v>1727.5414651059582</v>
+        <v>1119.928255512383</v>
       </c>
       <c r="E145">
-        <v>1727.0009488000351</v>
+        <v>1120.5326956741974</v>
       </c>
       <c r="F145">
-        <v>1753.0356005407953</v>
+        <v>1120.6559744389401</v>
       </c>
       <c r="G145">
-        <v>1726.8925176340745</v>
+        <v>1120.1778024809407</v>
       </c>
       <c r="H145" t="s">
         <v>8</v>
@@ -6342,7 +6339,7 @@
         <v>80</v>
       </c>
       <c r="K145">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L145" t="s">
         <v>13</v>
@@ -6356,22 +6353,22 @@
         <v>0.10069444444444443</v>
       </c>
       <c r="B146">
-        <v>1727.1144630040228</v>
+        <v>1120.8532725383839</v>
       </c>
       <c r="C146">
-        <v>1727.1150144658782</v>
+        <v>1121.5770726529925</v>
       </c>
       <c r="D146">
-        <v>1727.807307451352</v>
+        <v>1120.8573957842798</v>
       </c>
       <c r="E146">
-        <v>1727.2664940438362</v>
+        <v>1121.4609021982283</v>
       </c>
       <c r="F146">
-        <v>1753.3008419352047</v>
+        <v>1121.583248074307</v>
       </c>
       <c r="G146">
-        <v>1727.1574697527492</v>
+        <v>1121.1041440668475</v>
       </c>
       <c r="H146" t="s">
         <v>8</v>
@@ -6383,7 +6380,7 @@
         <v>80</v>
       </c>
       <c r="K146">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L146" t="s">
         <v>13</v>
@@ -6397,22 +6394,22 @@
         <v>0.1013888888888889</v>
       </c>
       <c r="B147">
-        <v>1728.5074250418088</v>
+        <v>1124.2888143676726</v>
       </c>
       <c r="C147">
-        <v>1728.5104446648891</v>
+        <v>1125.0182199089822</v>
       </c>
       <c r="D147">
-        <v>1729.2202410983848</v>
+        <v>1124.2891057539157</v>
       </c>
       <c r="E147">
-        <v>1728.6518144443185</v>
+        <v>1124.9132424689844</v>
       </c>
       <c r="F147">
-        <v>1754.6961037777739</v>
+        <v>1125.033658419803</v>
       </c>
       <c r="G147">
-        <v>1728.5665046172148</v>
+        <v>1124.5613896262375</v>
       </c>
       <c r="H147" t="s">
         <v>8</v>
@@ -6424,7 +6421,7 @@
         <v>80</v>
       </c>
       <c r="K147">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L147" t="s">
         <v>13</v>
@@ -6438,22 +6435,22 @@
         <v>0.10208333333333335</v>
       </c>
       <c r="B148">
-        <v>1729.4347772114131</v>
+        <v>1126.6696450311333</v>
       </c>
       <c r="C148">
-        <v>1729.436760501711</v>
+        <v>1127.3966579421276</v>
       </c>
       <c r="D148">
-        <v>1730.1455218761505</v>
+        <v>1126.6651529492522</v>
       </c>
       <c r="E148">
-        <v>1729.5760611110859</v>
+        <v>1127.2869017977164</v>
       </c>
       <c r="F148">
-        <v>1755.6192928502885</v>
+        <v>1127.4049320702049</v>
       </c>
       <c r="G148">
-        <v>1729.4886868277338</v>
+        <v>1126.9302797486391</v>
       </c>
       <c r="H148" t="s">
         <v>8</v>
@@ -6465,7 +6462,7 @@
         <v>80</v>
       </c>
       <c r="K148">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L148" t="s">
         <v>13</v>
@@ -6479,22 +6476,22 @@
         <v>0.10277777777777779</v>
       </c>
       <c r="B149">
-        <v>1730.0465680248683</v>
+        <v>1128.3074670550432</v>
       </c>
       <c r="C149">
-        <v>1730.0478676438663</v>
+        <v>1129.0328340548022</v>
       </c>
       <c r="D149">
-        <v>1730.7559461872218</v>
+        <v>1128.2996843832086</v>
       </c>
       <c r="E149">
-        <v>1730.185803216277</v>
+        <v>1128.9197905970188</v>
       </c>
       <c r="F149">
-        <v>1756.2283372592615</v>
+        <v>1129.0361797398675</v>
       </c>
       <c r="G149">
-        <v>1730.0970670051458</v>
+        <v>1128.559887767555</v>
       </c>
       <c r="H149" t="s">
         <v>8</v>
@@ -6506,7 +6503,7 @@
         <v>80</v>
       </c>
       <c r="K149">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L149" t="s">
         <v>13</v>
@@ -6520,22 +6517,22 @@
         <v>0.10347222222222223</v>
       </c>
       <c r="B150">
-        <v>1730.4501788138734</v>
+        <v>1129.434161112164</v>
       </c>
       <c r="C150">
-        <v>1730.4510274019335</v>
+        <v>1130.1583958551503</v>
       </c>
       <c r="D150">
-        <v>1731.1586554686526</v>
+        <v>1129.4241147746168</v>
       </c>
       <c r="E150">
-        <v>1730.5880624335202</v>
+        <v>1130.043090985652</v>
       </c>
       <c r="F150">
-        <v>1756.6301361931339</v>
+        <v>1130.1583511610336</v>
       </c>
       <c r="G150">
-        <v>1730.4984277327253</v>
+        <v>1129.6809312385906</v>
       </c>
       <c r="H150" t="s">
         <v>8</v>
@@ -6547,7 +6544,7 @@
         <v>80</v>
       </c>
       <c r="K150">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L150" t="s">
         <v>13</v>
@@ -6561,22 +6558,22 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="B151">
-        <v>1730.7164491031076</v>
+        <v>1130.2092391230026</v>
       </c>
       <c r="C151">
-        <v>1730.7170001368827</v>
+        <v>1130.9326949614081</v>
       </c>
       <c r="D151">
-        <v>1731.4243310150025</v>
+        <v>1130.1976355595348</v>
       </c>
       <c r="E151">
-        <v>1730.8534410633692</v>
+        <v>1130.8158344165636</v>
       </c>
       <c r="F151">
-        <v>1756.895211164684</v>
+        <v>1130.9303179501474</v>
       </c>
       <c r="G151">
-        <v>1730.7632136106643</v>
+        <v>1130.4521220857537</v>
       </c>
       <c r="H151" t="s">
         <v>8</v>
@@ -6588,7 +6585,7 @@
         <v>80</v>
       </c>
       <c r="K151">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L151" t="s">
         <v>13</v>
@@ -6602,22 +6599,22 @@
         <v>0.10486111111111111</v>
       </c>
       <c r="B152">
-        <v>1730.8921130609701</v>
+        <v>1130.7424326158891</v>
       </c>
       <c r="C152">
-        <v>1730.8924677920993</v>
+        <v>1131.4653526284301</v>
       </c>
       <c r="D152">
-        <v>1731.5996026088219</v>
+        <v>1130.7297578019154</v>
       </c>
       <c r="E152">
-        <v>1731.0285167753</v>
+        <v>1131.347421899753</v>
       </c>
       <c r="F152">
-        <v>1757.0700865470253</v>
+        <v>1131.4613711640909</v>
       </c>
       <c r="G152">
-        <v>1730.9378982720368</v>
+        <v>1130.9826415118912</v>
       </c>
       <c r="H152" t="s">
         <v>8</v>
@@ -6629,7 +6626,7 @@
         <v>80</v>
       </c>
       <c r="K152">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L152" t="s">
         <v>13</v>
@@ -6643,22 +6640,22 @@
         <v>0.10555555555555556</v>
       </c>
       <c r="B153">
-        <v>1377.0806077710245</v>
+        <v>1131.1092283418936</v>
       </c>
       <c r="C153">
-        <v>1376.2920208206299</v>
+        <v>1131.8317797478419</v>
       </c>
       <c r="D153">
-        <v>1376.2110473579887</v>
+        <v>1131.0958165907455</v>
       </c>
       <c r="E153">
-        <v>1374.8528184767449</v>
+        <v>1131.7131128157789</v>
       </c>
       <c r="F153">
-        <v>1373.4729135877392</v>
+        <v>1131.8266945443565</v>
       </c>
       <c r="G153">
-        <v>1373.1903249096367</v>
+        <v>1131.3475976875907</v>
       </c>
       <c r="H153" t="s">
         <v>8</v>
@@ -6670,7 +6667,7 @@
         <v>80</v>
       </c>
       <c r="K153">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L153" t="s">
         <v>13</v>
@@ -6684,22 +6681,22 @@
         <v>0.10625</v>
       </c>
       <c r="B154">
-        <v>1136.9161188156547</v>
+        <v>1131.3615553234761</v>
       </c>
       <c r="C154">
-        <v>1136.3957340811705</v>
+        <v>1132.0838531567069</v>
       </c>
       <c r="D154">
-        <v>1136.5826335372997</v>
+        <v>1131.347636616767</v>
       </c>
       <c r="E154">
-        <v>1135.492033156369</v>
+        <v>1131.9646797738728</v>
       </c>
       <c r="F154">
-        <v>1134.3794589540448</v>
+        <v>1132.0780086663833</v>
       </c>
       <c r="G154">
-        <v>1134.3638560644054</v>
+        <v>1131.5986592013846</v>
       </c>
       <c r="H154" t="s">
         <v>8</v>
@@ -6711,7 +6708,7 @@
         <v>80</v>
       </c>
       <c r="K154">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L154" t="s">
         <v>13</v>
@@ -6725,22 +6722,22 @@
         <v>0.10694444444444444</v>
       </c>
       <c r="B155">
-        <v>978.43776923040309</v>
+        <v>1131.5351366962159</v>
       </c>
       <c r="C155">
-        <v>978.09438608778726</v>
+        <v>1132.2572600911042</v>
       </c>
       <c r="D155">
-        <v>978.45806973164031</v>
+        <v>1131.5208692434414</v>
       </c>
       <c r="E155">
-        <v>977.54409185887175</v>
+        <v>1132.1377383094609</v>
       </c>
       <c r="F155">
-        <v>976.60794343648297</v>
+        <v>1132.250893270387</v>
       </c>
       <c r="G155">
-        <v>976.76853868764726</v>
+        <v>1131.7713700305374</v>
       </c>
       <c r="H155" t="s">
         <v>8</v>
@@ -6752,7 +6749,7 @@
         <v>80</v>
       </c>
       <c r="K155">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L155" t="s">
         <v>13</v>
@@ -6766,22 +6763,22 @@
         <v>0.1076388888888889</v>
       </c>
       <c r="B156">
-        <v>873.86382257545608</v>
+        <v>1131.6545472038597</v>
       </c>
       <c r="C156">
-        <v>873.63723708857822</v>
+        <v>1132.3765505987121</v>
       </c>
       <c r="D156">
-        <v>874.11757492806021</v>
+        <v>1131.6400398408684</v>
       </c>
       <c r="E156">
-        <v>873.32014454600119</v>
+        <v>1132.2567891457375</v>
       </c>
       <c r="F156">
-        <v>872.50041379207744</v>
+        <v>1132.3698244552372</v>
       </c>
       <c r="G156">
-        <v>872.77727650106306</v>
+        <v>1131.8901816717819</v>
       </c>
       <c r="H156" t="s">
         <v>8</v>
@@ -6793,7 +6790,7 @@
         <v>80</v>
       </c>
       <c r="K156">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L156" t="s">
         <v>13</v>
@@ -6807,22 +6804,22 @@
         <v>0.10833333333333334</v>
       </c>
       <c r="B157">
-        <v>804.85945629911373</v>
+        <v>1131.7366923621219</v>
       </c>
       <c r="C157">
-        <v>804.7099411785357</v>
+        <v>1132.4586132062661</v>
       </c>
       <c r="D157">
-        <v>805.26725472037424</v>
+        <v>1131.7220199595279</v>
       </c>
       <c r="E157">
-        <v>804.54672962924838</v>
+        <v>1132.3386868780233</v>
       </c>
       <c r="F157">
-        <v>803.80381850112826</v>
+        <v>1132.4516398766316</v>
       </c>
       <c r="G157">
-        <v>804.15740171772131</v>
+        <v>1131.971914856457</v>
       </c>
       <c r="H157" t="s">
         <v>8</v>
@@ -6834,7 +6831,7 @@
         <v>80</v>
       </c>
       <c r="K157">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L157" t="s">
         <v>13</v>
@@ -6848,22 +6845,22 @@
         <v>0.10902777777777778</v>
       </c>
       <c r="B158">
-        <v>759.32610538919653</v>
+        <v>1131.7932018532824</v>
       </c>
       <c r="C158">
-        <v>759.22744606728099</v>
+        <v>1132.5150659089491</v>
       </c>
       <c r="D158">
-        <v>759.83555294265307</v>
+        <v>1131.7784159162557</v>
       </c>
       <c r="E158">
-        <v>759.1657747232</v>
+        <v>1132.395026159322</v>
       </c>
       <c r="F158">
-        <v>758.47355393958367</v>
+        <v>1132.507922534428</v>
       </c>
       <c r="G158">
-        <v>758.87776209636809</v>
+        <v>1132.0281409417748</v>
       </c>
       <c r="H158" t="s">
         <v>8</v>
@@ -6875,7 +6872,7 @@
         <v>80</v>
       </c>
       <c r="K158">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L158" t="s">
         <v>13</v>
@@ -6889,22 +6886,22 @@
         <v>0.10972222222222222</v>
       </c>
       <c r="B159">
-        <v>729.28038297834621</v>
+        <v>1131.8320759958226</v>
       </c>
       <c r="C159">
-        <v>729.21528145929244</v>
+        <v>1132.5539009854258</v>
       </c>
       <c r="D159">
-        <v>729.85690491916898</v>
+        <v>1131.8172119559213</v>
       </c>
       <c r="E159">
-        <v>729.22061262580826</v>
+        <v>1132.4337832106935</v>
       </c>
       <c r="F159">
-        <v>728.56184046815906</v>
+        <v>1132.5466406332255</v>
       </c>
       <c r="G159">
-        <v>728.99945409309919</v>
+        <v>1132.0668201230999</v>
       </c>
       <c r="H159" t="s">
         <v>8</v>
@@ -6916,7 +6913,7 @@
         <v>80</v>
       </c>
       <c r="K159">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L159" t="s">
         <v>13</v>
@@ -6930,22 +6927,22 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="B160">
-        <v>709.45435619119098</v>
+        <v>1131.8588183877155</v>
       </c>
       <c r="C160">
-        <v>709.4113981869275</v>
+        <v>1132.5806165028998</v>
       </c>
       <c r="D160">
-        <v>710.07513796317187</v>
+        <v>1131.8439006190995</v>
       </c>
       <c r="E160">
-        <v>709.46094175586097</v>
+        <v>1132.4604450529521</v>
       </c>
       <c r="F160">
-        <v>708.82424107133045</v>
+        <v>1132.5732756791379</v>
       </c>
       <c r="G160">
-        <v>709.28389769119553</v>
+        <v>1132.0934283968127</v>
       </c>
       <c r="H160" t="s">
         <v>8</v>
@@ -6957,7 +6954,7 @@
         <v>80</v>
       </c>
       <c r="K160">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L160" t="s">
         <v>13</v>
@@ -6971,22 +6968,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="B161">
-        <v>696.37191694147009</v>
+        <v>1131.8772150770669</v>
       </c>
       <c r="C161">
-        <v>696.34357059844001</v>
+        <v>1132.5989947047374</v>
       </c>
       <c r="D161">
-        <v>697.0219040887157</v>
+        <v>1131.862260347267</v>
       </c>
       <c r="E161">
-        <v>696.42228824622089</v>
+        <v>1132.4787863304093</v>
       </c>
       <c r="F161">
-        <v>695.80015168537159</v>
+        <v>1132.5915985227894</v>
       </c>
       <c r="G161">
-        <v>696.27435363724328</v>
+        <v>1132.111732823269</v>
       </c>
       <c r="H161" t="s">
         <v>8</v>
@@ -6998,7 +6995,7 @@
         <v>80</v>
       </c>
       <c r="K161">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L161" t="s">
         <v>13</v>
@@ -7012,22 +7009,22 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="B162">
-        <v>687.73931402210451</v>
+        <v>1131.8898705710276</v>
       </c>
       <c r="C162">
-        <v>687.72060935728223</v>
+        <v>1132.6116374807239</v>
       </c>
       <c r="D162">
-        <v>688.40857268309162</v>
+        <v>1131.8748904148028</v>
       </c>
       <c r="E162">
-        <v>687.81857786749174</v>
+        <v>1132.4914037052888</v>
       </c>
       <c r="F162">
-        <v>687.20605161663218</v>
+        <v>1132.6042032166413</v>
       </c>
       <c r="G162">
-        <v>687.68985147858371</v>
+        <v>1132.1243248475209</v>
       </c>
       <c r="H162" t="s">
         <v>8</v>
@@ -7039,7 +7036,7 @@
         <v>80</v>
       </c>
       <c r="K162">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L162" t="s">
         <v>13</v>
@@ -7053,22 +7050,22 @@
         <v>0.1125</v>
       </c>
       <c r="B163">
-        <v>683.26885877386599</v>
+        <v>1135.1945189020346</v>
       </c>
       <c r="C163">
-        <v>683.25917985331466</v>
+        <v>1135.9236856442267</v>
       </c>
       <c r="D163">
-        <v>683.93360573642394</v>
+        <v>1135.2093663511421</v>
       </c>
       <c r="E163">
-        <v>683.38268704036818</v>
+        <v>1135.8332645424359</v>
       </c>
       <c r="F163">
-        <v>682.75660424326179</v>
+        <v>1135.9459231183271</v>
       </c>
       <c r="G163">
-        <v>683.24813628140942</v>
+        <v>1135.4796792649936</v>
       </c>
       <c r="H163" t="s">
         <v>8</v>
@@ -7080,7 +7077,7 @@
         <v>80</v>
       </c>
       <c r="K163">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L163" t="s">
         <v>13</v>
@@ -7094,22 +7091,22 @@
         <v>0.11319444444444444</v>
       </c>
       <c r="B164">
-        <v>680.321232780282</v>
+        <v>1137.5007664802442</v>
       </c>
       <c r="C164">
-        <v>680.31484602901958</v>
+        <v>1138.2276155366922</v>
       </c>
       <c r="D164">
-        <v>680.9925600493807</v>
+        <v>1137.5109803005198</v>
       </c>
       <c r="E164">
-        <v>680.44492645571449</v>
+        <v>1138.1325654206817</v>
       </c>
       <c r="F164">
-        <v>679.82212512911747</v>
+        <v>1138.242913042242</v>
       </c>
       <c r="G164">
-        <v>680.31693439260187</v>
+        <v>1137.7743603232636</v>
       </c>
       <c r="H164" t="s">
         <v>8</v>
@@ -7121,7 +7118,7 @@
         <v>80</v>
       </c>
       <c r="K164">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L164" t="s">
         <v>13</v>
@@ -7135,22 +7132,22 @@
         <v>0.11388888888888889</v>
       </c>
       <c r="B165">
-        <v>678.37620585423088</v>
+        <v>1139.0872807854987</v>
       </c>
       <c r="C165">
-        <v>678.37199148536877</v>
+        <v>1139.812535492609</v>
       </c>
       <c r="D165">
-        <v>679.05187522755887</v>
+        <v>1139.0943071052168</v>
       </c>
       <c r="E165">
-        <v>678.50640935298952</v>
+        <v>1139.7143010499594</v>
       </c>
       <c r="F165">
-        <v>677.88577334890567</v>
+        <v>1139.8230589518778</v>
       </c>
       <c r="G165">
-        <v>678.38274513372789</v>
+        <v>1139.3529179496813</v>
       </c>
       <c r="H165" t="s">
         <v>8</v>
@@ -7162,7 +7159,7 @@
         <v>80</v>
       </c>
       <c r="K165">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L165" t="s">
         <v>13</v>
@@ -7176,22 +7173,22 @@
         <v>0.11458333333333333</v>
       </c>
       <c r="B166">
-        <v>677.0927565343311</v>
+        <v>1140.1786794365798</v>
       </c>
       <c r="C166">
-        <v>677.08997563825721</v>
+        <v>1140.9028373575752</v>
       </c>
       <c r="D166">
-        <v>677.77129109762677</v>
+        <v>1140.18351300823</v>
       </c>
       <c r="E166">
-        <v>677.22725561870186</v>
+        <v>1140.8024123502271</v>
       </c>
       <c r="F166">
-        <v>676.60804842884545</v>
+        <v>1140.9100766508318</v>
       </c>
       <c r="G166">
-        <v>677.10644717950959</v>
+        <v>1140.4388430354368</v>
       </c>
       <c r="H166" t="s">
         <v>8</v>
@@ -7203,7 +7200,7 @@
         <v>80</v>
       </c>
       <c r="K166">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L166" t="s">
         <v>13</v>
@@ -7217,22 +7214,22 @@
         <v>0.11527777777777777</v>
       </c>
       <c r="B167">
-        <v>676.24585714519628</v>
+        <v>1140.9294772096482</v>
       </c>
       <c r="C167">
-        <v>676.24402214330451</v>
+        <v>1141.6528806268884</v>
       </c>
       <c r="D167">
-        <v>676.92628233839685</v>
+        <v>1140.9328023407443</v>
       </c>
       <c r="E167">
-        <v>676.38319072316392</v>
+        <v>1141.5509486809724</v>
       </c>
       <c r="F167">
-        <v>675.76492635348234</v>
+        <v>1141.6578606687126</v>
       </c>
       <c r="G167">
-        <v>676.26426670464173</v>
+        <v>1141.1858754201992</v>
       </c>
       <c r="H167" t="s">
         <v>8</v>
@@ -7244,7 +7241,7 @@
         <v>80</v>
       </c>
       <c r="K167">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L167" t="s">
         <v>13</v>
@@ -7258,22 +7255,22 @@
         <v>0.11597222222222221</v>
       </c>
       <c r="B168">
-        <v>675.68702045196767</v>
+        <v>1141.4459679667211</v>
       </c>
       <c r="C168">
-        <v>675.68580960966824</v>
+        <v>1142.168852343789</v>
       </c>
       <c r="D168">
-        <v>676.36869319992923</v>
+        <v>1141.4482554074934</v>
       </c>
       <c r="E168">
-        <v>675.82622440444561</v>
+        <v>1142.0658837407975</v>
       </c>
       <c r="F168">
-        <v>675.20858216593592</v>
+        <v>1142.1722781955286</v>
       </c>
       <c r="G168">
-        <v>675.70854384344693</v>
+        <v>1141.6997758816176</v>
       </c>
       <c r="H168" t="s">
         <v>8</v>
@@ -7285,7 +7282,7 @@
         <v>80</v>
       </c>
       <c r="K168">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L168" t="s">
         <v>13</v>
@@ -7299,22 +7296,22 @@
         <v>0.11666666666666665</v>
       </c>
       <c r="B169">
-        <v>675.31826537473614</v>
+        <v>1141.8012736331502</v>
       </c>
       <c r="C169">
-        <v>675.31746639161054</v>
+        <v>1142.5238009507511</v>
       </c>
       <c r="D169">
-        <v>676.0007613366314</v>
+        <v>1141.8028472232941</v>
       </c>
       <c r="E169">
-        <v>675.45870351620965</v>
+        <v>1142.4201192079274</v>
       </c>
       <c r="F169">
-        <v>674.84147179839613</v>
+        <v>1142.5261576400039</v>
       </c>
       <c r="G169">
-        <v>675.34184346553332</v>
+        <v>1142.0532996251186</v>
       </c>
       <c r="H169" t="s">
         <v>8</v>
@@ -7326,7 +7323,7 @@
         <v>80</v>
       </c>
       <c r="K169">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L169" t="s">
         <v>13</v>
@@ -7340,22 +7337,22 @@
         <v>0.1173611111111111</v>
       </c>
       <c r="B170">
-        <v>675.07493792571768</v>
+        <v>1142.0456964324287</v>
       </c>
       <c r="C170">
-        <v>675.07441071279459</v>
+        <v>1142.7679781207521</v>
       </c>
       <c r="D170">
-        <v>675.75797709517474</v>
+        <v>1142.0467789485899</v>
       </c>
       <c r="E170">
-        <v>675.21619046156422</v>
+        <v>1142.6638057929185</v>
       </c>
       <c r="F170">
-        <v>674.59922963074291</v>
+        <v>1142.7695993089631</v>
       </c>
       <c r="G170">
-        <v>675.09987183443934</v>
+        <v>1142.2964965993374</v>
       </c>
       <c r="H170" t="s">
         <v>8</v>
@@ -7367,7 +7364,7 @@
         <v>80</v>
       </c>
       <c r="K170">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L170" t="s">
         <v>13</v>
@@ -7381,22 +7378,22 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="B171">
-        <v>674.91437539762853</v>
+        <v>1142.2138404010004</v>
       </c>
       <c r="C171">
-        <v>674.91402751552482</v>
+        <v>1142.9359531153914</v>
       </c>
       <c r="D171">
-        <v>675.59777300909332</v>
+        <v>1142.2145850962684</v>
       </c>
       <c r="E171">
-        <v>675.05616532134434</v>
+        <v>1142.8314433030398</v>
       </c>
       <c r="F171">
-        <v>674.43938323854536</v>
+        <v>1142.93706833581</v>
       </c>
       <c r="G171">
-        <v>674.94020395902669</v>
+        <v>1142.4637972951418</v>
       </c>
       <c r="H171" t="s">
         <v>8</v>
@@ -7408,7 +7405,7 @@
         <v>80</v>
       </c>
       <c r="K171">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L171" t="s">
         <v>13</v>
@@ -7422,22 +7419,22 @@
         <v>0.11875000000000001</v>
       </c>
       <c r="B172">
-        <v>674.80842629270842</v>
+        <v>1142.3295104377187</v>
       </c>
       <c r="C172">
-        <v>674.80819674419126</v>
+        <v>1143.051506911122</v>
       </c>
       <c r="D172">
-        <v>675.49206042642027</v>
+        <v>1142.3300227383581</v>
       </c>
       <c r="E172">
-        <v>674.95057081823859</v>
+        <v>1142.946764935542</v>
       </c>
       <c r="F172">
-        <v>674.33390668446054</v>
+        <v>1143.0522740648594</v>
       </c>
       <c r="G172">
-        <v>726.93291499569966</v>
+        <v>1142.578887225462</v>
       </c>
       <c r="H172" t="s">
         <v>8</v>
@@ -7449,7 +7446,7 @@
         <v>80</v>
       </c>
       <c r="K172">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L172" t="s">
         <v>13</v>
@@ -7463,22 +7460,22 @@
         <v>0.11944444444444445</v>
       </c>
       <c r="B173">
-        <v>1514.0972458195954</v>
+        <v>1142.4090824705911</v>
       </c>
       <c r="C173">
-        <v>1515.9360837495626</v>
+        <v>1143.1309989791914</v>
       </c>
       <c r="D173">
-        <v>1518.4570659388378</v>
+        <v>1142.409434901713</v>
       </c>
       <c r="E173">
-        <v>1519.7504482427826</v>
+        <v>1143.0260972932795</v>
       </c>
       <c r="F173">
-        <v>1520.9665922712591</v>
+        <v>1143.1315266899915</v>
       </c>
       <c r="G173">
-        <v>1575.3527214752839</v>
+        <v>1142.6580601900309</v>
       </c>
       <c r="H173" t="s">
         <v>8</v>
@@ -7490,7 +7487,7 @@
         <v>80</v>
       </c>
       <c r="K173">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L173" t="s">
         <v>13</v>
@@ -7504,22 +7501,22 @@
         <v>0.12013888888888889</v>
       </c>
       <c r="B174">
-        <v>2073.9667095537002</v>
+        <v>1142.4638218706548</v>
       </c>
       <c r="C174">
-        <v>2075.1793915651974</v>
+        <v>1143.1856833696595</v>
       </c>
       <c r="D174">
-        <v>2077.0749856639382</v>
+        <v>1142.4640643239215</v>
       </c>
       <c r="E174">
-        <v>2077.7435574945575</v>
+        <v>1143.0806718153997</v>
       </c>
       <c r="F174">
-        <v>2078.3355825539602</v>
+        <v>1143.1860463622504</v>
       </c>
       <c r="G174">
-        <v>2132.0693987234768</v>
+        <v>1142.712525061987</v>
       </c>
       <c r="H174" t="s">
         <v>8</v>
@@ -7531,7 +7528,7 @@
         <v>80</v>
       </c>
       <c r="K174">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L174" t="s">
         <v>13</v>
@@ -7545,22 +7542,22 @@
         <v>0.12083333333333333</v>
       </c>
       <c r="B175">
-        <v>2443.1922827957683</v>
+        <v>1142.5014783412921</v>
       </c>
       <c r="C175">
-        <v>2443.9919814905493</v>
+        <v>1143.2233019979524</v>
       </c>
       <c r="D175">
-        <v>2445.4750987703014</v>
+        <v>1142.5016451383058</v>
       </c>
       <c r="E175">
-        <v>2445.7315753542657</v>
+        <v>1143.1182148627727</v>
       </c>
       <c r="F175">
-        <v>2445.9119615281156</v>
+        <v>1143.2235516771639</v>
       </c>
       <c r="G175">
-        <v>2499.2155315436257</v>
+        <v>1142.749992678534</v>
       </c>
       <c r="H175" t="s">
         <v>8</v>
@@ -7572,7 +7569,7 @@
         <v>80</v>
       </c>
       <c r="K175">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L175" t="s">
         <v>13</v>
@@ -7586,22 +7583,22 @@
         <v>0.12152777777777778</v>
       </c>
       <c r="B176">
-        <v>2686.6865053361421</v>
+        <v>1142.5273830786318</v>
       </c>
       <c r="C176">
-        <v>2687.2138492784056</v>
+        <v>1143.2491807026888</v>
       </c>
       <c r="D176">
-        <v>2688.4249458457061</v>
+        <v>1142.5274978300001</v>
       </c>
       <c r="E176">
-        <v>2688.4096534001915</v>
+        <v>1143.1440415736852</v>
       </c>
       <c r="F176">
-        <v>2688.3185715313743</v>
+        <v>1143.2493524310653</v>
       </c>
       <c r="G176">
-        <v>2741.338401787481</v>
+        <v>1142.7757674988768</v>
       </c>
       <c r="H176" t="s">
         <v>8</v>
@@ -7613,7 +7610,7 @@
         <v>80</v>
       </c>
       <c r="K176">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L176" t="s">
         <v>13</v>
@@ -7627,22 +7624,22 @@
         <v>0.12222222222222223</v>
       </c>
       <c r="B177">
-        <v>2847.2639823092832</v>
+        <v>1142.5452035330011</v>
       </c>
       <c r="C177">
-        <v>2847.6117158497359</v>
+        <v>1143.2669832486411</v>
       </c>
       <c r="D177">
-        <v>2848.6434223065185</v>
+        <v>1142.5452824809922</v>
       </c>
       <c r="E177">
-        <v>2848.4489057311366</v>
+        <v>1143.1618083519113</v>
       </c>
       <c r="F177">
-        <v>2848.1787982266351</v>
+        <v>1143.2671013528757</v>
       </c>
       <c r="G177">
-        <v>2901.0115099617487</v>
+        <v>1142.7934985804063</v>
       </c>
       <c r="H177" t="s">
         <v>8</v>
@@ -7654,7 +7651,7 @@
         <v>80</v>
       </c>
       <c r="K177">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L177" t="s">
         <v>13</v>
@@ -7668,22 +7665,22 @@
         <v>0.12291666666666667</v>
       </c>
       <c r="B178">
-        <v>2953.160214879741</v>
+        <v>1142.5574626263756</v>
       </c>
       <c r="C178">
-        <v>2953.3895005065478</v>
+        <v>1143.279230022411</v>
       </c>
       <c r="D178">
-        <v>2954.3029043255597</v>
+        <v>1142.5575169444151</v>
       </c>
       <c r="E178">
-        <v>2953.9901945720476</v>
+        <v>1143.1740305202538</v>
       </c>
       <c r="F178">
-        <v>2953.6020247907477</v>
+        <v>1143.2793112373868</v>
       </c>
       <c r="G178">
-        <v>3006.3113372216189</v>
+        <v>1142.8056961921848</v>
       </c>
       <c r="H178" t="s">
         <v>8</v>
@@ -7695,7 +7692,7 @@
         <v>80</v>
       </c>
       <c r="K178">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L178" t="s">
         <v>13</v>
@@ -7709,22 +7706,22 @@
         <v>0.12361111111111112</v>
       </c>
       <c r="B179">
-        <v>3022.9957364981537</v>
+        <v>1142.565895933815</v>
       </c>
       <c r="C179">
-        <v>3023.1469091296362</v>
+        <v>1143.2876548549159</v>
       </c>
       <c r="D179">
-        <v>3023.9822957585898</v>
+        <v>1142.5659333083538</v>
       </c>
       <c r="E179">
-        <v>3023.5916410005184</v>
+        <v>1143.1824384261292</v>
       </c>
       <c r="F179">
-        <v>3023.1256125403324</v>
+        <v>1143.2877106929366</v>
       </c>
       <c r="G179">
-        <v>3075.7535466760078</v>
+        <v>1142.8140872050444</v>
       </c>
       <c r="H179" t="s">
         <v>8</v>
@@ -7736,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="K179">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L179" t="s">
         <v>13</v>
@@ -7750,22 +7747,22 @@
         <v>0.12430555555555556</v>
       </c>
       <c r="B180">
-        <v>3069.0502556577126</v>
+        <v>1142.5716973966287</v>
       </c>
       <c r="C180">
-        <v>3069.1499150140062</v>
+        <v>1143.2934504876305</v>
       </c>
       <c r="D180">
-        <v>3069.9338515485929</v>
+        <v>1142.5717231153499</v>
       </c>
       <c r="E180">
-        <v>3069.4917943004166</v>
+        <v>1143.1882224146325</v>
       </c>
       <c r="F180">
-        <v>3068.9744202794263</v>
+        <v>1143.2934888682701</v>
       </c>
       <c r="G180">
-        <v>3121.5486877685003</v>
+        <v>1142.8198595724605</v>
       </c>
       <c r="H180" t="s">
         <v>8</v>
@@ -7777,7 +7774,7 @@
         <v>80</v>
       </c>
       <c r="K180">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L180" t="s">
         <v>13</v>
@@ -7791,22 +7788,22 @@
         <v>0.125</v>
       </c>
       <c r="B181">
-        <v>3099.4218872510919</v>
+        <v>1142.5756883540337</v>
       </c>
       <c r="C181">
-        <v>3099.4875750830965</v>
+        <v>1143.2974374343787</v>
       </c>
       <c r="D181">
-        <v>3100.2375817593288</v>
+        <v>1142.5757060544552</v>
       </c>
       <c r="E181">
-        <v>3099.7616260464392</v>
+        <v>1143.1922013510646</v>
       </c>
       <c r="F181">
-        <v>3099.210391103974</v>
+        <v>1143.2974638056915</v>
       </c>
       <c r="G181">
-        <v>3151.7492669822086</v>
+        <v>1142.8238305144839</v>
       </c>
       <c r="H181" t="s">
         <v>8</v>
@@ -7818,7 +7815,7 @@
         <v>80</v>
       </c>
       <c r="K181">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L181" t="s">
         <v>13</v>
@@ -7832,22 +7829,22 @@
         <v>0.12569444444444444</v>
       </c>
       <c r="B182">
-        <v>3119.451105283687</v>
+        <v>1144.6212478907196</v>
       </c>
       <c r="C182">
-        <v>3119.4943898719007</v>
+        <v>1145.6720813394527</v>
       </c>
       <c r="D182">
-        <v>3120.2220207818295</v>
+        <v>1145.3324477467052</v>
       </c>
       <c r="E182">
-        <v>3119.7237100058405</v>
+        <v>1146.3925961780183</v>
       </c>
       <c r="F182">
-        <v>3119.1501447589617</v>
+        <v>1147.0129823161394</v>
       </c>
       <c r="G182">
-        <v>3171.6656808871439</v>
+        <v>1147.1374564070859</v>
       </c>
       <c r="H182" t="s">
         <v>8</v>
@@ -7859,7 +7856,7 @@
         <v>80</v>
       </c>
       <c r="K182">
-        <v>7.7504000000000003E-2</v>
+        <v>8.5176000000000002E-2</v>
       </c>
       <c r="L182" t="s">
         <v>13</v>
@@ -7873,34 +7870,34 @@
         <v>0.12638888888888888</v>
       </c>
       <c r="B183">
-        <v>3132.65979885563</v>
+        <v>1341.4549631819625</v>
       </c>
       <c r="C183">
-        <v>3132.6883091485229</v>
+        <v>1342.6747110847512</v>
       </c>
       <c r="D183">
-        <v>3133.4011838837432</v>
+        <v>1342.450761081272</v>
       </c>
       <c r="E183">
-        <v>3132.888130586216</v>
+        <v>1343.5649181556387</v>
       </c>
       <c r="F183">
-        <v>3132.2998391454394</v>
+        <v>1344.1676579186194</v>
       </c>
       <c r="G183">
-        <v>3184.7999833793415</v>
+        <v>1344.1913147648477</v>
       </c>
       <c r="H183" t="s">
         <v>8</v>
       </c>
       <c r="I183">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J183">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K183">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L183" t="s">
         <v>13</v>
@@ -7914,34 +7911,34 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="B184">
-        <v>3141.3705525951691</v>
+        <v>1515.6597094106835</v>
       </c>
       <c r="C184">
-        <v>3141.3893196649715</v>
+        <v>1516.8211484016199</v>
       </c>
       <c r="D184">
-        <v>3142.092463127125</v>
+        <v>1516.5388647743293</v>
       </c>
       <c r="E184">
-        <v>3141.5696875603999</v>
+        <v>1517.5947487880399</v>
       </c>
       <c r="F184">
-        <v>3140.971684618039</v>
+        <v>1518.1392193354479</v>
       </c>
       <c r="G184">
-        <v>3193.4616783400879</v>
+        <v>1518.1046087739624</v>
       </c>
       <c r="H184" t="s">
         <v>8</v>
       </c>
       <c r="I184">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J184">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K184">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L184" t="s">
         <v>13</v>
@@ -7955,34 +7952,34 @@
         <v>0.1277777777777778</v>
       </c>
       <c r="B185">
-        <v>3147.115044304187</v>
+        <v>1669.4598441995001</v>
       </c>
       <c r="C185">
-        <v>3147.1273859984208</v>
+        <v>1670.5698082467509</v>
       </c>
       <c r="D185">
-        <v>3147.8241119657018</v>
+        <v>1670.2360277914754</v>
       </c>
       <c r="E185">
-        <v>3147.2949248419013</v>
+        <v>1671.2404684931275</v>
       </c>
       <c r="F185">
-        <v>3146.6905174433909</v>
+        <v>1671.7334990943846</v>
       </c>
       <c r="G185">
-        <v>3199.1738171946399</v>
+        <v>1671.6474501515254</v>
       </c>
       <c r="H185" t="s">
         <v>8</v>
       </c>
       <c r="I185">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J185">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K185">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L185" t="s">
         <v>13</v>
@@ -7996,34 +7993,34 @@
         <v>0.12847222222222224</v>
       </c>
       <c r="B186">
-        <v>3150.9033714664083</v>
+        <v>1805.2464570981469</v>
       </c>
       <c r="C186">
-        <v>3150.9114758101464</v>
+        <v>1806.3109773561521</v>
       </c>
       <c r="D186">
-        <v>3151.6039696240232</v>
+        <v>1805.9317337611062</v>
       </c>
       <c r="E186">
-        <v>3151.0705542626238</v>
+        <v>1806.8907585889365</v>
       </c>
       <c r="F186">
-        <v>3150.4619233093754</v>
+        <v>1807.3383762745686</v>
       </c>
       <c r="G186">
-        <v>3202.9408085792934</v>
+        <v>1807.2069157830545</v>
       </c>
       <c r="H186" t="s">
         <v>8</v>
       </c>
       <c r="I186">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J186">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K186">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L186" t="s">
         <v>13</v>
@@ -8037,34 +8034,34 @@
         <v>0.12916666666666668</v>
       </c>
       <c r="B187">
-        <v>3153.4016643380796</v>
+        <v>1925.1299091185235</v>
       </c>
       <c r="C187">
-        <v>3153.406974270963</v>
+        <v>1926.1543090303212</v>
       </c>
       <c r="D187">
-        <v>3154.0966771013195</v>
+        <v>1925.7349279920436</v>
       </c>
       <c r="E187">
-        <v>3153.5604733387618</v>
+        <v>1926.6538571138221</v>
       </c>
       <c r="F187">
-        <v>3152.9490570725638</v>
+        <v>1927.0613816989719</v>
       </c>
       <c r="G187">
-        <v>3205.4250311189335</v>
+        <v>1926.8898293072425</v>
       </c>
       <c r="H187" t="s">
         <v>8</v>
       </c>
       <c r="I187">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J187">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K187">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L187" t="s">
         <v>13</v>
@@ -8078,34 +8075,34 @@
         <v>0.12986111111111112</v>
       </c>
       <c r="B188">
-        <v>3155.0492166759332</v>
+        <v>2030.9730339886471</v>
       </c>
       <c r="C188">
-        <v>3155.0526837751809</v>
+        <v>2031.962012842451</v>
       </c>
       <c r="D188">
-        <v>3155.7405460321306</v>
+        <v>2031.5071956459562</v>
       </c>
       <c r="E188">
-        <v>3155.2025033991567</v>
+        <v>2032.3907254612925</v>
       </c>
       <c r="F188">
-        <v>3154.589250299131</v>
+        <v>2032.7628530376401</v>
       </c>
       <c r="G188">
-        <v>3207.0633044772521</v>
+        <v>2032.5559046938477</v>
       </c>
       <c r="H188" t="s">
         <v>8</v>
       </c>
       <c r="I188">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J188">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K188">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L188" t="s">
         <v>13</v>
@@ -8119,34 +8116,34 @@
         <v>0.13055555555555556</v>
       </c>
       <c r="B189">
-        <v>3156.1357300854488</v>
+        <v>2124.4203146829709</v>
       </c>
       <c r="C189">
-        <v>3156.1379818888845</v>
+        <v>2125.378021072519</v>
       </c>
       <c r="D189">
-        <v>3156.8246303405767</v>
+        <v>2124.8919180776197</v>
       </c>
       <c r="E189">
-        <v>3156.2853750254221</v>
+        <v>2125.744194631478</v>
       </c>
       <c r="F189">
-        <v>3155.6709105862842</v>
+        <v>2126.0850709736696</v>
       </c>
       <c r="G189">
-        <v>3208.1436986664789</v>
+        <v>2125.8468723273954</v>
       </c>
       <c r="H189" t="s">
         <v>8</v>
       </c>
       <c r="I189">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J189">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K189">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L189" t="s">
         <v>13</v>
@@ -8160,34 +8157,34 @@
         <v>0.13125000000000001</v>
       </c>
       <c r="B190">
-        <v>3156.8522544482339</v>
+        <v>2206.9235529661178</v>
       </c>
       <c r="C190">
-        <v>3156.8537047990135</v>
+        <v>2207.8536494664186</v>
       </c>
       <c r="D190">
-        <v>3157.5395527810292</v>
+        <v>2207.3399248087235</v>
       </c>
       <c r="E190">
-        <v>3156.9994977368315</v>
+        <v>2208.1646084265781</v>
       </c>
       <c r="F190">
-        <v>3156.3842344543682</v>
+        <v>2208.4778936221173</v>
       </c>
       <c r="G190">
-        <v>3208.8561875793739</v>
+        <v>2208.2121046511784</v>
       </c>
       <c r="H190" t="s">
         <v>8</v>
       </c>
       <c r="I190">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J190">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K190">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L190" t="s">
         <v>13</v>
@@ -8201,34 +8198,34 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="B191">
-        <v>3157.3247816696949</v>
+        <v>2279.7644829160135</v>
       </c>
       <c r="C191">
-        <v>3157.3257034854846</v>
+        <v>2280.6702030899141</v>
       </c>
       <c r="D191">
-        <v>3158.0110235807574</v>
+        <v>2280.1320917106859</v>
       </c>
       <c r="E191">
-        <v>3157.4704411382436</v>
+        <v>2280.9324139696409</v>
       </c>
       <c r="F191">
-        <v>3156.8546510415695</v>
+        <v>2281.2213393858397</v>
       </c>
       <c r="G191">
-        <v>3209.3260535376285</v>
+        <v>2280.9311913610322</v>
       </c>
       <c r="H191" t="s">
         <v>8</v>
       </c>
       <c r="I191">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J191">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K191">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L191" t="s">
         <v>13</v>
@@ -8242,34 +8239,34 @@
         <v>0.13263888888888889</v>
       </c>
       <c r="B192">
-        <v>3157.6363997899111</v>
+        <v>2344.0747108258715</v>
       </c>
       <c r="C192">
-        <v>3157.6369730520682</v>
+        <v>2344.9589095077822</v>
       </c>
       <c r="D192">
-        <v>3158.3219450212073</v>
+        <v>2344.3992674586598</v>
       </c>
       <c r="E192">
-        <v>3157.781014774665</v>
+        <v>2345.1780814401</v>
       </c>
       <c r="F192">
-        <v>3157.1648772591602</v>
+        <v>2345.4454999732484</v>
       </c>
       <c r="G192">
-        <v>3209.6359166312554</v>
+        <v>2345.1338457057955</v>
       </c>
       <c r="H192" t="s">
         <v>8</v>
       </c>
       <c r="I192">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J192">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K192">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L192" t="s">
         <v>13</v>
@@ -8283,34 +8280,34 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="B193">
-        <v>3157.8419029830288</v>
+        <v>2400.8533076649655</v>
       </c>
       <c r="C193">
-        <v>3157.8422463840848</v>
+        <v>2401.7185053336275</v>
       </c>
       <c r="D193">
-        <v>3158.5269887740437</v>
+        <v>2401.1398541681351</v>
       </c>
       <c r="E193">
-        <v>3157.9858291607402</v>
+        <v>2401.8996788031463</v>
       </c>
       <c r="F193">
-        <v>3157.3694625325043</v>
+        <v>2402.1481092209765</v>
       </c>
       <c r="G193">
-        <v>3209.8402624347832</v>
+        <v>2401.8174674035608</v>
       </c>
       <c r="H193" t="s">
         <v>8</v>
       </c>
       <c r="I193">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J193">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K193">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L193" t="s">
         <v>13</v>
@@ -8324,34 +8321,34 @@
         <v>0.13402777777777777</v>
       </c>
       <c r="B194">
-        <v>3157.9774264318939</v>
+        <v>2450.9823355138005</v>
       </c>
       <c r="C194">
-        <v>3157.9776182461596</v>
+        <v>2451.8307574582323</v>
       </c>
       <c r="D194">
-        <v>3158.6622092352504</v>
+        <v>2451.2353234143443</v>
       </c>
       <c r="E194">
-        <v>3158.1208983611618</v>
+        <v>2451.9783826255739</v>
       </c>
       <c r="F194">
-        <v>3157.5043806396643</v>
+        <v>2452.2100487065345</v>
       </c>
       <c r="G194">
-        <v>3209.9750226184833</v>
+        <v>2451.8626430513755</v>
       </c>
       <c r="H194" t="s">
         <v>8</v>
       </c>
       <c r="I194">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J194">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K194">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L194" t="s">
         <v>13</v>
@@ -8365,34 +8362,34 @@
         <v>0.13472222222222222</v>
       </c>
       <c r="B195">
-        <v>3158.0668002509337</v>
+        <v>2495.2405530315159</v>
       </c>
       <c r="C195">
-        <v>3158.0668920980684</v>
+        <v>2496.0741639254952</v>
       </c>
       <c r="D195">
-        <v>3158.7513832426375</v>
+        <v>2495.4639125148278</v>
       </c>
       <c r="E195">
-        <v>3158.2099726164088</v>
+        <v>2496.1921697697167</v>
       </c>
       <c r="F195">
-        <v>3157.5933552532492</v>
+        <v>2496.4090348539476</v>
       </c>
       <c r="G195">
-        <v>3210.0638930860846</v>
+        <v>2496.0468286427199</v>
       </c>
       <c r="H195" t="s">
         <v>8</v>
       </c>
       <c r="I195">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J195">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K195">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L195" t="s">
         <v>13</v>
@@ -8406,34 +8403,34 @@
         <v>0.13541666666666666</v>
       </c>
       <c r="B196">
-        <v>3158.1257397156228</v>
+        <v>2534.3155146511963</v>
       </c>
       <c r="C196">
-        <v>3158.1257656373073</v>
+        <v>2535.1360490765392</v>
       </c>
       <c r="D196">
-        <v>3158.8101909372854</v>
+        <v>2534.5127156206322</v>
       </c>
       <c r="E196">
-        <v>3158.2687145273871</v>
+        <v>2535.2279044359425</v>
       </c>
       <c r="F196">
-        <v>3157.6520314534155</v>
+        <v>2535.4317019278205</v>
       </c>
       <c r="G196">
-        <v>3210.1225006049681</v>
+        <v>2535.0564285132909</v>
       </c>
       <c r="H196" t="s">
         <v>8</v>
       </c>
       <c r="I196">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J196">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K196">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L196" t="s">
         <v>13</v>
@@ -8447,34 +8444,34 @@
         <v>0.1361111111111111</v>
       </c>
       <c r="B197">
-        <v>3158.1646085984239</v>
+        <v>2568.8142522713247</v>
       </c>
       <c r="C197">
-        <v>3158.1645910441703</v>
+        <v>2569.6232416655603</v>
       </c>
       <c r="D197">
-        <v>3158.848972921533</v>
+        <v>2568.9883582550378</v>
       </c>
       <c r="E197">
-        <v>3158.3074531291959</v>
+        <v>2569.6920091279844</v>
       </c>
       <c r="F197">
-        <v>3157.6907267208317</v>
+        <v>2569.8842694254986</v>
       </c>
       <c r="G197">
-        <v>3210.1611505790534</v>
+        <v>2569.4974591600917</v>
       </c>
       <c r="H197" t="s">
         <v>8</v>
       </c>
       <c r="I197">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J197">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K197">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L197" t="s">
         <v>13</v>
@@ -8488,34 +8485,34 @@
         <v>0.13680555555555554</v>
       </c>
       <c r="B198">
-        <v>3158.19024150939</v>
+        <v>2599.2727057439711</v>
       </c>
       <c r="C198">
-        <v>3158.1901952840044</v>
+        <v>2600.0715021916785</v>
       </c>
       <c r="D198">
-        <v>3158.874548525399</v>
+        <v>2599.4264214877303</v>
       </c>
       <c r="E198">
-        <v>3158.3330001235904</v>
+        <v>2600.1198856726987</v>
       </c>
       <c r="F198">
-        <v>3157.7162451374406</v>
+        <v>2600.3019599426334</v>
       </c>
       <c r="G198">
-        <v>3210.1866391260132</v>
+        <v>2599.9049639529048</v>
       </c>
       <c r="H198" t="s">
         <v>8</v>
       </c>
       <c r="I198">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J198">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K198">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L198" t="s">
         <v>13</v>
@@ -8529,34 +8526,34 @@
         <v>0.13749999999999998</v>
       </c>
       <c r="B199">
-        <v>3158.2071456773797</v>
+        <v>2626.1640488217968</v>
       </c>
       <c r="C199">
-        <v>3158.2070805442067</v>
+        <v>2626.9538460594654</v>
       </c>
       <c r="D199">
-        <v>3158.8914149010043</v>
+        <v>2626.299762307664</v>
       </c>
       <c r="E199">
-        <v>3158.3498476320715</v>
+        <v>2626.9842328081813</v>
       </c>
       <c r="F199">
-        <v>3157.7330737996936</v>
+        <v>2627.1573139767215</v>
       </c>
       <c r="G199">
-        <v>3210.2034480900898</v>
+        <v>2626.751325153341</v>
       </c>
       <c r="H199" t="s">
         <v>8</v>
       </c>
       <c r="I199">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J199">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K199">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L199" t="s">
         <v>13</v>
@@ -8570,34 +8567,34 @@
         <v>0.13819444444444443</v>
       </c>
       <c r="B200">
-        <v>3158.2182934902753</v>
+        <v>2649.9060399773907</v>
       </c>
       <c r="C200">
-        <v>3158.2182158879605</v>
+        <v>2650.6878919382525</v>
       </c>
       <c r="D200">
-        <v>3158.9025377909079</v>
+        <v>2650.0258595212931</v>
       </c>
       <c r="E200">
-        <v>3158.360958079651</v>
+        <v>2650.7023896234682</v>
       </c>
       <c r="F200">
-        <v>3157.7441718187256</v>
+        <v>2650.8675309084369</v>
       </c>
       <c r="G200">
-        <v>3210.2145331187412</v>
+        <v>2650.4536024378726</v>
       </c>
       <c r="H200" t="s">
         <v>8</v>
       </c>
       <c r="I200">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J200">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K200">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L200" t="s">
         <v>13</v>
@@ -8611,34 +8608,34 @@
         <v>0.1388888888888889</v>
       </c>
       <c r="B201">
-        <v>3158.2256451524454</v>
+        <v>2670.8675123204457</v>
       </c>
       <c r="C201">
-        <v>3158.2255593270897</v>
+        <v>2671.6423495074141</v>
       </c>
       <c r="D201">
-        <v>3158.9098730170826</v>
+        <v>2670.9732993250282</v>
       </c>
       <c r="E201">
-        <v>3158.3682851004683</v>
+        <v>2671.6428189604349</v>
       </c>
       <c r="F201">
-        <v>3157.7514906432752</v>
+        <v>2671.8009502331238</v>
       </c>
       <c r="G201">
-        <v>3210.2218433765079</v>
+        <v>2671.3800119589787</v>
       </c>
       <c r="H201" t="s">
         <v>8</v>
       </c>
       <c r="I201">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J201">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K201">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L201" t="s">
         <v>13</v>
@@ -8652,34 +8649,34 @@
         <v>0.13958333333333334</v>
       </c>
       <c r="B202">
-        <v>3158.2304933623263</v>
+        <v>2689.3741034471036</v>
       </c>
       <c r="C202">
-        <v>3158.2304021141117</v>
+        <v>2690.1427473881922</v>
       </c>
       <c r="D202">
-        <v>3158.9147103878977</v>
+        <v>2689.4675013187466</v>
       </c>
       <c r="E202">
-        <v>3158.3731170600854</v>
+        <v>2690.1308315109763</v>
       </c>
       <c r="F202">
-        <v>3157.756317197689</v>
+        <v>2690.2827737417465</v>
       </c>
       <c r="G202">
-        <v>3210.2266642813752</v>
+        <v>2689.8556466099421</v>
       </c>
       <c r="H202" t="s">
         <v>8</v>
       </c>
       <c r="I202">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J202">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K202">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L202" t="s">
         <v>13</v>
@@ -8693,34 +8690,34 @@
         <v>0.14027777777777778</v>
       </c>
       <c r="B203">
-        <v>2331.4769790521486</v>
+        <v>2705.7133142404246</v>
       </c>
       <c r="C203">
-        <v>2329.6265686860347</v>
+        <v>2706.4764902512397</v>
       </c>
       <c r="D203">
-        <v>2328.4625166716492</v>
+        <v>2705.7957739196595</v>
       </c>
       <c r="E203">
-        <v>2326.0748152522642</v>
+        <v>2706.4536395389678</v>
       </c>
       <c r="F203">
-        <v>2323.6139792378399</v>
+        <v>2706.6001175510823</v>
       </c>
       <c r="G203">
-        <v>2322.2731309948995</v>
+        <v>2706.1675263633042</v>
       </c>
       <c r="H203" t="s">
         <v>8</v>
       </c>
       <c r="I203">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J203">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K203">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L203" t="s">
         <v>13</v>
@@ -8734,34 +8731,34 @@
         <v>0.14097222222222222</v>
       </c>
       <c r="B204">
-        <v>1767.9223202270746</v>
+        <v>2720.1389752133005</v>
       </c>
       <c r="C204">
-        <v>1766.7012071154384</v>
+        <v>2720.8973236648571</v>
       </c>
       <c r="D204">
-        <v>1766.1656824528416</v>
+        <v>2720.2117777152516</v>
       </c>
       <c r="E204">
-        <v>1764.4059299669486</v>
+        <v>2720.864818739461</v>
       </c>
       <c r="F204">
-        <v>1762.5723497957788</v>
+        <v>2721.0064724692538</v>
       </c>
       <c r="G204">
-        <v>1761.8579465243615</v>
+        <v>2720.5690571427813</v>
       </c>
       <c r="H204" t="s">
         <v>8</v>
       </c>
       <c r="I204">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J204">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K204">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L204" t="s">
         <v>13</v>
@@ -8775,34 +8772,34 @@
         <v>0.14166666666666666</v>
       </c>
       <c r="B205">
-        <v>1396.0432365153922</v>
+        <v>2732.8751897795919</v>
       </c>
       <c r="C205">
-        <v>1395.2374666182782</v>
+        <v>2733.6292760465153</v>
       </c>
       <c r="D205">
-        <v>1395.116776515802</v>
+        <v>2732.9394660946182</v>
       </c>
       <c r="E205">
-        <v>1393.7714757562646</v>
+        <v>2733.5882475512094</v>
       </c>
       <c r="F205">
-        <v>1392.3518891469544</v>
+        <v>2733.725641989528</v>
       </c>
       <c r="G205">
-        <v>1392.050943888948</v>
+        <v>2733.2839674983888</v>
       </c>
       <c r="H205" t="s">
         <v>8</v>
       </c>
       <c r="I205">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J205">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K205">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L205" t="s">
         <v>13</v>
@@ -8816,34 +8813,34 @@
         <v>0.1423611111111111</v>
       </c>
       <c r="B206">
-        <v>1150.6539499834955</v>
+        <v>2744.1198157128351</v>
       </c>
       <c r="C206">
-        <v>1150.1222529299782</v>
+        <v>2744.8701389564803</v>
       </c>
       <c r="D206">
-        <v>1150.275300008276</v>
+        <v>2744.1765643765225</v>
       </c>
       <c r="E206">
-        <v>1149.2034837620429</v>
+        <v>2744.8215851203631</v>
       </c>
       <c r="F206">
-        <v>1148.0570793087843</v>
+        <v>2744.9552190897366</v>
       </c>
       <c r="G206">
-        <v>1148.0289628048724</v>
+        <v>2744.5097842416089</v>
       </c>
       <c r="H206" t="s">
         <v>8</v>
       </c>
       <c r="I206">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J206">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K206">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L206" t="s">
         <v>13</v>
@@ -8857,34 +8854,34 @@
         <v>0.14305555555555557</v>
       </c>
       <c r="B207">
-        <v>988.73087647935586</v>
+        <v>2754.047538877433</v>
       </c>
       <c r="C207">
-        <v>988.38002981728869</v>
+        <v>2754.7945398003912</v>
       </c>
       <c r="D207">
-        <v>988.71370579521522</v>
+        <v>2754.0976414829056</v>
       </c>
       <c r="E207">
-        <v>987.82235172070352</v>
+        <v>2754.7393419459913</v>
       </c>
       <c r="F207">
-        <v>986.85620992383133</v>
+        <v>2754.8696558498605</v>
       </c>
       <c r="G207">
-        <v>987.00812287948406</v>
+        <v>2754.420901035076</v>
       </c>
       <c r="H207" t="s">
         <v>8</v>
       </c>
       <c r="I207">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J207">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K207">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L207" t="s">
         <v>13</v>
@@ -8898,34 +8895,34 @@
         <v>0.14375000000000002</v>
       </c>
       <c r="B208">
-        <v>881.8839986589802</v>
+        <v>2762.8125869829082</v>
       </c>
       <c r="C208">
-        <v>881.65248829731081</v>
+        <v>2763.5566546753407</v>
       </c>
       <c r="D208">
-        <v>882.10535442158618</v>
+        <v>2762.8568218764194</v>
       </c>
       <c r="E208">
-        <v>881.33308047591254</v>
+        <v>2763.4955909100054</v>
       </c>
       <c r="F208">
-        <v>880.48588715524522</v>
+        <v>2763.62297357442</v>
       </c>
       <c r="G208">
-        <v>880.75659470938797</v>
+        <v>2763.171287607448</v>
       </c>
       <c r="H208" t="s">
         <v>8</v>
       </c>
       <c r="I208">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J208">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K208">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L208" t="s">
         <v>13</v>
@@ -8939,34 +8936,34 @@
         <v>0.14444444444444446</v>
       </c>
       <c r="B209">
-        <v>811.37980811942964</v>
+        <v>2770.5511255196648</v>
       </c>
       <c r="C209">
-        <v>811.22704324342988</v>
+        <v>2771.2926035038381</v>
       </c>
       <c r="D209">
-        <v>811.75855841187638</v>
+        <v>2770.5901798922487</v>
       </c>
       <c r="E209">
-        <v>811.06486091399881</v>
+        <v>2771.2263608076778</v>
       </c>
       <c r="F209">
-        <v>810.29615716855972</v>
+        <v>2771.3511555217219</v>
       </c>
       <c r="G209">
-        <v>810.6452527598808</v>
+        <v>2770.8968816814277</v>
       </c>
       <c r="H209" t="s">
         <v>8</v>
       </c>
       <c r="I209">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J209">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K209">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L209" t="s">
         <v>13</v>
@@ -8980,34 +8977,34 @@
         <v>0.1451388888888889</v>
       </c>
       <c r="B210">
-        <v>764.85677456971916</v>
+        <v>2777.3833730971041</v>
       </c>
       <c r="C210">
-        <v>764.75597084446019</v>
+        <v>2778.1225646640314</v>
       </c>
       <c r="D210">
-        <v>765.33938352557072</v>
+        <v>2777.4178536601253</v>
       </c>
       <c r="E210">
-        <v>764.69753563676954</v>
+        <v>2778.0517495621866</v>
       </c>
       <c r="F210">
-        <v>763.98062417650397</v>
+        <v>2778.1742594109996</v>
       </c>
       <c r="G210">
-        <v>764.38144505190189</v>
+        <v>2777.7177007734977</v>
       </c>
       <c r="H210" t="s">
         <v>8</v>
       </c>
       <c r="I210">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J210">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K210">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L210" t="s">
         <v>13</v>
@@ -9021,34 +9018,34 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="B211">
-        <v>734.15799434063354</v>
+        <v>2783.415469046201</v>
       </c>
       <c r="C211">
-        <v>734.09147780228659</v>
+        <v>2784.1526419672805</v>
       </c>
       <c r="D211">
-        <v>734.70913567796367</v>
+        <v>2783.4459114566507</v>
       </c>
       <c r="E211">
-        <v>734.10150137397397</v>
+        <v>2784.0777899523273</v>
       </c>
       <c r="F211">
-        <v>733.41876567265638</v>
+        <v>2784.1982825255432</v>
       </c>
       <c r="G211">
-        <v>733.85371809552703</v>
+        <v>2783.739706672503</v>
       </c>
       <c r="H211" t="s">
         <v>8</v>
       </c>
       <c r="I211">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J211">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K211">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L211" t="s">
         <v>13</v>
@@ -9062,34 +9059,34 @@
         <v>0.14652777777777778</v>
       </c>
       <c r="B212">
-        <v>713.90103696607298</v>
+        <v>2788.7411222996379</v>
       </c>
       <c r="C212">
-        <v>713.85714523817751</v>
+        <v>2789.4765129864932</v>
       </c>
       <c r="D212">
-        <v>714.49740021515424</v>
+        <v>2788.7679994815885</v>
       </c>
       <c r="E212">
-        <v>713.91234215438942</v>
+        <v>2789.3980968373485</v>
       </c>
       <c r="F212">
-        <v>713.25215773644823</v>
+        <v>2789.5168083861176</v>
       </c>
       <c r="G212">
-        <v>713.70963226922447</v>
+        <v>2789.0564515616566</v>
       </c>
       <c r="H212" t="s">
         <v>8</v>
       </c>
       <c r="I212">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J212">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K212">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L212" t="s">
         <v>13</v>
@@ -9103,34 +9100,34 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="B213">
-        <v>700.53424131450311</v>
+        <v>2793.4430671650994</v>
       </c>
       <c r="C213">
-        <v>700.50527883843813</v>
+        <v>2794.1768843422551</v>
       </c>
       <c r="D213">
-        <v>701.16044478303002</v>
+        <v>2793.4667966566085</v>
       </c>
       <c r="E213">
-        <v>700.59028392642983</v>
+        <v>2794.095321468817</v>
       </c>
       <c r="F213">
-        <v>699.94498024259894</v>
+        <v>2794.2124605759823</v>
       </c>
       <c r="G213">
-        <v>700.4173162590215</v>
+        <v>2793.7505313567303</v>
       </c>
       <c r="H213" t="s">
         <v>8</v>
       </c>
       <c r="I213">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J213">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K213">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L213" t="s">
         <v>13</v>
@@ -9144,34 +9141,34 @@
         <v>0.14791666666666667</v>
       </c>
       <c r="B214">
-        <v>691.71400130080724</v>
+        <v>2797.5943486071669</v>
       </c>
       <c r="C214">
-        <v>691.69489007015682</v>
+        <v>2798.3267765545897</v>
       </c>
       <c r="D214">
-        <v>692.35989519510474</v>
+        <v>2797.6152990467558</v>
       </c>
       <c r="E214">
-        <v>691.79956443688343</v>
+        <v>2798.2424354822283</v>
       </c>
       <c r="F214">
-        <v>691.16407998346892</v>
+        <v>2798.3581863026652</v>
       </c>
       <c r="G214">
-        <v>691.64622252765935</v>
+        <v>2797.8948688380174</v>
       </c>
       <c r="H214" t="s">
         <v>8</v>
       </c>
       <c r="I214">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J214">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K214">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L214" t="s">
         <v>13</v>
@@ -9185,34 +9182,34 @@
         <v>0.14861111111111111</v>
       </c>
       <c r="B215">
-        <v>685.89386041385762</v>
+        <v>2801.2594570047131</v>
       </c>
       <c r="C215">
-        <v>685.88124964534165</v>
+        <v>2801.9906584206087</v>
       </c>
       <c r="D215">
-        <v>686.55274727115091</v>
+        <v>2801.2779538581804</v>
       </c>
       <c r="E215">
-        <v>685.99890302093945</v>
+        <v>2801.9038645152259</v>
       </c>
       <c r="F215">
-        <v>685.36989790417999</v>
+        <v>2802.018389636703</v>
       </c>
       <c r="G215">
-        <v>685.85851140303032</v>
+        <v>2801.5538465095874</v>
       </c>
       <c r="H215" t="s">
         <v>8</v>
       </c>
       <c r="I215">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J215">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K215">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L215" t="s">
         <v>13</v>
@@ -9226,34 +9223,34 @@
         <v>0.14930555555555555</v>
       </c>
       <c r="B216">
-        <v>682.05337082498625</v>
+        <v>2804.4953300124275</v>
       </c>
       <c r="C216">
-        <v>682.04504946417262</v>
+        <v>2805.2254485407725</v>
       </c>
       <c r="D216">
-        <v>682.720831244343</v>
+        <v>2804.5116606289826</v>
       </c>
       <c r="E216">
-        <v>682.17126719403802</v>
+        <v>2805.1364890633781</v>
       </c>
       <c r="F216">
-        <v>681.54653754508058</v>
+        <v>2805.2499320323645</v>
       </c>
       <c r="G216">
-        <v>682.03942098077346</v>
+        <v>2804.7843067849767</v>
       </c>
       <c r="H216" t="s">
         <v>8</v>
       </c>
       <c r="I216">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J216">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K216">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L216" t="s">
         <v>13</v>
@@ -9267,34 +9264,34 @@
         <v>0.15</v>
       </c>
       <c r="B217">
-        <v>679.51917782713224</v>
+        <v>2807.3522370902815</v>
       </c>
       <c r="C217">
-        <v>679.51368688330342</v>
+        <v>2808.0813995523317</v>
       </c>
       <c r="D217">
-        <v>680.19229561397924</v>
+        <v>2807.3666551665247</v>
       </c>
       <c r="E217">
-        <v>679.64555590478528</v>
+        <v>2807.9905281216593</v>
       </c>
       <c r="F217">
-        <v>679.02364747440333</v>
+        <v>2808.1030156733282</v>
       </c>
       <c r="G217">
-        <v>679.51934847900168</v>
+        <v>2807.6364350370663</v>
       </c>
       <c r="H217" t="s">
         <v>8</v>
       </c>
       <c r="I217">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J217">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K217">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L217" t="s">
         <v>13</v>
@@ -9308,34 +9305,34 @@
         <v>0.15069444444444444</v>
       </c>
       <c r="B218">
-        <v>677.84696026169968</v>
+        <v>2809.8745604422852</v>
       </c>
       <c r="C218">
-        <v>677.84333700237835</v>
+        <v>2810.602878806762</v>
       </c>
       <c r="D218">
-        <v>678.52381113016304</v>
+        <v>2809.887289963403</v>
       </c>
       <c r="E218">
-        <v>677.97893509623805</v>
+        <v>2810.5103193392451</v>
       </c>
       <c r="F218">
-        <v>677.35888828068221</v>
+        <v>2810.6219633663113</v>
       </c>
       <c r="G218">
-        <v>677.85644849182881</v>
+        <v>2810.1545392305597</v>
       </c>
       <c r="H218" t="s">
         <v>8</v>
       </c>
       <c r="I218">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J218">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K218">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L218" t="s">
         <v>13</v>
@@ -9349,34 +9346,34 @@
         <v>0.15138888888888888</v>
       </c>
       <c r="B219">
-        <v>680.77840638326109</v>
+        <v>2816.2344974376074</v>
       </c>
       <c r="C219">
-        <v>680.78490109265738</v>
+        <v>2817.0028208879812</v>
       </c>
       <c r="D219">
-        <v>681.53562235553215</v>
+        <v>2816.2971507812395</v>
       </c>
       <c r="E219">
-        <v>680.94070129163799</v>
+        <v>2816.9902598541885</v>
       </c>
       <c r="F219">
-        <v>680.39087834729435</v>
+        <v>2817.0817354921455</v>
       </c>
       <c r="G219">
-        <v>680.83335988141118</v>
+        <v>2816.6141932562969</v>
       </c>
       <c r="H219" t="s">
         <v>8</v>
       </c>
       <c r="I219">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J219">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K219">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L219" t="s">
         <v>13</v>
@@ -9390,34 +9387,34 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="B220">
-        <v>682.75629390708968</v>
+        <v>2821.9325630647904</v>
       </c>
       <c r="C220">
-        <v>682.7605795103392</v>
+        <v>2822.6989790345233</v>
       </c>
       <c r="D220">
-        <v>683.50909439339443</v>
+        <v>2821.9914006081881</v>
       </c>
       <c r="E220">
-        <v>682.9119689450979</v>
+        <v>2822.6826034050787</v>
       </c>
       <c r="F220">
-        <v>682.35994409555224</v>
+        <v>2822.7721728026795</v>
       </c>
       <c r="G220">
-        <v>682.8002265290778</v>
+        <v>2822.3027244061736</v>
       </c>
       <c r="H220" t="s">
         <v>8</v>
       </c>
       <c r="I220">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J220">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K220">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L220" t="s">
         <v>13</v>
@@ -9431,34 +9428,34 @@
         <v>0.15277777777777776</v>
       </c>
       <c r="B221">
-        <v>684.06142504079423</v>
+        <v>2826.9631561892988</v>
       </c>
       <c r="C221">
-        <v>684.06425295525776</v>
+        <v>2827.7278884250791</v>
       </c>
       <c r="D221">
-        <v>684.81131194860188</v>
+        <v>2827.0186255220056</v>
       </c>
       <c r="E221">
-        <v>684.21273192678746</v>
+        <v>2827.7081456467322</v>
       </c>
       <c r="F221">
-        <v>683.6592541395413</v>
+        <v>2827.7960324023552</v>
       </c>
       <c r="G221">
-        <v>684.09808548616707</v>
+        <v>2827.3249014329413</v>
       </c>
       <c r="H221" t="s">
         <v>8</v>
       </c>
       <c r="I221">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J221">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K221">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L221" t="s">
         <v>13</v>
@@ -9472,34 +9469,34 @@
         <v>0.15347222222222223</v>
       </c>
       <c r="B222">
-        <v>684.92263168808779</v>
+        <v>2831.4045349981811</v>
       </c>
       <c r="C222">
-        <v>684.92449772967018</v>
+        <v>2832.1677808366553</v>
       </c>
       <c r="D222">
-        <v>685.67059603727921</v>
+        <v>2831.4570308796083</v>
       </c>
       <c r="E222">
-        <v>685.07105619820845</v>
+        <v>2832.1450655437466</v>
       </c>
       <c r="F222">
-        <v>684.51661967311395</v>
+        <v>2832.231466864876</v>
       </c>
       <c r="G222">
-        <v>684.9544935031721</v>
+        <v>2831.7588505214044</v>
       </c>
       <c r="H222" t="s">
         <v>8</v>
       </c>
       <c r="I222">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J222">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K222">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L222" t="s">
         <v>13</v>
@@ -9513,34 +9510,34 @@
         <v>0.15416666666666667</v>
       </c>
       <c r="B223">
-        <v>685.49090943691556</v>
+        <v>2835.3257413671372</v>
       </c>
       <c r="C223">
-        <v>685.49214077494514</v>
+        <v>2836.0876749477934</v>
       </c>
       <c r="D223">
-        <v>686.23760516235404</v>
+        <v>2835.3756121528027</v>
       </c>
       <c r="E223">
-        <v>685.63743197615884</v>
+        <v>2836.0623353858377</v>
       </c>
       <c r="F223">
-        <v>685.08236281619929</v>
+        <v>2836.1474252986659</v>
       </c>
       <c r="G223">
-        <v>685.51960481727053</v>
+        <v>2835.6734976000293</v>
       </c>
       <c r="H223" t="s">
         <v>8</v>
       </c>
       <c r="I223">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J223">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K223">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L223" t="s">
         <v>13</v>
@@ -9554,34 +9551,34 @@
         <v>0.15486111111111112</v>
       </c>
       <c r="B224">
-        <v>685.86589447001859</v>
+        <v>2838.7877099915027</v>
       </c>
       <c r="C224">
-        <v>685.86670699113665</v>
+        <v>2839.5484850235889</v>
       </c>
       <c r="D224">
-        <v>686.61175307853989</v>
+        <v>2838.8352631676876</v>
       </c>
       <c r="E224">
-        <v>686.01116197048907</v>
+        <v>2839.5208285819213</v>
       </c>
       <c r="F224">
-        <v>685.45567535866724</v>
+        <v>2839.6047606959801</v>
       </c>
       <c r="G224">
-        <v>685.89250043964478</v>
+        <v>2839.1296752453936</v>
       </c>
       <c r="H224" t="s">
         <v>8</v>
       </c>
       <c r="I224">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J224">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K224">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L224" t="s">
         <v>13</v>
@@ -9595,34 +9592,34 @@
         <v>0.15555555555555556</v>
       </c>
       <c r="B225">
-        <v>686.11333293731764</v>
+        <v>2841.8442303139418</v>
       </c>
       <c r="C225">
-        <v>686.11386909696728</v>
+        <v>2842.6039824901377</v>
       </c>
       <c r="D225">
-        <v>686.85863916398773</v>
+        <v>2841.8897373259465</v>
       </c>
       <c r="E225">
-        <v>686.25777228508105</v>
+        <v>2842.5742805285413</v>
       </c>
       <c r="F225">
-        <v>685.70201021253536</v>
+        <v>2842.6571904486082</v>
       </c>
       <c r="G225">
-        <v>686.13856018368176</v>
+        <v>2842.1810828453235</v>
       </c>
       <c r="H225" t="s">
         <v>8</v>
       </c>
       <c r="I225">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J225">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K225">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L225" t="s">
         <v>13</v>
@@ -9636,34 +9633,34 @@
         <v>0.15625</v>
       </c>
       <c r="B226">
-        <v>686.27660824086036</v>
+        <v>2844.5427885484846</v>
       </c>
       <c r="C226">
-        <v>686.27696204000927</v>
+        <v>2845.301637663687</v>
       </c>
       <c r="D226">
-        <v>687.02154997159914</v>
+        <v>2844.5864890390576</v>
       </c>
       <c r="E226">
-        <v>686.42050112191589</v>
+        <v>2845.2701297494368</v>
       </c>
       <c r="F226">
-        <v>685.86455728323665</v>
+        <v>2845.3521371928509</v>
       </c>
       <c r="G226">
-        <v>686.30092571979173</v>
+        <v>2844.8751271493561</v>
       </c>
       <c r="H226" t="s">
         <v>8</v>
       </c>
       <c r="I226">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J226">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K226">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L226" t="s">
         <v>13</v>
@@ -9677,34 +9674,34 @@
         <v>0.15694444444444444</v>
       </c>
       <c r="B227">
-        <v>697.94731300602768</v>
+        <v>2876.7957355739618</v>
       </c>
       <c r="C227">
-        <v>697.97286321638103</v>
+        <v>2877.6297823441919</v>
       </c>
       <c r="D227">
-        <v>698.88545416536454</v>
+        <v>2876.8469096621279</v>
       </c>
       <c r="E227">
-        <v>698.02387780913887</v>
+        <v>2877.7485853924463</v>
       </c>
       <c r="F227">
-        <v>697.56446153112574</v>
+        <v>2877.8342670186207</v>
       </c>
       <c r="G227">
-        <v>698.13303979227385</v>
+        <v>2877.4442542101356</v>
       </c>
       <c r="H227" t="s">
         <v>8</v>
       </c>
       <c r="I227">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J227">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K227">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L227" t="s">
         <v>13</v>
@@ -9718,34 +9715,34 @@
         <v>0.15763888888888888</v>
       </c>
       <c r="B228">
-        <v>705.72835994370996</v>
+        <v>2905.481896269705</v>
       </c>
       <c r="C228">
-        <v>705.74521954015586</v>
+        <v>2906.3063388246942</v>
       </c>
       <c r="D228">
-        <v>706.64913079625342</v>
+        <v>2905.5138569928031</v>
       </c>
       <c r="E228">
-        <v>705.77888200890413</v>
+        <v>2906.4059353014627</v>
       </c>
       <c r="F228">
-        <v>705.31080354324774</v>
+        <v>2906.4820186100592</v>
       </c>
       <c r="G228">
-        <v>705.87073069837186</v>
+        <v>2906.0824083117786</v>
       </c>
       <c r="H228" t="s">
         <v>8</v>
       </c>
       <c r="I228">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J228">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K228">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L228" t="s">
         <v>13</v>
@@ -9759,34 +9756,34 @@
         <v>0.15833333333333333</v>
       </c>
       <c r="B229">
-        <v>710.86277926813432</v>
+        <v>2930.8074806664263</v>
       </c>
       <c r="C229">
-        <v>710.87390429831714</v>
+        <v>2931.62344633258</v>
       </c>
       <c r="D229">
-        <v>711.7720881948336</v>
+        <v>2930.8224832393862</v>
       </c>
       <c r="E229">
-        <v>710.89611683792498</v>
+        <v>2931.7060906457773</v>
       </c>
       <c r="F229">
-        <v>710.42232256195052</v>
+        <v>2931.7737022502565</v>
       </c>
       <c r="G229">
-        <v>710.97654121951814</v>
+        <v>2931.3656209699511</v>
       </c>
       <c r="H229" t="s">
         <v>8</v>
       </c>
       <c r="I229">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J229">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K229">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L229" t="s">
         <v>13</v>
@@ -9800,34 +9797,34 @@
         <v>0.15902777777777777</v>
       </c>
       <c r="B230">
-        <v>714.25079270544325</v>
+        <v>2953.1666896348679</v>
       </c>
       <c r="C230">
-        <v>714.25813370972924</v>
+        <v>2953.975172235484</v>
       </c>
       <c r="D230">
-        <v>715.15253833578811</v>
+        <v>2953.166722209723</v>
       </c>
       <c r="E230">
-        <v>714.2727908690855</v>
+        <v>2954.042851831211</v>
       </c>
       <c r="F230">
-        <v>713.79522494348839</v>
+        <v>2954.102984938273</v>
       </c>
       <c r="G230">
-        <v>714.34567677687585</v>
+        <v>2953.6874257943919</v>
       </c>
       <c r="H230" t="s">
         <v>8</v>
       </c>
       <c r="I230">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J230">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K230">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L230" t="s">
         <v>13</v>
@@ -9841,34 +9838,34 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="B231">
-        <v>716.48641769150038</v>
+        <v>2972.9071892424604</v>
       </c>
       <c r="C231">
-        <v>716.49126175692504</v>
+        <v>2973.7090655860411</v>
       </c>
       <c r="D231">
-        <v>717.383172582062</v>
+        <v>2972.8940058863113</v>
       </c>
       <c r="E231">
-        <v>716.50093340003775</v>
+        <v>2973.7635339109315</v>
       </c>
       <c r="F231">
-        <v>716.02087870222101</v>
+        <v>2973.8170647901297</v>
       </c>
       <c r="G231">
-        <v>716.56884494752171</v>
+        <v>2973.3949039764479</v>
       </c>
       <c r="H231" t="s">
         <v>8</v>
       </c>
       <c r="I231">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J231">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K231">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L231" t="s">
         <v>13</v>
@@ -9882,34 +9879,34 @@
         <v>0.16041666666666668</v>
       </c>
       <c r="B232">
-        <v>717.96162409478734</v>
+        <v>2990.3357736415805</v>
       </c>
       <c r="C232">
-        <v>717.96482052243505</v>
+        <v>2991.1318175875595</v>
       </c>
       <c r="D232">
-        <v>718.85508578040594</v>
+        <v>2990.3109224722866</v>
       </c>
       <c r="E232">
-        <v>717.97120240742606</v>
+        <v>2991.1746222128468</v>
       </c>
       <c r="F232">
-        <v>717.4895054606975</v>
+        <v>2991.2223242500818</v>
       </c>
       <c r="G232">
-        <v>718.03583155817842</v>
+        <v>2990.7943350864894</v>
       </c>
       <c r="H232" t="s">
         <v>8</v>
       </c>
       <c r="I232">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J232">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K232">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L232" t="s">
         <v>13</v>
@@ -9923,34 +9920,34 @@
         <v>0.16111111111111112</v>
       </c>
       <c r="B233">
-        <v>718.93505834573341</v>
+        <v>3005.7232419323573</v>
       </c>
       <c r="C233">
-        <v>718.93716755803246</v>
+        <v>3006.5141366007615</v>
       </c>
       <c r="D233">
-        <v>719.82634696697346</v>
+        <v>3005.6880895429226</v>
       </c>
       <c r="E233">
-        <v>718.94137865307493</v>
+        <v>3006.546643637344</v>
       </c>
       <c r="F233">
-        <v>718.45859804691065</v>
+        <v>3006.5891995355346</v>
       </c>
       <c r="G233">
-        <v>719.00384187138877</v>
+        <v>3006.1560646670528</v>
       </c>
       <c r="H233" t="s">
         <v>8</v>
       </c>
       <c r="I233">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J233">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K233">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L233" t="s">
         <v>13</v>
@@ -9964,34 +9961,34 @@
         <v>0.16180555555555556</v>
       </c>
       <c r="B234">
-        <v>719.57739167539683</v>
+        <v>3019.3086517718034</v>
       </c>
       <c r="C234">
-        <v>719.57878347441988</v>
+        <v>3020.0950002345648</v>
       </c>
       <c r="D234">
-        <v>720.46724637166847</v>
+        <v>3019.264404617988</v>
       </c>
       <c r="E234">
-        <v>719.58156214530607</v>
+        <v>3020.11841571277</v>
       </c>
       <c r="F234">
-        <v>719.09806647228152</v>
+        <v>3020.156428175997</v>
       </c>
       <c r="G234">
-        <v>719.64259614475509</v>
+        <v>3019.7187502557454</v>
       </c>
       <c r="H234" t="s">
         <v>8</v>
       </c>
       <c r="I234">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J234">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K234">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L234" t="s">
         <v>13</v>
@@ -10005,34 +10002,34 @@
         <v>0.16250000000000001</v>
       </c>
       <c r="B235">
-        <v>720.00124372908806</v>
+        <v>3031.3030527718192</v>
       </c>
       <c r="C235">
-        <v>720.00216213357191</v>
+        <v>3032.0853874545955</v>
       </c>
       <c r="D235">
-        <v>720.89015223120361</v>
+        <v>3031.2507759804244</v>
       </c>
       <c r="E235">
-        <v>720.00399560063261</v>
+        <v>3032.1007761256997</v>
       </c>
       <c r="F235">
-        <v>719.52002808138229</v>
+        <v>3032.134777255018</v>
       </c>
       <c r="G235">
-        <v>720.06408651130994</v>
+        <v>3031.693088339126</v>
       </c>
       <c r="H235" t="s">
         <v>8</v>
       </c>
       <c r="I235">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J235">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K235">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L235" t="s">
         <v>13</v>
@@ -10046,34 +10043,34 @@
         <v>0.16319444444444445</v>
       </c>
       <c r="B236">
-        <v>720.28092805360166</v>
+        <v>3041.8927733493933</v>
       </c>
       <c r="C236">
-        <v>720.28153408250364</v>
+        <v>3042.671564316528</v>
       </c>
       <c r="D236">
-        <v>721.16921219712049</v>
+        <v>3041.8334072923808</v>
       </c>
       <c r="E236">
-        <v>720.28274384445047</v>
+        <v>3042.6798662209849</v>
       </c>
       <c r="F236">
-        <v>719.79846497129336</v>
+        <v>3042.7103257942213</v>
       </c>
       <c r="G236">
-        <v>720.3422124456597</v>
+        <v>3042.2650956208836</v>
       </c>
       <c r="H236" t="s">
         <v>8</v>
       </c>
       <c r="I236">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J236">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K236">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L236" t="s">
         <v>13</v>
@@ -10087,34 +10084,34 @@
         <v>0.16388888888888889</v>
       </c>
       <c r="B237">
-        <v>720.46548141531594</v>
+        <v>3051.2423187152722</v>
       </c>
       <c r="C237">
-        <v>720.4658813191021</v>
+        <v>3052.017980977836</v>
       </c>
       <c r="D237">
-        <v>721.35335356764404</v>
+        <v>3051.1766936295921</v>
       </c>
       <c r="E237">
-        <v>720.46667952106736</v>
+        <v>3052.0200260599258</v>
       </c>
       <c r="F237">
-        <v>719.98219519695988</v>
+        <v>3052.0473588352243</v>
       </c>
       <c r="G237">
-        <v>720.52573748323005</v>
+        <v>3051.5990021276011</v>
       </c>
       <c r="H237" t="s">
         <v>8</v>
       </c>
       <c r="I237">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J237">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K237">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L237" t="s">
         <v>13</v>
@@ -10128,34 +10125,34 @@
         <v>0.16458333333333333</v>
       </c>
       <c r="B238">
-        <v>720.58726136626365</v>
+        <v>3059.4969278177978</v>
       </c>
       <c r="C238">
-        <v>720.58752525569503</v>
+        <v>3060.2698277829772</v>
       </c>
       <c r="D238">
-        <v>721.47486166081262</v>
+        <v>3059.4257767074814</v>
       </c>
       <c r="E238">
-        <v>720.58805188442022</v>
+        <v>3060.2663487883442</v>
       </c>
       <c r="F238">
-        <v>720.10343199081444</v>
+        <v>3060.2909209495929</v>
       </c>
       <c r="G238">
-        <v>720.64683888103366</v>
+        <v>3059.8398038606906</v>
       </c>
       <c r="H238" t="s">
         <v>8</v>
       </c>
       <c r="I238">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J238">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K238">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L238" t="s">
         <v>13</v>
@@ -10169,34 +10166,34 @@
         <v>0.16527777777777777</v>
       </c>
       <c r="B239">
-        <v>720.66761946061172</v>
+        <v>3066.7848301424629</v>
       </c>
       <c r="C239">
-        <v>720.66779359919076</v>
+        <v>3067.5552913064676</v>
       </c>
       <c r="D239">
-        <v>721.55504036624768</v>
+        <v>3066.7088001673778</v>
       </c>
       <c r="E239">
-        <v>720.66814102675971</v>
+        <v>3067.5469351668562</v>
       </c>
       <c r="F239">
-        <v>720.18343167584646</v>
+        <v>3067.5690700131236</v>
       </c>
       <c r="G239">
-        <v>720.72674922320971</v>
+        <v>3067.1155158147494</v>
       </c>
       <c r="H239" t="s">
         <v>8</v>
       </c>
       <c r="I239">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J239">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K239">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L239" t="s">
         <v>13</v>
@@ -10210,34 +10207,34 @@
         <v>0.16597222222222222</v>
       </c>
       <c r="B240">
-        <v>720.7206448008003</v>
+        <v>3073.2192379216003</v>
       </c>
       <c r="C240">
-        <v>720.72075971610514</v>
+        <v>3073.9875458953743</v>
       </c>
       <c r="D240">
-        <v>721.6079473343143</v>
+        <v>3073.1389004514772</v>
       </c>
       <c r="E240">
-        <v>720.72098889544566</v>
+        <v>3073.9748837791094</v>
       </c>
       <c r="F240">
-        <v>720.23622051495738</v>
+        <v>3073.9948667472868</v>
       </c>
       <c r="G240">
-        <v>720.77947910826811</v>
+        <v>3073.5391608522668</v>
       </c>
       <c r="H240" t="s">
         <v>8</v>
       </c>
       <c r="I240">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J240">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K240">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L240" t="s">
         <v>13</v>
@@ -10251,34 +10248,34 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="B241">
-        <v>720.75563426545875</v>
+        <v>3078.9001049109688</v>
       </c>
       <c r="C241">
-        <v>720.75571010151066</v>
+        <v>3079.6665118571264</v>
       </c>
       <c r="D241">
-        <v>721.64285868957882</v>
+        <v>3078.8159644015695</v>
       </c>
       <c r="E241">
-        <v>720.75586125321058</v>
+        <v>3079.6500480421482</v>
       </c>
       <c r="F241">
-        <v>720.27105392128453</v>
+        <v>3079.6681311411858</v>
       </c>
       <c r="G241">
-        <v>720.81427361299211</v>
+        <v>3079.2105255372194</v>
       </c>
       <c r="H241" t="s">
         <v>8</v>
       </c>
       <c r="I241">
-        <v>22</v>
+        <v>22.0015</v>
       </c>
       <c r="J241">
-        <v>80</v>
+        <v>79.999499999999998</v>
       </c>
       <c r="K241">
-        <v>7.7504000000000003E-2</v>
+        <v>0.27323999999999998</v>
       </c>
       <c r="L241" t="s">
         <v>13</v>
